--- a/System Design and Documentation/Washing Machine Design Calculations.xlsx
+++ b/System Design and Documentation/Washing Machine Design Calculations.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dcdf7eb514dfaeec/Projects/Microgravity-Press-Washing-Machine/System Design and Documentation/Structure and CAD/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dcdf7eb514dfaeec/Projects/Microgravity-Press-Washing-Machine/System Design and Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="950" documentId="13_ncr:1_{4AAA6B9C-80F3-4AB5-A3F7-F08D2B1D8BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A07CB529-EBDD-4A51-86B7-61A3CA1BC13A}"/>
+  <xr:revisionPtr revIDLastSave="1338" documentId="13_ncr:1_{4AAA6B9C-80F3-4AB5-A3F7-F08D2B1D8BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F3FCFBE-509E-4905-95DF-FA25CFBB143C}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="2" xr2:uid="{73A7591B-B5CA-4318-9343-9B3FDBEBCAB4}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" firstSheet="1" activeTab="4" xr2:uid="{73A7591B-B5CA-4318-9343-9B3FDBEBCAB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Design and Material Specs" sheetId="2" r:id="rId1"/>
-    <sheet name="Key Dimensions" sheetId="7" r:id="rId2"/>
-    <sheet name="WS Sizing Calculations" sheetId="1" r:id="rId3"/>
-    <sheet name="Sources" sheetId="8" r:id="rId4"/>
-    <sheet name="Equation Derivation" sheetId="3" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
+    <sheet name="WS Sizing Calculations" sheetId="1" r:id="rId2"/>
+    <sheet name="Sources" sheetId="8" r:id="rId3"/>
+    <sheet name="Equation Derivation" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="AmbientPressureAbsolute">'Design and Material Specs'!$N$14</definedName>
@@ -40,7 +39,6 @@
     <definedName name="WPRT">Sheet1!$B$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -61,7 +59,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -83,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="294">
   <si>
     <t>Desired Force Application</t>
   </si>
@@ -547,9 +545,6 @@
     <t>Chain Tension for Applied Load</t>
   </si>
   <si>
-    <t>Driving Chain Size</t>
-  </si>
-  <si>
     <t>2.1.2 Engagement with Sprockets (chain-guide.com)</t>
   </si>
   <si>
@@ -661,9 +656,6 @@
     <t>Spring Travel</t>
   </si>
   <si>
-    <t>Nut Length</t>
-  </si>
-  <si>
     <t>Force Applied Load</t>
   </si>
   <si>
@@ -781,9 +773,6 @@
     <t>Allowable Piston Travel &amp; Chamber Top Travel</t>
   </si>
   <si>
-    <t>Motor Speed</t>
-  </si>
-  <si>
     <t>Motor RPM</t>
   </si>
   <si>
@@ -841,27 +830,12 @@
     <t>Minimum Pin Diameter for Shear Stress</t>
   </si>
   <si>
-    <t>stress=F/(D/2^2)</t>
-  </si>
-  <si>
-    <t>Sqrt((F/S)*2)</t>
-  </si>
-  <si>
     <t>Thrust Beam Span</t>
   </si>
   <si>
-    <t>Span Found from ACME location in assembly</t>
-  </si>
-  <si>
     <t>Required Pin Thickness (for hatch beam)</t>
   </si>
   <si>
-    <t>Assumed Sealing Force</t>
-  </si>
-  <si>
-    <t>not known, assumed</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
@@ -875,6 +849,120 @@
   </si>
   <si>
     <t>Wash Thrust Arm</t>
+  </si>
+  <si>
+    <t>Driving Sprocket Size</t>
+  </si>
+  <si>
+    <t>Nm</t>
+  </si>
+  <si>
+    <t>Watt = 0.105*Nm*rpm</t>
+  </si>
+  <si>
+    <t>rpm</t>
+  </si>
+  <si>
+    <t>rad/s</t>
+  </si>
+  <si>
+    <t>watts</t>
+  </si>
+  <si>
+    <t>Volts</t>
+  </si>
+  <si>
+    <t>Amps</t>
+  </si>
+  <si>
+    <t>Motor Speed Estimate</t>
+  </si>
+  <si>
+    <t>Required Nut Length</t>
+  </si>
+  <si>
+    <t>Normal Reaction Force on Nut</t>
+  </si>
+  <si>
+    <t>Not breaking into component forces, using normal as a ballpark estimate/assuming overbuilt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Known based on </t>
+  </si>
+  <si>
+    <t>Hatch Beam Dimensions</t>
+  </si>
+  <si>
+    <t>Bottom Frame Calculations</t>
+  </si>
+  <si>
+    <t>Hatch Frame Required Moment of Inertia</t>
+  </si>
+  <si>
+    <t>Bottom Frame Required Moment of Inertia</t>
+  </si>
+  <si>
+    <t>Required Frame Pin Thickness</t>
+  </si>
+  <si>
+    <t>Assumed O-Ring Crush Force for Sealing</t>
+  </si>
+  <si>
+    <t>Additional force being applied by user to seal hatch O-Rings</t>
+  </si>
+  <si>
+    <t>Diameter of Piston Rod</t>
+  </si>
+  <si>
+    <t>Length of Nut Supported by Pin</t>
+  </si>
+  <si>
+    <t>Finding Interference Height</t>
+  </si>
+  <si>
+    <t>From Hatch to bottom of Wash Chamber</t>
+  </si>
+  <si>
+    <t>Wash Piston</t>
+  </si>
+  <si>
+    <t>Reservior Piston</t>
+  </si>
+  <si>
+    <t>Bearing Thickness</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>Max Piston Travel</t>
+  </si>
+  <si>
+    <t>Top Piston Travel Allowance</t>
+  </si>
+  <si>
+    <t>Wash Chamber Length</t>
+  </si>
+  <si>
+    <t>Wash Piston Rod Length</t>
+  </si>
+  <si>
+    <t>measured from top of piston head to bottom of thrust arm</t>
+  </si>
+  <si>
+    <t>Reservior Piston Rod Length</t>
+  </si>
+  <si>
+    <t>Total Machine Height Check</t>
+  </si>
+  <si>
+    <t>Rod Diameter at O Ring</t>
+  </si>
+  <si>
+    <t>Cross Sectional Area</t>
+  </si>
+  <si>
+    <t>Stress at Location</t>
   </si>
 </sst>
 </file>
@@ -954,7 +1042,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1173,31 +1261,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1228,12 +1302,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -1250,9 +1322,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1280,16 +1352,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>24130</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>14605</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1319,7 +1391,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5824538" y="2105025"/>
+          <a:off x="7253288" y="552450"/>
           <a:ext cx="2110105" cy="2266950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1338,14 +1410,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>572671</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>94735</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>467471</xdr:colOff>
-      <xdr:row>116</xdr:row>
-      <xdr:rowOff>90781</xdr:rowOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>48259</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1381,15 +1453,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>87200</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>727</xdr:rowOff>
+      <xdr:colOff>624683</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>48352</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>209077</xdr:colOff>
-      <xdr:row>117</xdr:row>
-      <xdr:rowOff>157019</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>100222</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>174029</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1412,8 +1484,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13697218" y="18165304"/>
-          <a:ext cx="8392528" cy="3235149"/>
+          <a:off x="14231826" y="17866906"/>
+          <a:ext cx="8388217" cy="3279132"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1423,10 +1495,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1749,7 +1817,7 @@
   <dimension ref="C2:Q55"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1773,10 +1841,10 @@
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="P3" t="s">
         <v>22</v>
@@ -1796,7 +1864,7 @@
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="M4" t="s">
         <v>9</v>
@@ -1819,17 +1887,17 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="E5" t="s">
         <v>4</v>
       </c>
       <c r="F5">
         <f>AppliedForceNormal*lfb2N</f>
-        <v>4448.2220000000007</v>
+        <v>3113.7554000000005</v>
       </c>
       <c r="M5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O5">
         <v>18100</v>
@@ -1837,8 +1905,8 @@
       <c r="P5">
         <v>14500000</v>
       </c>
-      <c r="Q5" s="6" t="s">
-        <v>210</v>
+      <c r="Q5" s="3" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="3:17" x14ac:dyDescent="0.45">
@@ -1900,7 +1968,7 @@
         <v>71</v>
       </c>
       <c r="M12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="3:17" x14ac:dyDescent="0.45">
@@ -1942,7 +2010,7 @@
     </row>
     <row r="15" spans="3:17" x14ac:dyDescent="0.45">
       <c r="M15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="N15">
         <v>0.19</v>
@@ -1950,13 +2018,13 @@
       <c r="O15" t="s">
         <v>11</v>
       </c>
-      <c r="P15" s="6" t="s">
+      <c r="P15" s="3" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="16" spans="3:17" x14ac:dyDescent="0.45">
       <c r="M16" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="N16">
         <v>4.4482220000000003</v>
@@ -1964,7 +2032,7 @@
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.45">
@@ -2006,12 +2074,12 @@
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="D33" s="6" t="s">
-        <v>197</v>
+      <c r="D33" s="3" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="48" spans="3:4" x14ac:dyDescent="0.45">
@@ -2151,23 +2219,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B53CD3E-CF4E-44DC-9B88-9EF5EFC0948C}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F7F30C8-AEF8-4367-97CA-93B5B12A08F4}">
+  <dimension ref="C4:Z172"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F7F30C8-AEF8-4367-97CA-93B5B12A08F4}">
-  <dimension ref="C8:U163"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E158" sqref="E158"/>
+    <sheetView topLeftCell="G45" zoomScale="56" zoomScaleNormal="56" workbookViewId="0">
+      <selection activeCell="X67" sqref="X67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2183,2075 +2239,2586 @@
     <col min="15" max="15" width="5.86328125" customWidth="1"/>
     <col min="18" max="18" width="31.19921875" customWidth="1"/>
     <col min="20" max="20" width="8.73046875" customWidth="1"/>
+    <col min="23" max="23" width="22.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="N8" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="9" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="C9" s="6"/>
-      <c r="N9" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="10" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="C10" s="6"/>
-    </row>
-    <row r="11" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="C11" s="6"/>
-    </row>
-    <row r="13" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="C13" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="H13" s="8" t="s">
+    <row r="4" spans="3:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="5" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="C5" s="31" t="s">
+        <v>272</v>
+      </c>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="33"/>
+      <c r="H5" s="31" t="s">
+        <v>269</v>
+      </c>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="33"/>
+      <c r="M5" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="33"/>
+    </row>
+    <row r="6" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="C6" s="10"/>
+      <c r="D6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="M6" s="10"/>
+      <c r="N6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="C7" s="10"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="11"/>
+      <c r="H7" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K7" s="11"/>
+      <c r="M7" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="N7" s="5">
+        <f>D8</f>
+        <v>700</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="P7" s="11"/>
+    </row>
+    <row r="8" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="C8" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="D8" s="5">
+        <v>700</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="H8" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="I8" s="5">
+        <v>2</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="11"/>
+      <c r="M8" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="N8" s="5">
+        <f>I9</f>
+        <v>1</v>
+      </c>
+      <c r="O8" s="5"/>
+      <c r="P8" s="11"/>
+    </row>
+    <row r="9" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="C9" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="D9" s="5">
+        <v>8</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="I9" s="5">
+        <f>I7*I8</f>
+        <v>1</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K9" s="11"/>
+      <c r="M9" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="N9" s="5">
+        <f>SS303FatigueStrength</f>
+        <v>34800</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="P9" s="11"/>
+    </row>
+    <row r="10" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="C10" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="D10" s="5">
+        <f>D8/2</f>
+        <v>350</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="H10" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="I10" s="5">
+        <f>SQRT((6*D14)/I9)</f>
+        <v>0.69480833377965112</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K10" s="11"/>
+      <c r="M10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="N10" s="5">
+        <v>5</v>
+      </c>
+      <c r="O10" s="5"/>
+      <c r="P10" s="11"/>
+    </row>
+    <row r="11" spans="3:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C11" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="D11" s="5">
+        <f>D10*D9/2</f>
+        <v>1400</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="30"/>
+      <c r="M11" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="M13" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-    </row>
-    <row r="14" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="C14" s="8"/>
-      <c r="D14" s="8" t="s">
+      <c r="N11" s="5">
+        <f>N7*N10*FS/(N9*N8)</f>
+        <v>0.20114942528735633</v>
+      </c>
+      <c r="O11" s="5"/>
+      <c r="P11" s="11"/>
+    </row>
+    <row r="12" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="C12" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="5">
+        <v>2</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="11"/>
+      <c r="M12" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="N12" s="5">
+        <f>2*SQRT((N7*FS/I8)/N9)</f>
+        <v>0.2836543144655877</v>
+      </c>
+      <c r="O12" s="5"/>
+      <c r="P12" s="11"/>
+    </row>
+    <row r="13" spans="3:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C13" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="D13" s="5">
+        <f>SS303FatigueStrength</f>
+        <v>34800</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="11"/>
+      <c r="M13" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="N13" s="34">
+        <f>3/8</f>
+        <v>0.375</v>
+      </c>
+      <c r="O13" s="34"/>
+      <c r="P13" s="30"/>
+    </row>
+    <row r="14" spans="3:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C14" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="D14" s="34">
+        <f>D11*D12/D13</f>
+        <v>8.0459770114942528E-2</v>
+      </c>
+      <c r="E14" s="34"/>
+      <c r="F14" s="30"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C21" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="C22" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="33"/>
+      <c r="H22" s="31" t="s">
+        <v>269</v>
+      </c>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="33"/>
+      <c r="M22" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="N22" s="32"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="33"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="C23" s="10"/>
+      <c r="D23" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E23" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F23" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8" t="s">
+      <c r="H23" s="10"/>
+      <c r="I23" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J14" s="8" t="s">
+      <c r="J23" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="K23" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8" t="s">
+      <c r="M23" s="10"/>
+      <c r="N23" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="O14" s="8" t="s">
+      <c r="O23" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="P14" s="8" t="s">
+      <c r="P23" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="14"/>
-    </row>
-    <row r="15" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="C15" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="D15" s="8">
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="C24" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="D24" s="5">
         <v>200</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E24" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="F15" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="I15" s="8">
+      <c r="F24" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="I24" s="5">
         <v>0.5</v>
       </c>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="M15" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="N15" s="8">
-        <f>D16</f>
-        <v>1200</v>
-      </c>
-      <c r="O15" s="8" t="s">
+      <c r="J24" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K24" s="11"/>
+      <c r="M24" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="N24" s="5">
+        <f>D25</f>
+        <v>900</v>
+      </c>
+      <c r="O24" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="P15" s="8"/>
-    </row>
-    <row r="16" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="C16" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="D16" s="8">
-        <f>AppliedForceNormal+D15</f>
-        <v>1200</v>
-      </c>
-      <c r="E16" s="8" t="s">
+      <c r="P24" s="11"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="C25" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="D25" s="5">
+        <f>AppliedForceNormal+D24</f>
+        <v>900</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="F16" s="8"/>
-      <c r="H16" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="I16" s="8">
-        <v>2</v>
-      </c>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="M16" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="N16" s="8">
-        <f>I17</f>
-        <v>1</v>
-      </c>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="C17" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="D17" s="8">
+      <c r="F25" s="11"/>
+      <c r="H25" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="I25" s="5">
+        <v>3</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="11"/>
+      <c r="M25" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="N25" s="5">
+        <f>I26</f>
+        <v>1.5</v>
+      </c>
+      <c r="O25" s="5"/>
+      <c r="P25" s="11"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="C26" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="D26" s="5">
         <f>MachineWidth</f>
         <v>8.5</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E26" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F17" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="I17" s="8">
-        <f>I15*I16</f>
-        <v>1</v>
-      </c>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="M17" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="N17" s="46">
+      <c r="F26" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="I26" s="5">
+        <f>I24*I25</f>
+        <v>1.5</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K26" s="11"/>
+      <c r="M26" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="N26" s="5">
         <f>SS303FatigueStrength</f>
         <v>34800</v>
       </c>
-      <c r="O17" s="8" t="s">
+      <c r="O26" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="P17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="46"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="8"/>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="C18" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="D18" s="8">
-        <f>D16/2</f>
-        <v>600</v>
-      </c>
-      <c r="E18" s="8" t="s">
+      <c r="P26" s="11"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="C27" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="D27" s="5">
+        <f>D25/2</f>
+        <v>450</v>
+      </c>
+      <c r="E27" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="F18" s="8"/>
-      <c r="H18" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="I18" s="8">
-        <f>SQRT((6*D22)/I17)</f>
-        <v>0.93771549247497565</v>
-      </c>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="M18" s="8" t="s">
+      <c r="F27" s="11"/>
+      <c r="H27" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="I27" s="5">
+        <f>SQRT((6*D31)/I26)</f>
+        <v>0.66306498355273824</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K27" s="11"/>
+      <c r="M27" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="N18" s="46">
+      <c r="N27" s="5">
         <v>5</v>
       </c>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="46"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="C19" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="D19" s="8">
-        <f>D18*D17/2</f>
-        <v>2550</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="F19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="M19" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="N19" s="46">
-        <f>N15*N18*FS/(N17*N16)</f>
-        <v>0.34482758620689657</v>
-      </c>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="46"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="C20" s="8" t="s">
+      <c r="O27" s="5"/>
+      <c r="P27" s="11"/>
+    </row>
+    <row r="28" spans="3:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C28" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="D28" s="5">
+        <f>D27*D26/2</f>
+        <v>1912.5</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="F28" s="11"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="30"/>
+      <c r="M28" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="N28" s="5">
+        <f>N24*N27*FS/(N26*N25)</f>
+        <v>0.17241379310344829</v>
+      </c>
+      <c r="O28" s="5"/>
+      <c r="P28" s="11"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="C29" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D29" s="5">
         <v>2</v>
       </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="M20" s="46" t="s">
-        <v>251</v>
-      </c>
-      <c r="N20" s="8">
-        <f>2*SQRT((N15*FS/I16)/N17)</f>
-        <v>0.37139067635410372</v>
-      </c>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="R20" s="47"/>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="C21" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="D21" s="8">
+      <c r="E29" s="5"/>
+      <c r="F29" s="11"/>
+      <c r="M29" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="N29" s="5">
+        <f>2*SQRT((N24*FS/I25)/N26)</f>
+        <v>0.26261286571944509</v>
+      </c>
+      <c r="O29" s="5"/>
+      <c r="P29" s="11"/>
+    </row>
+    <row r="30" spans="3:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C30" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="D30" s="5">
         <f>SS303FatigueStrength</f>
         <v>34800</v>
       </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="M21" s="48" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="C22" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="D22" s="8">
-        <f>D19*D20/D21</f>
-        <v>0.14655172413793102</v>
-      </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="N23">
+      <c r="E30" s="5"/>
+      <c r="F30" s="11"/>
+      <c r="M30" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="N30" s="34">
         <f>3/8</f>
         <v>0.375</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C32" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="33" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C33" s="36" t="s">
+      <c r="O30" s="34"/>
+      <c r="P30" s="30"/>
+    </row>
+    <row r="31" spans="3:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C31" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="D31" s="34">
+        <f>D28*D29/D30</f>
+        <v>0.10991379310344827</v>
+      </c>
+      <c r="E31" s="34"/>
+      <c r="F31" s="30"/>
+    </row>
+    <row r="41" spans="3:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C41" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="42" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="C42" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="38"/>
-      <c r="H33" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-    </row>
-    <row r="34" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C34" s="13"/>
-      <c r="D34" s="8" t="s">
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="33"/>
+      <c r="H42" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="M42" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="N42" s="32"/>
+      <c r="O42" s="32"/>
+      <c r="P42" s="33"/>
+    </row>
+    <row r="43" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="C43" s="10"/>
+      <c r="D43" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E43" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F34" s="14" t="s">
+      <c r="F43" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8" t="s">
+      <c r="H43" s="5"/>
+      <c r="I43" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J34" s="8" t="s">
+      <c r="J43" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="K34" s="8" t="s">
+      <c r="K43" s="5" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="35" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C35" s="13" t="s">
+      <c r="M43" s="10"/>
+      <c r="N43" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O43" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="P43" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="44" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="C44" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D44" s="6">
         <v>2</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E44" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="14"/>
-      <c r="H35" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="I35" s="46">
-        <f>D43</f>
+      <c r="F44" s="11"/>
+      <c r="H44" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="I44" s="5">
+        <f>D52</f>
         <v>0.875</v>
       </c>
-      <c r="J35" s="8" t="s">
+      <c r="J44" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="K35" s="8"/>
-    </row>
-    <row r="36" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C36" s="13" t="s">
+      <c r="K44" s="5"/>
+      <c r="M44" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="N44" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="O44" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="P44" s="11"/>
+    </row>
+    <row r="45" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="C45" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D36" s="10">
-        <f>(D38*D40*(D35*D39)^2)/((PI()^2)*D37)</f>
-        <v>3.3298664211999082E-3</v>
-      </c>
-      <c r="E36" s="8"/>
-      <c r="F36" s="14"/>
-      <c r="H36" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="I36" s="46">
+      <c r="D45" s="7">
+        <f>(D47*D49*(D44*D48)^2)/((PI()^2)*D46)</f>
+        <v>2.3309064948399362E-3</v>
+      </c>
+      <c r="E45" s="5"/>
+      <c r="F45" s="11"/>
+      <c r="H45" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="I45" s="5">
         <f>SS303FatigueStrength</f>
         <v>34800</v>
       </c>
-      <c r="J36" s="8" t="s">
+      <c r="J45" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K36" s="8"/>
-    </row>
-    <row r="37" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C37" s="13" t="s">
+      <c r="K45" s="5"/>
+      <c r="M45" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="N45" s="5">
+        <f>(N44^2)*PI()</f>
+        <v>1.7671458676442586</v>
+      </c>
+      <c r="O45" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="P45" s="11"/>
+    </row>
+    <row r="46" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="C46" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D46" s="8">
         <f>SS303YoungsModulus</f>
         <v>28000000</v>
       </c>
-      <c r="E37" s="8"/>
-      <c r="F37" s="14"/>
-      <c r="H37" s="8" t="s">
+      <c r="E46" s="5"/>
+      <c r="F46" s="11"/>
+      <c r="H46" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I37" s="46">
+      <c r="I46" s="5">
         <v>5</v>
       </c>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-    </row>
-    <row r="38" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C38" s="13" t="s">
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="M46" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="N46" s="5">
+        <f>AppliedForceNormal</f>
+        <v>700</v>
+      </c>
+      <c r="O46" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="P46" s="11"/>
+    </row>
+    <row r="47" spans="3:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C47" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D47" s="8">
         <f>AppliedForceNormal</f>
-        <v>1000</v>
-      </c>
-      <c r="E38" s="8"/>
-      <c r="F38" s="14"/>
-      <c r="H38" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="I38" s="46">
-        <f>AppliedForceNormal*I37/(I36*I35)</f>
-        <v>0.16420361247947454</v>
-      </c>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-    </row>
-    <row r="39" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C39" s="13" t="s">
+        <v>700</v>
+      </c>
+      <c r="E47" s="5"/>
+      <c r="F47" s="11"/>
+      <c r="H47" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="I47" s="5">
+        <f>AppliedForceNormal*I46/(I45*I44)</f>
+        <v>0.11494252873563218</v>
+      </c>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="M47" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="N47" s="34">
+        <f>N46/N45</f>
+        <v>396.11896947316171</v>
+      </c>
+      <c r="O47" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="P47" s="30"/>
+    </row>
+    <row r="48" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="C48" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D48" s="7">
         <f>MachineHeight/2</f>
         <v>10.725</v>
       </c>
-      <c r="E39" s="8"/>
-      <c r="F39" s="14"/>
-      <c r="H39" s="46" t="s">
-        <v>178</v>
-      </c>
-      <c r="I39" s="8">
+      <c r="E48" s="5"/>
+      <c r="F48" s="11"/>
+      <c r="H48" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="I48" s="5">
         <f>3/8</f>
         <v>0.375</v>
       </c>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-    </row>
-    <row r="40" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C40" s="13" t="s">
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.45">
+      <c r="C49" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D49" s="8">
         <f>FS</f>
         <v>2</v>
       </c>
-      <c r="E40" s="8"/>
-      <c r="F40" s="14"/>
-      <c r="H40" s="8" t="s">
+      <c r="E49" s="5"/>
+      <c r="F49" s="11"/>
+      <c r="H49" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="I49" s="5">
+        <f>(((I44/2)^2)*PI())-(I44*I48)</f>
+        <v>0.2731954688511713</v>
+      </c>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.45">
+      <c r="C50" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D50" s="7">
+        <f>((4*D45)/PI())^0.25</f>
+        <v>0.23340424081746836</v>
+      </c>
+      <c r="E50" s="5"/>
+      <c r="F50" s="11"/>
+      <c r="H50" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="I40" s="46">
-        <f>(((I35/2)^2)*PI())-(I35*I39)</f>
-        <v>0.2731954688511713</v>
-      </c>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-    </row>
-    <row r="41" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C41" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="D41" s="10">
-        <f>((4*D36)/PI())^0.25</f>
-        <v>0.25517271392884311</v>
-      </c>
-      <c r="E41" s="8"/>
-      <c r="F41" s="14"/>
-      <c r="H41" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="I41" s="46">
-        <f>AppliedForceNormal/I40</f>
-        <v>3660.3828174938362</v>
-      </c>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8" t="s">
+      <c r="I50" s="5">
+        <f>AppliedForceNormal/I49</f>
+        <v>2562.2679722456855</v>
+      </c>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C42" s="13" t="s">
+    <row r="51" spans="3:26" x14ac:dyDescent="0.45">
+      <c r="C51" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D42" s="31">
-        <f>D41*2</f>
-        <v>0.51034542785768622</v>
-      </c>
-      <c r="E42" s="8"/>
-      <c r="F42" s="14"/>
-    </row>
-    <row r="43" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C43" s="13" t="s">
+      <c r="D51" s="27">
+        <f>D50*2</f>
+        <v>0.46680848163493671</v>
+      </c>
+      <c r="E51" s="5"/>
+      <c r="F51" s="11"/>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.45">
+      <c r="C52" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D43" s="31">
+      <c r="D52" s="27">
         <v>0.875</v>
       </c>
-      <c r="E43" s="8" t="s">
+      <c r="E52" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F43" s="14"/>
-    </row>
-    <row r="44" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C44" s="13"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="14"/>
-      <c r="H44" s="46" t="s">
+      <c r="F52" s="11"/>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.45">
+      <c r="C53" s="10"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="11"/>
+      <c r="H53" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K53" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.45">
+      <c r="C54" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D54" s="5">
+        <f>((PI()^2)*D46)/((D48/(D52/2))^2)</f>
+        <v>459853.28127613547</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="H54" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="I44" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J44" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="K44" s="14" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="45" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C45" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="D45" s="8">
-        <f>((PI()^2)*D37)/((D39/(D43/2))^2)</f>
-        <v>459853.28127613547</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F45" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="H45" s="46" t="s">
-        <v>180</v>
-      </c>
-      <c r="I45" s="8">
+      <c r="I54" s="5">
         <f>WashChamberDiameter</f>
         <v>4</v>
       </c>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-    </row>
-    <row r="46" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C46" s="40" t="s">
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.45">
+      <c r="C55" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="D55" s="36">
+        <f>D54*(((D52/2)^2)*PI())</f>
+        <v>276519.19069971534</v>
+      </c>
+      <c r="E55" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="F55" s="37"/>
+      <c r="H55" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="I55" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+    </row>
+    <row r="56" spans="3:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C56" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D56" s="34"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="30"/>
+      <c r="H56" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="I56" s="5">
+        <f>(I54-(2*I55))/I48</f>
+        <v>9.3333333333333339</v>
+      </c>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.45">
+      <c r="H57" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="I57" s="5">
+        <v>10</v>
+      </c>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+    </row>
+    <row r="61" spans="3:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C61" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.45">
+      <c r="C62" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="D62" s="32"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="33"/>
+      <c r="H62" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="D46" s="41">
-        <f>D45*(((D43/2)^2)*PI())</f>
-        <v>276519.19069971534</v>
-      </c>
-      <c r="E46" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="F46" s="42"/>
-      <c r="H46" s="46" t="s">
-        <v>181</v>
-      </c>
-      <c r="I46" s="8">
-        <v>0.25</v>
-      </c>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-    </row>
-    <row r="47" spans="3:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C47" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="D47" s="39"/>
-      <c r="E47" s="39"/>
-      <c r="F47" s="34"/>
-      <c r="H47" s="46" t="s">
+      <c r="I62" s="32"/>
+      <c r="J62" s="32"/>
+      <c r="K62" s="33"/>
+      <c r="M62" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="I47" s="8">
-        <f>(I45-(2*I46))/I39</f>
-        <v>9.3333333333333339</v>
-      </c>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
-    </row>
-    <row r="48" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="H48" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="I48" s="8">
-        <v>10</v>
-      </c>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-    </row>
-    <row r="52" spans="3:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C52" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="C53" s="36" t="s">
-        <v>168</v>
-      </c>
-      <c r="D53" s="37"/>
-      <c r="E53" s="37"/>
-      <c r="F53" s="38"/>
-      <c r="H53" s="36" t="s">
-        <v>165</v>
-      </c>
-      <c r="I53" s="37"/>
-      <c r="J53" s="37"/>
-      <c r="K53" s="38"/>
-      <c r="M53" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="N53" s="8"/>
-      <c r="O53" s="8"/>
-      <c r="P53" s="8"/>
-      <c r="R53" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="S53" s="8"/>
-      <c r="T53" s="8"/>
-      <c r="U53" s="8"/>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="C54" s="13"/>
-      <c r="D54" s="8" t="s">
+      <c r="N62" s="5"/>
+      <c r="O62" s="5"/>
+      <c r="P62" s="5"/>
+      <c r="R62" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="S62" s="5"/>
+      <c r="T62" s="5"/>
+      <c r="U62" s="5"/>
+      <c r="W62" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="X62" s="32"/>
+      <c r="Y62" s="32"/>
+      <c r="Z62" s="33"/>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.45">
+      <c r="C63" s="10"/>
+      <c r="D63" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E54" s="8" t="s">
+      <c r="E63" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F54" s="14" t="s">
+      <c r="F63" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="H54" s="13"/>
-      <c r="I54" s="8" t="s">
+      <c r="H63" s="10"/>
+      <c r="I63" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J54" s="8" t="s">
+      <c r="J63" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="K54" s="14" t="s">
+      <c r="K63" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="M54" s="8"/>
-      <c r="N54" s="8" t="s">
+      <c r="M63" s="5"/>
+      <c r="N63" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="O54" s="8" t="s">
+      <c r="O63" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="P54" s="8" t="s">
+      <c r="P63" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="R54" s="8"/>
-      <c r="S54" s="8" t="s">
+      <c r="R63" s="5"/>
+      <c r="S63" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="T54" s="8" t="s">
+      <c r="T63" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="U54" s="8" t="s">
+      <c r="U63" s="5" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="C55" s="13" t="s">
+      <c r="W63" s="10"/>
+      <c r="X63" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y63" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z63" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.45">
+      <c r="C64" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="D55" s="8">
+      <c r="D64" s="5">
         <f>(PI()*WashChamberDiameter^2/4)</f>
         <v>12.566370614359172</v>
       </c>
-      <c r="E55" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="F55" s="14"/>
-      <c r="H55" s="13" t="s">
+      <c r="E64" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="F64" s="11"/>
+      <c r="H64" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="14"/>
-      <c r="M55" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="N55" s="46">
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="11"/>
+      <c r="M64" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="N64" s="5">
+        <f>I74</f>
+        <v>0.5</v>
+      </c>
+      <c r="O64" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="P64" s="5"/>
+      <c r="R64" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="S64" s="5">
         <f>I65</f>
-        <v>0.5</v>
-      </c>
-      <c r="O55" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="T64" s="5"/>
+      <c r="U64" s="5"/>
+      <c r="W64" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="X64" s="5">
+        <f>3/8</f>
+        <v>0.375</v>
+      </c>
+      <c r="Y64" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="P55" s="8"/>
-      <c r="R55" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="S55" s="46">
-        <f>I56</f>
+      <c r="Z64" s="11"/>
+    </row>
+    <row r="65" spans="3:26" x14ac:dyDescent="0.45">
+      <c r="C65" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D65" s="5">
+        <f>AppliedForceNormal/D64</f>
+        <v>55.70423008216337</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65" s="11"/>
+      <c r="H65" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="I65" s="6">
         <v>4</v>
       </c>
-      <c r="T55" s="8"/>
-      <c r="U55" s="8"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="C56" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="D56" s="8">
-        <f>AppliedForceNormal/D55</f>
-        <v>79.577471545947674</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F56" s="14"/>
-      <c r="H56" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="I56" s="9">
-        <v>4</v>
-      </c>
-      <c r="J56" s="8"/>
-      <c r="K56" s="14"/>
-      <c r="M56" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="N56" s="46">
+      <c r="J65" s="5"/>
+      <c r="K65" s="11"/>
+      <c r="M65" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="N65" s="5">
         <f>SS303FatigueStrength</f>
         <v>34800</v>
       </c>
-      <c r="O56" s="8" t="s">
+      <c r="O65" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="P56" s="8"/>
-      <c r="R56" t="s">
-        <v>191</v>
-      </c>
-      <c r="S56" s="46"/>
-      <c r="T56" s="8"/>
-      <c r="U56" s="8"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="C57" s="13" t="s">
+      <c r="P65" s="5"/>
+      <c r="R65" t="s">
+        <v>190</v>
+      </c>
+      <c r="S65" s="5"/>
+      <c r="T65" s="5"/>
+      <c r="U65" s="5"/>
+      <c r="W65" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="X65" s="5">
+        <f>(X64^2)*PI()</f>
+        <v>0.44178646691106466</v>
+      </c>
+      <c r="Y65" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z65" s="11"/>
+    </row>
+    <row r="66" spans="3:26" x14ac:dyDescent="0.45">
+      <c r="C66" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D57" s="8">
-        <f>D55-(((D43/2)^2)*PI())</f>
+      <c r="D66" s="5">
+        <f>D64-(((D52/2)^2)*PI())</f>
         <v>11.965050145508002</v>
       </c>
-      <c r="E57" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="F57" s="14"/>
-      <c r="H57" s="13" t="s">
+      <c r="E66" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="F66" s="11"/>
+      <c r="H66" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I57" s="9">
+      <c r="I66" s="6">
         <v>2</v>
       </c>
-      <c r="J57" s="8"/>
-      <c r="K57" s="14"/>
-      <c r="M57" s="8" t="s">
+      <c r="J66" s="5"/>
+      <c r="K66" s="11"/>
+      <c r="M66" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N57" s="46">
+      <c r="N66" s="5">
         <v>5</v>
       </c>
-      <c r="O57" s="8"/>
-      <c r="P57" s="8"/>
-      <c r="R57" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="S57" s="46">
-        <f>I65</f>
+      <c r="O66" s="5"/>
+      <c r="P66" s="5"/>
+      <c r="R66" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="S66" s="5">
+        <f>I74</f>
         <v>0.5</v>
       </c>
-      <c r="T57" s="8"/>
-      <c r="U57" s="8"/>
-    </row>
-    <row r="58" spans="3:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C58" s="26" t="s">
+      <c r="T66" s="5"/>
+      <c r="U66" s="5"/>
+      <c r="W66" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="X66" s="5">
+        <f>AppliedForceNormal/4</f>
+        <v>175</v>
+      </c>
+      <c r="Y66" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z66" s="11"/>
+    </row>
+    <row r="67" spans="3:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C67" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="D58" s="39">
-        <f>D56*D57</f>
-        <v>952.14843750000011</v>
-      </c>
-      <c r="E58" s="39" t="s">
+      <c r="D67" s="34">
+        <f>D65*D66</f>
+        <v>666.50390625</v>
+      </c>
+      <c r="E67" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="F58" s="34"/>
-      <c r="H58" s="13" t="s">
+      <c r="F67" s="30"/>
+      <c r="H67" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I58" s="10">
-        <f>((I60/I56)*I62*(I57*I61)^2)/((PI()^2)*I59)</f>
-        <v>7.9263177750730249E-4</v>
-      </c>
-      <c r="J58" s="8"/>
-      <c r="K58" s="14"/>
-      <c r="M58" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="N58" s="46">
-        <f>(I60*N57/I56)/(N56*N55)</f>
-        <v>6.8401468211206906E-2</v>
-      </c>
-      <c r="O58" s="8"/>
-      <c r="P58" s="8"/>
-      <c r="R58" s="8"/>
-      <c r="S58" s="46"/>
-      <c r="T58" s="8"/>
-      <c r="U58" s="8"/>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="H59" s="13" t="s">
+      <c r="I67" s="7">
+        <f>((I69/I65)*I71*(I66*I70)^2)/((PI()^2)*I68)</f>
+        <v>5.5484224425511174E-4</v>
+      </c>
+      <c r="J67" s="5"/>
+      <c r="K67" s="11"/>
+      <c r="M67" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="N67" s="5">
+        <f>(I69*N66/I65)/(N65*N64)</f>
+        <v>4.7881027747844827E-2</v>
+      </c>
+      <c r="O67" s="5"/>
+      <c r="P67" s="5"/>
+      <c r="R67" s="5"/>
+      <c r="S67" s="5"/>
+      <c r="T67" s="5"/>
+      <c r="U67" s="5"/>
+      <c r="W67" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="X67" s="34">
+        <f>X66/X65</f>
+        <v>396.11896947316171</v>
+      </c>
+      <c r="Y67" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z67" s="30"/>
+    </row>
+    <row r="68" spans="3:26" x14ac:dyDescent="0.45">
+      <c r="H68" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I59" s="11">
+      <c r="I68" s="8">
         <f>SS303YoungsModulus</f>
         <v>28000000</v>
       </c>
-      <c r="J59" s="8"/>
-      <c r="K59" s="14"/>
-      <c r="M59" s="46" t="s">
-        <v>178</v>
-      </c>
-      <c r="N59" s="8">
+      <c r="J68" s="5"/>
+      <c r="K68" s="11"/>
+      <c r="M68" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="N68" s="27">
         <f>(0.25+0.125)/2</f>
         <v>0.1875</v>
       </c>
-      <c r="O59" s="8"/>
-      <c r="P59" s="8"/>
-      <c r="R59" s="46"/>
-      <c r="S59" s="8"/>
-      <c r="T59" s="8"/>
-      <c r="U59" s="8"/>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="H60" s="13" t="s">
+      <c r="O68" s="5"/>
+      <c r="P68" s="5"/>
+      <c r="R68" s="5"/>
+      <c r="S68" s="5"/>
+      <c r="T68" s="5"/>
+      <c r="U68" s="5"/>
+    </row>
+    <row r="69" spans="3:26" x14ac:dyDescent="0.45">
+      <c r="H69" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="I60" s="11">
-        <f>D58</f>
-        <v>952.14843750000011</v>
-      </c>
-      <c r="J60" s="8" t="s">
+      <c r="I69" s="8">
+        <f>D67</f>
+        <v>666.50390625</v>
+      </c>
+      <c r="J69" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="K60" s="14"/>
-      <c r="M60" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="N60" s="46">
-        <f>(((N55/2)^2)*PI())-(N55*N59)</f>
+      <c r="K69" s="11"/>
+      <c r="M69" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="N69" s="5">
+        <f>(((N64/2)^2)*PI())-(N64*N68)</f>
         <v>0.10259954084936207</v>
       </c>
-      <c r="O60" s="8"/>
-      <c r="P60" s="8"/>
-      <c r="R60" s="8"/>
-      <c r="S60" s="46"/>
-      <c r="T60" s="8"/>
-      <c r="U60" s="8"/>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="H61" s="13" t="s">
+      <c r="O69" s="5"/>
+      <c r="P69" s="5"/>
+      <c r="R69" s="5"/>
+      <c r="S69" s="5"/>
+      <c r="T69" s="5"/>
+      <c r="U69" s="5"/>
+    </row>
+    <row r="70" spans="3:26" x14ac:dyDescent="0.45">
+      <c r="H70" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="I61" s="10">
+      <c r="I70" s="7">
         <f>MachineHeight/2</f>
         <v>10.725</v>
       </c>
-      <c r="J61" s="8" t="s">
+      <c r="J70" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="K61" s="14"/>
-      <c r="M61" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="N61" s="46">
-        <f>(I60/I56)/N60</f>
-        <v>2320.0601815995365</v>
-      </c>
-      <c r="O61" s="8"/>
-      <c r="P61" s="8" t="s">
+      <c r="K70" s="11"/>
+      <c r="M70" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="N70" s="5">
+        <f>(I69/I65)/N69</f>
+        <v>1624.0421271196753</v>
+      </c>
+      <c r="O70" s="5"/>
+      <c r="P70" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="R61" s="8"/>
-      <c r="S61" s="46"/>
-      <c r="T61" s="8"/>
-      <c r="U61" s="8"/>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="H62" s="13" t="s">
+      <c r="R70" s="5"/>
+      <c r="S70" s="5"/>
+      <c r="T70" s="5"/>
+      <c r="U70" s="5"/>
+    </row>
+    <row r="71" spans="3:26" x14ac:dyDescent="0.45">
+      <c r="H71" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I62" s="11">
+      <c r="I71" s="8">
         <v>2</v>
       </c>
-      <c r="J62" s="8" t="s">
+      <c r="J71" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K62" s="14"/>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="H63" s="13" t="s">
+      <c r="K71" s="11"/>
+    </row>
+    <row r="72" spans="3:26" x14ac:dyDescent="0.45">
+      <c r="H72" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="I63" s="10">
-        <f>((4*I58)/PI())^0.25</f>
-        <v>0.17823598870820678</v>
-      </c>
-      <c r="J63" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="K63" s="14"/>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="H64" s="13" t="s">
+      <c r="I72" s="7">
+        <f>((4*I67)/PI())^0.25</f>
+        <v>0.16303089382194147</v>
+      </c>
+      <c r="J72" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="K72" s="11"/>
+    </row>
+    <row r="73" spans="3:26" x14ac:dyDescent="0.45">
+      <c r="H73" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="I64" s="31">
-        <f>SQRT(I63/PI())*2</f>
-        <v>0.47637916528565649</v>
-      </c>
-      <c r="J64" s="8" t="s">
+      <c r="I73" s="27">
+        <f>SQRT(I72/PI())*2</f>
+        <v>0.45560660775236284</v>
+      </c>
+      <c r="J73" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="K64" s="14"/>
-      <c r="M64" s="46" t="s">
+      <c r="K73" s="11"/>
+      <c r="M73" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="N73" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O73" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="P73" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="74" spans="3:26" x14ac:dyDescent="0.45">
+      <c r="H74" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="I74" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="J74" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K74" s="11"/>
+      <c r="M74" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="N64" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="O64" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="P64" s="14" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="65" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="H65" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="I65" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="J65" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="K65" s="14"/>
-      <c r="M65" s="46" t="s">
-        <v>180</v>
-      </c>
-      <c r="N65" s="8">
+      <c r="N74" s="5">
         <f>1.29*2</f>
         <v>2.58</v>
       </c>
-      <c r="O65" s="8"/>
-      <c r="P65" s="8" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="66" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="H66" s="13"/>
-      <c r="I66" s="8"/>
-      <c r="J66" s="8"/>
-      <c r="K66" s="14"/>
-      <c r="M66" s="46" t="s">
+      <c r="O74" s="5"/>
+      <c r="P74" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="75" spans="3:26" x14ac:dyDescent="0.45">
+      <c r="H75" s="10"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5"/>
+      <c r="K75" s="11"/>
+      <c r="M75" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="N75" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="O75" s="5"/>
+      <c r="P75" s="5"/>
+    </row>
+    <row r="76" spans="3:26" x14ac:dyDescent="0.45">
+      <c r="H76" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="I76" s="5">
+        <f>((PI()^2)*I68)/((I70/(I74/2))^2)</f>
+        <v>150156.17347792178</v>
+      </c>
+      <c r="J76" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K76" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="M76" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="N76" s="5">
+        <f>(N74-(2*N75))/N68</f>
+        <v>11.093333333333334</v>
+      </c>
+      <c r="O76" s="5"/>
+      <c r="P76" s="5"/>
+    </row>
+    <row r="77" spans="3:26" x14ac:dyDescent="0.45">
+      <c r="H77" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="I77" s="5">
+        <f>I76*(((I74/2)^2)*PI())</f>
+        <v>29483.095718087101</v>
+      </c>
+      <c r="J77" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="K77" s="11"/>
+      <c r="M77" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="N66" s="8">
-        <v>0.25</v>
-      </c>
-      <c r="O66" s="8"/>
-      <c r="P66" s="8"/>
-    </row>
-    <row r="67" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="H67" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="I67" s="8">
-        <f>((PI()^2)*I59)/((I61/(I65/2))^2)</f>
-        <v>150156.17347792178</v>
-      </c>
-      <c r="J67" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K67" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="M67" s="46" t="s">
-        <v>183</v>
-      </c>
-      <c r="N67" s="8">
-        <f>(N65-(2*N66))/N59</f>
-        <v>11.093333333333334</v>
-      </c>
-      <c r="O67" s="8"/>
-      <c r="P67" s="8"/>
-    </row>
-    <row r="68" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="H68" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="I68" s="8">
-        <f>I67*(((I65/2)^2)*PI())</f>
-        <v>29483.095718087101</v>
-      </c>
-      <c r="J68" s="8" t="s">
+      <c r="N77" s="5">
+        <v>10</v>
+      </c>
+      <c r="O77" s="5"/>
+      <c r="P77" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="78" spans="3:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="H78" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="I78" s="34"/>
+      <c r="J78" s="34"/>
+      <c r="K78" s="30"/>
+    </row>
+    <row r="79" spans="3:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="80" spans="3:26" x14ac:dyDescent="0.45">
+      <c r="C80" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="D80" s="25"/>
+      <c r="E80" s="25"/>
+      <c r="F80" s="26"/>
+      <c r="H80" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="I80" s="39"/>
+      <c r="J80" s="39"/>
+      <c r="K80" s="40"/>
+      <c r="M80" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="N80" s="5"/>
+      <c r="O80" s="5"/>
+      <c r="P80" s="5"/>
+      <c r="R80" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.45">
+      <c r="C81" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E81" s="5"/>
+      <c r="F81" s="11"/>
+      <c r="H81" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="I81" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J81" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K81" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="M81" s="5"/>
+      <c r="N81" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O81" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="P81" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="S81" t="s">
+        <v>14</v>
+      </c>
+      <c r="T81" t="s">
+        <v>5</v>
+      </c>
+      <c r="U81" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.45">
+      <c r="C82" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E82" s="5"/>
+      <c r="F82" s="11"/>
+      <c r="H82" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="I82" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="J82" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K82" s="11"/>
+      <c r="M82" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="N82" s="8">
+        <f>D87</f>
+        <v>350</v>
+      </c>
+      <c r="O82" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="K68" s="14"/>
-      <c r="M68" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="N68" s="8">
-        <v>10</v>
-      </c>
-      <c r="O68" s="8"/>
-      <c r="P68" s="8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="69" spans="3:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="H69" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="I69" s="39"/>
-      <c r="J69" s="39"/>
-      <c r="K69" s="34"/>
-    </row>
-    <row r="70" spans="3:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="71" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="C71" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="D71" s="28"/>
-      <c r="E71" s="28"/>
-      <c r="F71" s="29"/>
-      <c r="H71" s="43" t="s">
-        <v>148</v>
-      </c>
-      <c r="I71" s="44"/>
-      <c r="J71" s="44"/>
-      <c r="K71" s="45"/>
-      <c r="M71" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="N71" s="8"/>
-      <c r="O71" s="8"/>
-      <c r="P71" s="8"/>
-      <c r="R71" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="72" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="C72" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="E72" s="8"/>
-      <c r="F72" s="14"/>
-      <c r="H72" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="I72" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J72" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="K72" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="M72" s="8"/>
-      <c r="N72" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="O72" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="P72" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="S72" t="s">
-        <v>14</v>
-      </c>
-      <c r="T72" t="s">
-        <v>5</v>
-      </c>
-      <c r="U72" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="73" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="C73" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D73" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="E73" s="8"/>
-      <c r="F73" s="14"/>
-      <c r="H73" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="I73" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="J73" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="K73" s="14"/>
-      <c r="M73" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="N73" s="11">
-        <f>D78</f>
-        <v>500</v>
-      </c>
-      <c r="O73" s="8" t="s">
+      <c r="P82" s="5"/>
+      <c r="R82" t="s">
+        <v>266</v>
+      </c>
+      <c r="S82" s="1">
+        <f>N83</f>
+        <v>393.91438356324193</v>
+      </c>
+      <c r="T82" t="s">
         <v>103</v>
       </c>
-      <c r="P73" s="8"/>
-    </row>
-    <row r="74" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="C74" s="13" t="s">
+      <c r="U82" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.45">
+      <c r="C83" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="D74" s="8"/>
-      <c r="E74" s="8"/>
-      <c r="F74" s="14"/>
-      <c r="H74" s="13" t="s">
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="11"/>
+      <c r="H83" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="I74" s="11">
+      <c r="I83" s="8">
         <f>SS303FatigueStrength</f>
         <v>34800</v>
       </c>
-      <c r="J74" s="8"/>
-      <c r="K74" s="14"/>
-      <c r="M74" s="8" t="s">
+      <c r="J83" s="5"/>
+      <c r="K83" s="11"/>
+      <c r="M83" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="N74" s="10">
-        <f>(N73/COS(I85))/COS(RADIANS(27))</f>
-        <v>562.73483366177425</v>
-      </c>
-      <c r="O74" s="8" t="s">
+      <c r="N83" s="7">
+        <f>(N82/COS(I94))/COS(RADIANS(27))</f>
+        <v>393.91438356324193</v>
+      </c>
+      <c r="O83" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="P74" s="8"/>
-    </row>
-    <row r="75" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="C75" s="16"/>
-      <c r="D75" s="8" t="s">
+      <c r="P83" s="5"/>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.45">
+      <c r="C84" s="13"/>
+      <c r="D84" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E75" s="8" t="s">
+      <c r="E84" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F75" s="14" t="s">
+      <c r="F84" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="H75" s="13" t="s">
+      <c r="H84" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I75" s="11">
+      <c r="I84" s="8">
         <f>FS</f>
         <v>2</v>
       </c>
-      <c r="J75" s="8"/>
-      <c r="K75" s="14"/>
-      <c r="M75" s="8" t="s">
+      <c r="J84" s="5"/>
+      <c r="K84" s="11"/>
+      <c r="M84" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="N75" s="10">
-        <f>SQRT((N74^2)-(N73^2))</f>
-        <v>258.20629933513379</v>
-      </c>
-      <c r="O75" s="8" t="s">
+      <c r="N84" s="7">
+        <f>SQRT((N83^2)-(N82^2))</f>
+        <v>180.74440953459359</v>
+      </c>
+      <c r="O84" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="P75" s="8"/>
-    </row>
-    <row r="76" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="C76" s="13" t="s">
+      <c r="P84" s="5"/>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.45">
+      <c r="C85" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D76" s="8" t="s">
+      <c r="D85" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E76" s="8" t="s">
+      <c r="E85" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F76" s="14" t="s">
+      <c r="F85" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H76" s="13" t="s">
+      <c r="H85" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="I76" s="9" t="s">
+      <c r="I85" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="J76" s="8" t="s">
+      <c r="J85" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K76" s="14"/>
-      <c r="M76" s="8" t="s">
+      <c r="K85" s="11"/>
+      <c r="M85" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="N76" s="10">
-        <f>N74*CoeffStaticFrictionBrassonSteelLubricated</f>
-        <v>106.9196183957371</v>
-      </c>
-      <c r="O76" s="8" t="s">
+      <c r="N85" s="7">
+        <f>N83*CoeffStaticFrictionBrassonSteelLubricated</f>
+        <v>74.843732877015967</v>
+      </c>
+      <c r="O85" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="P76" s="8"/>
-    </row>
-    <row r="77" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="C77" s="13" t="s">
+      <c r="P85" s="5"/>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.45">
+      <c r="C86" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="D77" s="9">
+      <c r="D86" s="6">
         <v>2</v>
       </c>
-      <c r="E77" s="8" t="s">
+      <c r="E86" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F77" s="14" t="s">
+      <c r="F86" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H77" s="13" t="s">
+      <c r="H86" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="I77" s="9">
+      <c r="I86" s="6">
         <v>0.5</v>
       </c>
-      <c r="J77" s="8" t="s">
+      <c r="J86" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="K77" s="14"/>
-      <c r="M77" s="8" t="s">
+      <c r="K86" s="11"/>
+      <c r="M86" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="N77" s="10">
-        <f>N75+COS(I85)*N76</f>
-        <v>364.82729191039806</v>
-      </c>
-      <c r="O77" s="8" t="s">
+      <c r="N86" s="7">
+        <f>N84+COS(I94)*N85</f>
+        <v>255.37910433727859</v>
+      </c>
+      <c r="O86" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="P77" s="8"/>
-    </row>
-    <row r="78" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="C78" s="13" t="s">
+      <c r="P86" s="5"/>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.45">
+      <c r="C87" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D78" s="10">
-        <f>AppliedForceNormal/D77</f>
-        <v>500</v>
-      </c>
-      <c r="E78" s="8" t="s">
+      <c r="D87" s="7">
+        <f>AppliedForceNormal/D86</f>
+        <v>350</v>
+      </c>
+      <c r="E87" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="F78" s="14"/>
-      <c r="H78" s="13" t="s">
+      <c r="F87" s="11"/>
+      <c r="H87" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="I78" s="9">
+      <c r="I87" s="6">
         <v>0.35</v>
       </c>
-      <c r="J78" s="8" t="s">
+      <c r="J87" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="K78" s="14"/>
-      <c r="M78" s="8" t="s">
+      <c r="K87" s="11"/>
+      <c r="M87" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="N78" s="31">
-        <f>N77*((I79/2)/12)</f>
-        <v>6.4604832942466324</v>
-      </c>
-      <c r="O78" s="8" t="s">
+      <c r="N87" s="27">
+        <f>N86*((I88/2)/12)</f>
+        <v>4.5223383059726414</v>
+      </c>
+      <c r="O87" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="P78" s="8"/>
-    </row>
-    <row r="79" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="C79" s="13" t="s">
+      <c r="P87" s="5"/>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.45">
+      <c r="C88" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D79" s="11">
+      <c r="D88" s="8">
         <f>SS303FatigueStrength</f>
         <v>34800</v>
       </c>
-      <c r="E79" s="8" t="s">
+      <c r="E88" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F79" s="14"/>
-      <c r="H79" s="13" t="s">
+      <c r="F88" s="11"/>
+      <c r="H88" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="I79" s="31">
-        <f>(I77+I78)/2</f>
+      <c r="I88" s="27">
+        <f>(I86+I87)/2</f>
         <v>0.42499999999999999</v>
       </c>
-      <c r="J79" s="8" t="s">
+      <c r="J88" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="K79" s="14"/>
-      <c r="M79" s="8" t="s">
+      <c r="K88" s="11"/>
+      <c r="M88" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="N79" s="31">
-        <f>N78*16*12</f>
-        <v>1240.4127924953534</v>
-      </c>
-      <c r="O79" s="8" t="s">
+      <c r="N88" s="27">
+        <f>N87*16*12</f>
+        <v>868.28895474674709</v>
+      </c>
+      <c r="O88" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="P79" s="8"/>
-    </row>
-    <row r="80" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="C80" s="13" t="s">
+      <c r="P88" s="5"/>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.45">
+      <c r="C89" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D80" s="11">
+      <c r="D89" s="8">
         <f>FS</f>
         <v>2</v>
       </c>
-      <c r="E80" s="8" t="s">
+      <c r="E89" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F80" s="14"/>
-      <c r="H80" s="13" t="s">
+      <c r="F89" s="11"/>
+      <c r="H89" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="I80" s="10">
-        <f>I79*PI()</f>
+      <c r="I89" s="7">
+        <f>I88*PI()</f>
         <v>1.3351768777756621</v>
       </c>
-      <c r="J80" s="8" t="s">
+      <c r="J89" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="K80" s="14"/>
-      <c r="M80" s="8" t="s">
+      <c r="K89" s="11"/>
+      <c r="M89" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="N80" s="31">
-        <f>N78*0.4535*30.48</f>
-        <v>89.301193221717043</v>
-      </c>
-      <c r="O80" s="8" t="s">
+      <c r="N89" s="27">
+        <f>N87*0.4535*30.48</f>
+        <v>62.510835255201911</v>
+      </c>
+      <c r="O89" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="P80" s="8"/>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="C81" s="13" t="s">
+      <c r="P89" s="5"/>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.45">
+      <c r="C90" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="D81" s="10">
-        <f>SQRT((4*D78*D80)/(D79*PI()))</f>
-        <v>0.19127818286337878</v>
-      </c>
-      <c r="E81" s="8" t="s">
+      <c r="D90" s="7">
+        <f>SQRT((4*D87*D89)/(D88*PI()))</f>
+        <v>0.16003480954986424</v>
+      </c>
+      <c r="E90" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F81" s="14"/>
-      <c r="H81" s="13" t="s">
+      <c r="F90" s="11"/>
+      <c r="H90" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="I81" s="31">
-        <f>((I78/2)^2)*PI()</f>
+      <c r="I90" s="27">
+        <f>((I87/2)^2)*PI()</f>
         <v>9.6211275016187398E-2</v>
       </c>
-      <c r="J81" s="8"/>
-      <c r="K81" s="14"/>
-      <c r="M81" s="8" t="s">
+      <c r="J90" s="5"/>
+      <c r="K90" s="11"/>
+      <c r="M90" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="N81" s="8">
-        <f>N78/I82</f>
-        <v>4385.2356495917147</v>
-      </c>
-      <c r="O81" s="8" t="s">
+      <c r="N90" s="5">
+        <f>N87/I91</f>
+        <v>3069.6649547141997</v>
+      </c>
+      <c r="O90" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="P81" s="8"/>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="C82" s="13" t="s">
+      <c r="P90" s="5"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.45">
+      <c r="C91" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D82" s="12">
+      <c r="D91" s="9">
         <v>0.375</v>
       </c>
-      <c r="E82" s="8" t="s">
+      <c r="E91" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F82" s="15" t="s">
+      <c r="F91" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="H82" s="13" t="s">
+      <c r="H91" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="I82" s="31">
-        <f>PI()*((I78/2)^4)/2</f>
+      <c r="I91" s="27">
+        <f>PI()*((I87/2)^4)/2</f>
         <v>1.4732351486853694E-3</v>
       </c>
-      <c r="J82" s="8" t="s">
+      <c r="J91" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="K82" s="14"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="C83" s="16"/>
-      <c r="D83" s="24"/>
-      <c r="E83" s="24"/>
-      <c r="F83" s="25"/>
-      <c r="H83" s="13" t="s">
+      <c r="K91" s="11"/>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.45">
+      <c r="C92" s="13"/>
+      <c r="D92" s="21"/>
+      <c r="E92" s="21"/>
+      <c r="F92" s="22"/>
+      <c r="H92" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="I83" s="10">
-        <f>1/I84</f>
+      <c r="I92" s="7">
+        <f>1/I93</f>
         <v>0.1</v>
       </c>
-      <c r="J83" s="8" t="s">
+      <c r="J92" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="K83" s="14"/>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="C84" s="17" t="s">
+      <c r="K92" s="11"/>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.45">
+      <c r="C93" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="D84" s="18">
-        <f>D82*PI()</f>
+      <c r="D93" s="15">
+        <f>D91*PI()</f>
         <v>1.1780972450961724</v>
       </c>
-      <c r="E84" s="18"/>
-      <c r="F84" s="19"/>
-      <c r="H84" s="13" t="s">
+      <c r="E93" s="15"/>
+      <c r="F93" s="16"/>
+      <c r="H93" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="I84" s="9">
+      <c r="I93" s="6">
         <v>10</v>
       </c>
-      <c r="J84" s="8" t="s">
+      <c r="J93" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="K84" s="14"/>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="C85" s="17" t="s">
+      <c r="K93" s="11"/>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.45">
+      <c r="C94" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="D85" s="20">
+      <c r="D94" s="17">
         <v>0.16666666666666666</v>
       </c>
-      <c r="E85" s="18"/>
-      <c r="F85" s="19" t="s">
+      <c r="E94" s="15"/>
+      <c r="F94" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="H85" s="13" t="s">
+      <c r="H94" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="I85" s="31">
-        <f>ATAN(I83/I80)</f>
+      <c r="I94" s="27">
+        <f>ATAN(I92/I89)</f>
         <v>7.4756869969081929E-2</v>
       </c>
-      <c r="J85" s="8" t="s">
+      <c r="J94" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="K85" s="14"/>
-    </row>
-    <row r="86" spans="3:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C86" s="17" t="s">
+      <c r="K94" s="11"/>
+    </row>
+    <row r="95" spans="3:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C95" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="D86" s="18">
-        <f>ATAN(D85/D84)</f>
+      <c r="D95" s="15">
+        <f>ATAN(D94/D93)</f>
         <v>0.14053843111258857</v>
       </c>
-      <c r="E86" s="18"/>
-      <c r="F86" s="19"/>
-      <c r="H86" s="32" t="s">
+      <c r="E95" s="15"/>
+      <c r="F95" s="16"/>
+      <c r="H95" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="I86" s="33">
-        <f>DEGREES(I85)</f>
+      <c r="I95" s="29">
+        <f>DEGREES(I94)</f>
         <v>4.2832531388366837</v>
       </c>
-      <c r="J86" s="33" t="s">
+      <c r="J95" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="K86" s="34"/>
-    </row>
-    <row r="87" spans="3:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C87" s="21" t="s">
+      <c r="K95" s="30"/>
+    </row>
+    <row r="96" spans="3:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C96" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="D87" s="22">
-        <f>PI()*((D82/2)^4)/2</f>
+      <c r="D96" s="19">
+        <f>PI()*((D91/2)^4)/2</f>
         <v>1.9414444346677645E-3</v>
       </c>
-      <c r="E87" s="22"/>
-      <c r="F87" s="23"/>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="H90" t="s">
+      <c r="E96" s="19"/>
+      <c r="F96" s="20"/>
+    </row>
+    <row r="99" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="H99" t="s">
         <v>119</v>
       </c>
-      <c r="I90" s="7">
+      <c r="I99" s="4">
         <v>0.4</v>
       </c>
     </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="C91" s="6" t="s">
+    <row r="100" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C100" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="H91" t="s">
+      <c r="H100" t="s">
         <v>125</v>
       </c>
-      <c r="I91" s="7">
+      <c r="I100" s="4">
         <v>0.98</v>
       </c>
-      <c r="J91" s="30"/>
-      <c r="K91" s="30"/>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="C92" t="s">
+    </row>
+    <row r="101" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C101" t="s">
         <v>136</v>
       </c>
-      <c r="J92" s="30"/>
-      <c r="K92" s="30"/>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="J93" s="30"/>
-      <c r="K93" s="30"/>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="H94" s="30"/>
-      <c r="I94" s="30"/>
-      <c r="J94" s="30"/>
-      <c r="K94" s="30"/>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="H95" s="30"/>
-      <c r="I95" s="30"/>
-      <c r="J95" s="30"/>
-      <c r="K95" s="30"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="C96" t="s">
-        <v>174</v>
-      </c>
-      <c r="H96" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.45">
-      <c r="C97" s="13"/>
-      <c r="D97" s="8" t="s">
+    </row>
+    <row r="105" spans="3:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C105" t="s">
+        <v>173</v>
+      </c>
+      <c r="H105" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="106" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C106" s="31"/>
+      <c r="D106" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="E97" s="8" t="s">
+      <c r="E106" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="F97" s="14" t="s">
+      <c r="F106" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="H97" s="13"/>
-      <c r="I97" s="8" t="s">
+      <c r="H106" s="10"/>
+      <c r="I106" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J97" s="8" t="s">
+      <c r="J106" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="K97" s="14" t="s">
+      <c r="K106" s="11" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.45">
-      <c r="C98" t="s">
+    <row r="107" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C107" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="D98" s="4">
-        <f>ROUND(N78*D77,1)</f>
-        <v>12.9</v>
-      </c>
-      <c r="E98" t="s">
+      <c r="D107" s="27">
+        <f>ROUND(N87*D86,1)</f>
+        <v>9</v>
+      </c>
+      <c r="E107" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="F98" t="s">
+      <c r="F107" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="H98" t="s">
-        <v>261</v>
-      </c>
-      <c r="I98">
-        <f>D103/(D99/12)</f>
-        <v>50.390625</v>
-      </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.45">
-      <c r="C99" t="s">
+      <c r="H107" t="s">
+        <v>253</v>
+      </c>
+      <c r="I107">
+        <f>D112/(D108/12)</f>
+        <v>35.100000000000009</v>
+      </c>
+    </row>
+    <row r="108" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C108" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="D99" s="35">
+      <c r="D108" s="41">
         <f>2</f>
         <v>2</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E108" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F99" t="s">
+      <c r="F108" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="H99" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.45">
-      <c r="C100" t="s">
+      <c r="H108" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="109" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C109" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="D100">
-        <f>D98/(D99/12)</f>
-        <v>77.400000000000006</v>
-      </c>
-      <c r="E100" t="s">
+      <c r="D109" s="5">
+        <f>D107/(D108/12)</f>
+        <v>54</v>
+      </c>
+      <c r="E109" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H100" t="s">
-        <v>156</v>
-      </c>
-      <c r="I100" s="30"/>
-      <c r="J100" s="30"/>
-      <c r="K100" s="30"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.45">
-      <c r="C101" t="s">
+      <c r="F109" s="11"/>
+      <c r="H109" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="110" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C110" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="D110" s="5">
+        <v>1.25</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F110" s="11"/>
+    </row>
+    <row r="111" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C111" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D111" s="42">
+        <v>0.96</v>
+      </c>
+      <c r="E111" s="5"/>
+      <c r="F111" s="11"/>
+    </row>
+    <row r="112" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C112" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="D112" s="27">
+        <f>D107*(D110/D108)*(1-D111+1)</f>
+        <v>5.8500000000000005</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F112" s="43"/>
+      <c r="K112" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D101">
-        <v>1.25</v>
-      </c>
-      <c r="E101" t="s">
+    </row>
+    <row r="113" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C113" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="D113" s="27">
+        <f>D112*16*12</f>
+        <v>1123.2</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F113" s="11"/>
+    </row>
+    <row r="114" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C114" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="D114" s="27">
+        <f>D112*0.4535*30.48</f>
+        <v>80.862678000000017</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F114" s="11"/>
+    </row>
+    <row r="115" spans="3:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C115" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="D115" s="34">
+        <f>D108/D110</f>
+        <v>1.6</v>
+      </c>
+      <c r="E115" s="34"/>
+      <c r="F115" s="30"/>
+    </row>
+    <row r="118" spans="3:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="H118" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="119" spans="3:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C119" t="s">
+        <v>124</v>
+      </c>
+      <c r="H119" s="31"/>
+      <c r="I119" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J119" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="K119" s="33" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="120" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C120" s="31"/>
+      <c r="D120" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="E120" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F120" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="H120" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="I120" s="6">
+        <v>19</v>
+      </c>
+      <c r="J120" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="K120" s="11"/>
+    </row>
+    <row r="121" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C121" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="D121" s="27">
+        <f>D112</f>
+        <v>5.8500000000000005</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F121" s="11"/>
+      <c r="H121" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="I121" s="6">
+        <v>1</v>
+      </c>
+      <c r="J121" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K121" s="11"/>
+    </row>
+    <row r="122" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C122" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="D122" s="27">
+        <f>D121*16*12</f>
+        <v>1123.2</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F122" s="11"/>
+      <c r="H122" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="I122" s="8">
+        <f>D115</f>
+        <v>1.6</v>
+      </c>
+      <c r="J122" s="5"/>
+      <c r="K122" s="11"/>
+    </row>
+    <row r="123" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C123" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="D123" s="27">
+        <f>D121*0.4535*30.48</f>
+        <v>80.862678000000017</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F123" s="11"/>
+      <c r="H123" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="I123" s="8">
+        <f>I93</f>
+        <v>10</v>
+      </c>
+      <c r="J123" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="K123" s="11"/>
+    </row>
+    <row r="124" spans="3:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C124" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="D124" s="34">
+        <f>D121*1.3558179483</f>
+        <v>7.9315349975550005</v>
+      </c>
+      <c r="E124" s="34" t="s">
+        <v>257</v>
+      </c>
+      <c r="F124" s="30"/>
+      <c r="H124" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="I124" s="7">
+        <f>I120/(I121*I122)</f>
+        <v>11.875</v>
+      </c>
+      <c r="J124" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="K124" s="11"/>
+    </row>
+    <row r="125" spans="3:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="H125" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="I125" s="34">
+        <f>I124/I123</f>
+        <v>1.1875</v>
+      </c>
+      <c r="J125" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="K125" s="30"/>
+    </row>
+    <row r="126" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C126" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="127" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C127" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="128" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="F128">
+        <v>50</v>
+      </c>
+      <c r="G128" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="129" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="F129">
+        <f>2*PI()*F128/60</f>
+        <v>5.2359877559829888</v>
+      </c>
+      <c r="G129" t="s">
+        <v>260</v>
+      </c>
+      <c r="H129" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="130" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="F130">
+        <f>D124</f>
+        <v>7.9315349975550005</v>
+      </c>
+      <c r="G130" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="131" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="F131">
+        <f>F129*F130</f>
+        <v>41.529420133348545</v>
+      </c>
+      <c r="G131" t="s">
+        <v>261</v>
+      </c>
+      <c r="H131">
+        <f>0.105*90*D124</f>
+        <v>74.953005726894744</v>
+      </c>
+    </row>
+    <row r="133" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="F133">
+        <v>24</v>
+      </c>
+      <c r="G133" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="134" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="F134">
+        <f>F131/F133</f>
+        <v>1.7303925055561893</v>
+      </c>
+      <c r="G134" t="s">
+        <v>263</v>
+      </c>
+      <c r="H134">
+        <f>6000*0.224808943</f>
+        <v>1348.853658</v>
+      </c>
+    </row>
+    <row r="136" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="C136" t="s">
+        <v>249</v>
+      </c>
+      <c r="H136">
+        <f>12*2.3</f>
+        <v>27.599999999999998</v>
+      </c>
+    </row>
+    <row r="138" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="C138" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D138" s="5"/>
+      <c r="E138" s="5"/>
+      <c r="F138" s="5"/>
+      <c r="H138" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="I138" s="5"/>
+      <c r="J138" s="5"/>
+      <c r="K138" s="5"/>
+      <c r="M138" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="N138" s="5"/>
+      <c r="O138" s="5"/>
+      <c r="P138" s="5"/>
+    </row>
+    <row r="139" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="C139" s="5"/>
+      <c r="D139" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E139" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F139" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="H139" s="5"/>
+      <c r="I139" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J139" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K139" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="M139" s="5"/>
+      <c r="N139" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O139" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="P139" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="140" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="C140" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D140" s="5">
+        <f>AppliedForceNormal</f>
+        <v>700</v>
+      </c>
+      <c r="E140" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F140" s="5"/>
+      <c r="H140" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="I140" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="J140" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="H101" s="30"/>
-      <c r="I101" s="30"/>
-      <c r="J101" s="30"/>
-      <c r="K101" s="30"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.45">
-      <c r="C102" t="s">
-        <v>159</v>
-      </c>
-      <c r="D102" s="7">
-        <v>0.96</v>
-      </c>
-      <c r="I102" s="30"/>
-      <c r="J102" s="30"/>
-      <c r="K102" s="30"/>
-    </row>
-    <row r="103" spans="3:15" x14ac:dyDescent="0.45">
-      <c r="C103" t="s">
-        <v>160</v>
-      </c>
-      <c r="D103" s="4">
-        <f>D98*(D101/D99)/D102</f>
-        <v>8.3984375</v>
-      </c>
-      <c r="E103" t="s">
-        <v>102</v>
-      </c>
-      <c r="K103" s="6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="104" spans="3:15" x14ac:dyDescent="0.45">
-      <c r="C104" t="s">
-        <v>160</v>
-      </c>
-      <c r="D104" s="4">
-        <f>D103*16*12</f>
-        <v>1612.5</v>
-      </c>
-      <c r="E104" t="s">
-        <v>137</v>
-      </c>
-      <c r="H104" s="30"/>
-      <c r="I104" s="30"/>
-      <c r="J104" s="30"/>
-      <c r="K104" s="30"/>
-    </row>
-    <row r="105" spans="3:15" x14ac:dyDescent="0.45">
-      <c r="C105" t="s">
-        <v>160</v>
-      </c>
-      <c r="D105" s="4">
-        <f>D103*0.4535*30.48</f>
-        <v>116.0889140625</v>
-      </c>
-      <c r="E105" t="s">
-        <v>138</v>
-      </c>
-      <c r="H105" s="30"/>
-      <c r="I105" s="30"/>
-      <c r="J105" s="30"/>
-      <c r="K105" s="30"/>
-      <c r="L105" s="30"/>
-      <c r="M105" s="30"/>
-      <c r="N105" s="30"/>
-      <c r="O105" s="30"/>
-    </row>
-    <row r="106" spans="3:15" x14ac:dyDescent="0.45">
-      <c r="C106" t="s">
-        <v>139</v>
-      </c>
-      <c r="D106">
-        <f>D99/D101</f>
-        <v>1.6</v>
-      </c>
-      <c r="H106" s="30"/>
-      <c r="I106" s="30"/>
-      <c r="J106" s="30"/>
-      <c r="K106" s="30"/>
-      <c r="L106" s="30"/>
-      <c r="M106" s="30"/>
-      <c r="N106" s="30"/>
-      <c r="O106" s="30"/>
-    </row>
-    <row r="107" spans="3:15" x14ac:dyDescent="0.45">
-      <c r="L107" s="30"/>
-      <c r="M107" s="30"/>
-      <c r="N107" s="30"/>
-      <c r="O107" s="30"/>
-    </row>
-    <row r="108" spans="3:15" x14ac:dyDescent="0.45">
-      <c r="L108" s="30"/>
-      <c r="M108" s="30"/>
-      <c r="N108" s="30"/>
-      <c r="O108" s="30"/>
-    </row>
-    <row r="109" spans="3:15" x14ac:dyDescent="0.45">
-      <c r="H109" t="s">
-        <v>232</v>
-      </c>
-      <c r="L109" s="30"/>
-      <c r="M109" s="30"/>
-      <c r="N109" s="30"/>
-      <c r="O109" s="30"/>
-    </row>
-    <row r="110" spans="3:15" x14ac:dyDescent="0.45">
-      <c r="C110" t="s">
-        <v>124</v>
-      </c>
-      <c r="H110" s="13"/>
-      <c r="I110" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J110" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="K110" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="L110" s="30"/>
-      <c r="M110" s="30"/>
-      <c r="N110" s="30"/>
-      <c r="O110" s="30"/>
-    </row>
-    <row r="111" spans="3:15" x14ac:dyDescent="0.45">
-      <c r="H111" t="s">
-        <v>233</v>
-      </c>
-      <c r="I111" s="5">
-        <v>10000</v>
-      </c>
-      <c r="J111" t="s">
-        <v>140</v>
-      </c>
-      <c r="L111" s="30"/>
-      <c r="M111" s="30"/>
-      <c r="N111" s="30"/>
-      <c r="O111" s="30"/>
-    </row>
-    <row r="112" spans="3:15" x14ac:dyDescent="0.45">
-      <c r="C112" t="s">
-        <v>160</v>
-      </c>
-      <c r="D112" s="4">
-        <f>D103</f>
-        <v>8.3984375</v>
-      </c>
-      <c r="E112" t="s">
-        <v>102</v>
-      </c>
-      <c r="H112" t="s">
-        <v>234</v>
-      </c>
-      <c r="I112" s="5">
-        <v>210</v>
-      </c>
-      <c r="J112" t="s">
+      <c r="K140" s="5"/>
+      <c r="M140" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="N140" s="5">
+        <v>1</v>
+      </c>
+      <c r="O140" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="P140" s="5"/>
+    </row>
+    <row r="141" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="C141" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D141" s="5">
+        <f>3.725*2</f>
+        <v>7.45</v>
+      </c>
+      <c r="E141" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F141" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="H141" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="I141" s="5">
+        <v>2</v>
+      </c>
+      <c r="J141" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L112" s="30"/>
-      <c r="M112" s="30"/>
-      <c r="N112" s="30"/>
-      <c r="O112" s="30"/>
-    </row>
-    <row r="113" spans="3:15" x14ac:dyDescent="0.45">
-      <c r="C113" t="s">
-        <v>160</v>
-      </c>
-      <c r="D113" s="4">
-        <f>D112*16*12</f>
-        <v>1612.5</v>
-      </c>
-      <c r="E113" t="s">
-        <v>137</v>
-      </c>
-      <c r="H113" t="s">
-        <v>235</v>
-      </c>
-      <c r="I113" s="1">
-        <f>D106</f>
-        <v>1.6</v>
-      </c>
-      <c r="L113" s="30"/>
-      <c r="M113" s="30"/>
-      <c r="N113" s="30"/>
-      <c r="O113" s="30"/>
-    </row>
-    <row r="114" spans="3:15" x14ac:dyDescent="0.45">
-      <c r="C114" t="s">
-        <v>160</v>
-      </c>
-      <c r="D114" s="4">
-        <f>D112*0.4535*30.48</f>
-        <v>116.0889140625</v>
-      </c>
-      <c r="E114" t="s">
-        <v>138</v>
-      </c>
-      <c r="H114" t="s">
-        <v>237</v>
-      </c>
-      <c r="I114" s="1">
-        <f>I84</f>
-        <v>10</v>
-      </c>
-      <c r="J114" t="s">
-        <v>236</v>
-      </c>
-      <c r="L114" s="30"/>
-      <c r="M114" s="30"/>
-      <c r="N114" s="30"/>
-      <c r="O114" s="30"/>
-    </row>
-    <row r="115" spans="3:15" x14ac:dyDescent="0.45">
-      <c r="H115" t="s">
-        <v>238</v>
-      </c>
-      <c r="I115" s="3">
-        <f>I111/(I112*I113)</f>
-        <v>29.761904761904763</v>
-      </c>
-      <c r="J115" t="s">
-        <v>140</v>
-      </c>
-      <c r="L115" s="30"/>
-      <c r="M115" s="30"/>
-      <c r="N115" s="30"/>
-      <c r="O115" s="30"/>
-    </row>
-    <row r="116" spans="3:15" x14ac:dyDescent="0.45">
-      <c r="H116" t="s">
-        <v>239</v>
-      </c>
-      <c r="I116">
-        <f>I115/I114</f>
-        <v>2.9761904761904763</v>
-      </c>
-      <c r="J116" t="s">
-        <v>240</v>
-      </c>
-      <c r="L116" s="30"/>
-      <c r="M116" s="30"/>
-      <c r="N116" s="30"/>
-      <c r="O116" s="30"/>
-    </row>
-    <row r="117" spans="3:15" x14ac:dyDescent="0.45">
-      <c r="C117" t="s">
-        <v>166</v>
-      </c>
-      <c r="L117" s="30"/>
-      <c r="M117" s="30"/>
-      <c r="N117" s="30"/>
-      <c r="O117" s="30"/>
-    </row>
-    <row r="118" spans="3:15" x14ac:dyDescent="0.45">
-      <c r="C118" t="s">
-        <v>167</v>
-      </c>
-      <c r="L118" s="30"/>
-      <c r="M118" s="30"/>
-      <c r="N118" s="30"/>
-      <c r="O118" s="30"/>
-    </row>
-    <row r="119" spans="3:15" x14ac:dyDescent="0.45">
-      <c r="L119" s="30"/>
-      <c r="M119" s="30"/>
-      <c r="N119" s="30"/>
-      <c r="O119" s="30"/>
-    </row>
-    <row r="120" spans="3:15" x14ac:dyDescent="0.45">
-      <c r="L120" s="30"/>
-      <c r="M120" s="30"/>
-      <c r="N120" s="30"/>
-      <c r="O120" s="30"/>
-    </row>
-    <row r="127" spans="3:15" x14ac:dyDescent="0.45">
-      <c r="C127" t="s">
-        <v>254</v>
-      </c>
-      <c r="D127">
-        <v>7.4690000000000003</v>
-      </c>
-      <c r="E127" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="129" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C129" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="D129" s="8"/>
-      <c r="E129" s="8"/>
-      <c r="F129" s="8"/>
-    </row>
-    <row r="130" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C130" s="8"/>
-      <c r="D130" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E130" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F130" s="8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="131" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C131" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="D131" s="8">
-        <f>AppliedForceNormal</f>
-        <v>1000</v>
-      </c>
-      <c r="E131" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="F131" s="8"/>
-    </row>
-    <row r="132" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C132" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="D132" s="8">
-        <v>7.4690000000000003</v>
-      </c>
-      <c r="E132" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="F132" s="8" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="133" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C133" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="D133" s="8">
-        <v>500</v>
-      </c>
-      <c r="E133" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="F133" s="8"/>
-    </row>
-    <row r="134" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C134" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="D134" s="8">
-        <f>D133*D132/2</f>
-        <v>1867.25</v>
-      </c>
-      <c r="E134" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="F134" s="8"/>
-    </row>
-    <row r="135" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C135" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D135" s="8">
-        <v>2</v>
-      </c>
-      <c r="E135" s="8"/>
-      <c r="F135" s="8"/>
-    </row>
-    <row r="136" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C136" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="D136" s="8">
+      <c r="K141" s="5"/>
+      <c r="M141" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="N141" s="5">
         <f>SS303FatigueStrength</f>
         <v>34800</v>
       </c>
-      <c r="E136" s="8"/>
-      <c r="F136" s="8"/>
-    </row>
-    <row r="137" spans="3:6" x14ac:dyDescent="0.45">
-      <c r="C137" s="8" t="s">
+      <c r="O141" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="P141" s="5"/>
+    </row>
+    <row r="142" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="C142" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D142" s="5">
+        <f>D140/2</f>
+        <v>350</v>
+      </c>
+      <c r="E142" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F142" s="5"/>
+      <c r="H142" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="D137" s="8">
-        <f>D134*D135/D136</f>
-        <v>0.1073132183908046</v>
-      </c>
-      <c r="E137" s="8"/>
-      <c r="F137" s="8"/>
-    </row>
-    <row r="150" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C150" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="163" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C163" t="s">
-        <v>262</v>
+      <c r="I142" s="5">
+        <f>I140*I141</f>
+        <v>0.5</v>
+      </c>
+      <c r="J142" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K142" s="5"/>
+      <c r="M142" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N142" s="5">
+        <v>5</v>
+      </c>
+      <c r="O142" s="5"/>
+      <c r="P142" s="5"/>
+    </row>
+    <row r="143" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="C143" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D143" s="5">
+        <f>D142*D141/2</f>
+        <v>1303.75</v>
+      </c>
+      <c r="E143" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="F143" s="5"/>
+      <c r="H143" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="I143" s="5">
+        <f>SQRT((6*D146)/I142)</f>
+        <v>0.94822883895950072</v>
+      </c>
+      <c r="J143" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K143" s="5"/>
+      <c r="M143" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="N143" s="5">
+        <f>AppliedForceNormal*N142/(N141*N140)</f>
+        <v>0.10057471264367816</v>
+      </c>
+      <c r="O143" s="5"/>
+      <c r="P143" s="5"/>
+    </row>
+    <row r="144" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="C144" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D144" s="5">
+        <v>2</v>
+      </c>
+      <c r="E144" s="5"/>
+      <c r="F144" s="5"/>
+      <c r="H144" s="5"/>
+      <c r="I144" s="5"/>
+      <c r="J144" s="5"/>
+      <c r="K144" s="5"/>
+      <c r="M144" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="N144" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="O144" s="5"/>
+      <c r="P144" s="5"/>
+    </row>
+    <row r="145" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="C145" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="D145" s="5">
+        <f>SS303FatigueStrength</f>
+        <v>34800</v>
+      </c>
+      <c r="E145" s="5"/>
+      <c r="F145" s="5"/>
+      <c r="M145" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="N145" s="5">
+        <f>(((N140/2)^2)*PI())-(N140*N144)</f>
+        <v>0.53539816339744828</v>
+      </c>
+      <c r="O145" s="5"/>
+      <c r="P145" s="5"/>
+    </row>
+    <row r="146" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="C146" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="D146" s="5">
+        <f>D143*D144/D145</f>
+        <v>7.4928160919540229E-2</v>
+      </c>
+      <c r="E146" s="5"/>
+      <c r="F146" s="5"/>
+      <c r="M146" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="N146" s="5">
+        <f>AppliedForceNormal/N145</f>
+        <v>1307.4381793879277</v>
+      </c>
+      <c r="O146" s="5"/>
+      <c r="P146" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="159" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="C159" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="172" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C172" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C91" r:id="rId1" location=":~:text=The%20bearing%20pressure%20refers%20to%20the#:~:text=The%20bearing%20pressure%20refers%20to%20the" display="https://engineerexcel.com/acme-thread-calculations/ - :~:text=The%20bearing%20pressure%20refers%20to%20the#:~:text=The%20bearing%20pressure%20refers%20to%20the" xr:uid="{EB560DC3-B69B-4530-B1AF-3637325D1D1F}"/>
-    <hyperlink ref="K103" r:id="rId2" location="fig25" display="http://chain-guide.com/basics/2-1-2-engagement-with-sprockets.html - fig25" xr:uid="{80E4AA67-26CD-4E34-8F69-0332D5B7D54D}"/>
+    <hyperlink ref="C100" r:id="rId1" location=":~:text=The%20bearing%20pressure%20refers%20to%20the#:~:text=The%20bearing%20pressure%20refers%20to%20the" display="https://engineerexcel.com/acme-thread-calculations/ - :~:text=The%20bearing%20pressure%20refers%20to%20the#:~:text=The%20bearing%20pressure%20refers%20to%20the" xr:uid="{EB560DC3-B69B-4530-B1AF-3637325D1D1F}"/>
+    <hyperlink ref="K112" r:id="rId2" location="fig25" display="http://chain-guide.com/basics/2-1-2-engagement-with-sprockets.html - fig25" xr:uid="{80E4AA67-26CD-4E34-8F69-0332D5B7D54D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCF40096-3C22-48AC-994A-0768CD3A5344}">
   <dimension ref="A5:C19"/>
   <sheetViews>
@@ -4267,95 +4834,95 @@
   <sheetData>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>227</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>211</v>
+        <v>225</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
+        <v>226</v>
+      </c>
+      <c r="B8" t="s">
         <v>228</v>
       </c>
-      <c r="B8" t="s">
-        <v>230</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>229</v>
+      <c r="C8" s="3" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C9" s="6" t="s">
-        <v>204</v>
+      <c r="C9" s="3" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C10" s="6" t="s">
-        <v>203</v>
+      <c r="C10" s="3" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C11" s="6" t="s">
-        <v>201</v>
+      <c r="C11" s="3" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
+        <v>210</v>
+      </c>
+      <c r="B13" t="s">
         <v>212</v>
       </c>
-      <c r="B13" t="s">
-        <v>214</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>213</v>
+      <c r="C13" s="3" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>215</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>216</v>
+        <v>213</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
-        <v>218</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
-        <v>220</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
-        <v>222</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
-        <v>224</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
-        <v>225</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>226</v>
+        <v>223</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -4377,12 +4944,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B5C0A57-75E1-4C82-BEEC-8882CA08F993}">
   <dimension ref="C6:D22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4392,7 +4959,7 @@
   <sheetData>
     <row r="6" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.45">
@@ -4476,20 +5043,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA2221C-5C0B-46B0-85B0-C1695986BBCC}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.9296875" customWidth="1"/>
+    <col min="1" max="1" width="33.9296875" customWidth="1"/>
+    <col min="4" max="4" width="23.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>141</v>
       </c>
@@ -4497,15 +5065,18 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>142</v>
       </c>
       <c r="B2">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>143</v>
       </c>
@@ -4513,29 +5084,121 @@
         <v>21.45</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>144</v>
       </c>
       <c r="B4">
-        <v>5.18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B7">
-        <f>(B3-B4)*(((B2/2)^2)-((B1/2)^2))/((2*((B2/2)^2))-((B1/2)^2))</f>
-        <v>7.9355927963981987</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B8" cm="1">
-        <f t="array" ref="B8">(MMH-PTIH)*(((WCID/2)^2)-((WPRT/2)^2))/((2*((WCID/2)^2))-((WPRT/2)^2))</f>
-        <v>7.9355927963981987</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B12" t="s">
+        <f>B14</f>
+        <v>7.5279999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" t="s">
+        <v>284</v>
+      </c>
+      <c r="E7" cm="1">
+        <f t="array" ref="E7">(MMH-PTIH)*(((WCID/2)^2)-((WPRT/2)^2))/((2*((WCID/2)^2))-((WPRT/2)^2))</f>
+        <v>6.7903701850925469</v>
+      </c>
+      <c r="F7" t="s">
         <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="B8" s="5">
+        <f>0.938+0.75</f>
+        <v>1.6879999999999999</v>
+      </c>
+      <c r="D8" t="s">
+        <v>285</v>
+      </c>
+      <c r="E8">
+        <f>(WPRT^2)*E7/((WCID^2)-(WPRT^2))</f>
+        <v>0.34125962981490748</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>286</v>
+      </c>
+      <c r="E10">
+        <f>E7+E8+B9+B11</f>
+        <v>10.471629814907454</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="B11" s="5">
+        <v>1.67</v>
+      </c>
+      <c r="D11" t="s">
+        <v>287</v>
+      </c>
+      <c r="E11">
+        <f>E7+E8+B11</f>
+        <v>8.8016298149074537</v>
+      </c>
+      <c r="F11" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>289</v>
+      </c>
+      <c r="E12">
+        <f>E7+E8+B10</f>
+        <v>8.1316298149074555</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B14" s="5">
+        <f>SUM(B8:B13)</f>
+        <v>7.5279999999999996</v>
+      </c>
+      <c r="D14" t="s">
+        <v>290</v>
       </c>
     </row>
   </sheetData>

--- a/System Design and Documentation/Washing Machine Design Calculations.xlsx
+++ b/System Design and Documentation/Washing Machine Design Calculations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dcdf7eb514dfaeec/Projects/Microgravity-Press-Washing-Machine/System Design and Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1338" documentId="13_ncr:1_{4AAA6B9C-80F3-4AB5-A3F7-F08D2B1D8BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F3FCFBE-509E-4905-95DF-FA25CFBB143C}"/>
+  <xr:revisionPtr revIDLastSave="1438" documentId="13_ncr:1_{4AAA6B9C-80F3-4AB5-A3F7-F08D2B1D8BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAC8B969-F2ED-4131-8A3E-61FDA812043C}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" firstSheet="1" activeTab="4" xr2:uid="{73A7591B-B5CA-4318-9343-9B3FDBEBCAB4}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" firstSheet="1" activeTab="1" xr2:uid="{73A7591B-B5CA-4318-9343-9B3FDBEBCAB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Design and Material Specs" sheetId="2" r:id="rId1"/>
@@ -39,6 +39,7 @@
     <definedName name="WPRT">Sheet1!$B$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -81,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="305">
   <si>
     <t>Desired Force Application</t>
   </si>
@@ -830,9 +831,6 @@
     <t>Minimum Pin Diameter for Shear Stress</t>
   </si>
   <si>
-    <t>Thrust Beam Span</t>
-  </si>
-  <si>
     <t>Required Pin Thickness (for hatch beam)</t>
   </si>
   <si>
@@ -887,9 +885,6 @@
     <t>Not breaking into component forces, using normal as a ballpark estimate/assuming overbuilt</t>
   </si>
   <si>
-    <t xml:space="preserve">Known based on </t>
-  </si>
-  <si>
     <t>Hatch Beam Dimensions</t>
   </si>
   <si>
@@ -902,9 +897,6 @@
     <t>Bottom Frame Required Moment of Inertia</t>
   </si>
   <si>
-    <t>Required Frame Pin Thickness</t>
-  </si>
-  <si>
     <t>Assumed O-Ring Crush Force for Sealing</t>
   </si>
   <si>
@@ -963,6 +955,48 @@
   </si>
   <si>
     <t>Stress at Location</t>
+  </si>
+  <si>
+    <t>SuperStructure Pin</t>
+  </si>
+  <si>
+    <t>SuperStructure</t>
+  </si>
+  <si>
+    <t>Access hatch and conduit</t>
+  </si>
+  <si>
+    <t>Superstructure</t>
+  </si>
+  <si>
+    <t>Known based on component sizing</t>
+  </si>
+  <si>
+    <t>Thrust Beam Span (Wash and Reservior)</t>
+  </si>
+  <si>
+    <t>Thickness of Frame Component</t>
+  </si>
+  <si>
+    <t>Frame Pin and Frame Interface</t>
+  </si>
+  <si>
+    <t>Frame Pin Diameter</t>
+  </si>
+  <si>
+    <t>Frame Pin Support Size</t>
+  </si>
+  <si>
+    <t>Required Hatch Pin Thickness</t>
+  </si>
+  <si>
+    <t>Thickness Offset from Pin Hole</t>
+  </si>
+  <si>
+    <t>Chosen Thickness</t>
+  </si>
+  <si>
+    <t>Frame Pin Reinforcement Thickness</t>
   </si>
 </sst>
 </file>
@@ -1042,7 +1076,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1261,12 +1295,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1325,6 +1370,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1410,14 +1456,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>572671</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>94735</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>467471</xdr:colOff>
-      <xdr:row>125</xdr:row>
-      <xdr:rowOff>48259</xdr:rowOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>48258</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1454,14 +1500,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>624683</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>48352</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>100222</xdr:colOff>
-      <xdr:row>123</xdr:row>
-      <xdr:rowOff>174029</xdr:rowOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>174028</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1864,7 +1910,7 @@
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M4" t="s">
         <v>9</v>
@@ -2024,7 +2070,7 @@
     </row>
     <row r="16" spans="3:17" x14ac:dyDescent="0.45">
       <c r="M16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N16">
         <v>4.4482220000000003</v>
@@ -2220,15 +2266,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F7F30C8-AEF8-4367-97CA-93B5B12A08F4}">
-  <dimension ref="C4:Z172"/>
+  <dimension ref="B4:Z182"/>
   <sheetViews>
-    <sheetView topLeftCell="G45" zoomScale="56" zoomScaleNormal="56" workbookViewId="0">
-      <selection activeCell="X67" sqref="X67"/>
+    <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="56" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="11.3984375" customWidth="1"/>
+    <col min="2" max="2" width="23.53125" customWidth="1"/>
     <col min="3" max="3" width="40.33203125" customWidth="1"/>
     <col min="4" max="4" width="10.73046875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="41.1328125" customWidth="1"/>
@@ -2242,32 +2288,35 @@
     <col min="23" max="23" width="22.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B4" t="s">
+        <v>294</v>
+      </c>
       <c r="C4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="C5" s="31" t="s">
         <v>270</v>
-      </c>
-    </row>
-    <row r="5" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="C5" s="31" t="s">
-        <v>272</v>
       </c>
       <c r="D5" s="32"/>
       <c r="E5" s="32"/>
       <c r="F5" s="33"/>
       <c r="H5" s="31" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I5" s="32"/>
       <c r="J5" s="32"/>
       <c r="K5" s="33"/>
       <c r="M5" s="31" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="N5" s="32"/>
       <c r="O5" s="32"/>
       <c r="P5" s="33"/>
     </row>
-    <row r="6" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.45">
       <c r="C6" s="10"/>
       <c r="D6" s="5" t="s">
         <v>14</v>
@@ -2299,7 +2348,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.45">
       <c r="C7" s="10"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -2326,7 +2375,7 @@
       </c>
       <c r="P7" s="11"/>
     </row>
-    <row r="8" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.45">
       <c r="C8" s="10" t="s">
         <v>191</v>
       </c>
@@ -2357,7 +2406,7 @@
       <c r="O8" s="5"/>
       <c r="P8" s="11"/>
     </row>
-    <row r="9" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.45">
       <c r="C9" s="10" t="s">
         <v>192</v>
       </c>
@@ -2393,7 +2442,7 @@
       </c>
       <c r="P9" s="11"/>
     </row>
-    <row r="10" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.45">
       <c r="C10" s="10" t="s">
         <v>198</v>
       </c>
@@ -2425,7 +2474,7 @@
       <c r="O10" s="5"/>
       <c r="P10" s="11"/>
     </row>
-    <row r="11" spans="3:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C11" s="10" t="s">
         <v>196</v>
       </c>
@@ -2451,7 +2500,7 @@
       <c r="O11" s="5"/>
       <c r="P11" s="11"/>
     </row>
-    <row r="12" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.45">
       <c r="C12" s="10" t="s">
         <v>10</v>
       </c>
@@ -2470,7 +2519,7 @@
       <c r="O12" s="5"/>
       <c r="P12" s="11"/>
     </row>
-    <row r="13" spans="3:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C13" s="10" t="s">
         <v>241</v>
       </c>
@@ -2490,7 +2539,7 @@
       <c r="O13" s="34"/>
       <c r="P13" s="30"/>
     </row>
-    <row r="14" spans="3:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C14" s="23" t="s">
         <v>240</v>
       </c>
@@ -2501,2317 +2550,2479 @@
       <c r="E14" s="34"/>
       <c r="F14" s="30"/>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="3:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C21" t="s">
+    <row r="16" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C16" t="s">
+        <v>298</v>
+      </c>
+      <c r="H16" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="C17" s="31" t="s">
+        <v>299</v>
+      </c>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="33"/>
+      <c r="H17" s="31" t="s">
+        <v>299</v>
+      </c>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="33"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="C18" s="10"/>
+      <c r="D18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="H18" s="10"/>
+      <c r="I18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="C19" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="D19" s="5">
+        <f>0.125</f>
+        <v>0.125</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="11"/>
+      <c r="H19" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I19" s="5">
+        <f>0.125</f>
+        <v>0.125</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K19" s="11"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="C20" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="D20" s="5">
+        <f>SS303FatigueStrength</f>
+        <v>34800</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="11"/>
+      <c r="H20" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="I20" s="5">
+        <f>SS303FatigueStrength</f>
+        <v>34800</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K20" s="11"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="C21" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="5">
+        <v>3</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="11"/>
+      <c r="H21" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" s="5">
+        <v>3</v>
+      </c>
+      <c r="J21" s="5"/>
+      <c r="K21" s="11"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="C22" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="D22" s="5">
+        <f>AppliedForceNormal/2*D21/(D20*D19)</f>
+        <v>0.2413793103448276</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="11"/>
+      <c r="H22" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="I22" s="5">
+        <f>I21*AppliedForceNormal*0.5/(2*I19*I20)</f>
+        <v>0.1206896551724138</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K22" s="11"/>
+    </row>
+    <row r="23" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C23" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="D23" s="34">
+        <v>0.375</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="30"/>
+      <c r="H23" s="23" t="s">
+        <v>303</v>
+      </c>
+      <c r="I23" s="34">
+        <v>0.25</v>
+      </c>
+      <c r="J23" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="K23" s="30"/>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="H24" s="44" t="s">
+        <v>304</v>
+      </c>
+      <c r="I24">
+        <f>D23+(2*I23)</f>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B30" t="s">
+        <v>293</v>
+      </c>
+      <c r="C30" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="C22" s="31" t="s">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="C31" s="31" t="s">
+        <v>269</v>
+      </c>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="33"/>
+      <c r="H31" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="33"/>
+      <c r="M31" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="N31" s="32"/>
+      <c r="O31" s="32"/>
+      <c r="P31" s="33"/>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="C32" s="10"/>
+      <c r="D32" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="H32" s="10"/>
+      <c r="I32" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c r="N32" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O32" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="C33" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="33"/>
-      <c r="H22" s="31" t="s">
-        <v>269</v>
-      </c>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="33"/>
-      <c r="M22" s="31" t="s">
-        <v>250</v>
-      </c>
-      <c r="N22" s="32"/>
-      <c r="O22" s="32"/>
-      <c r="P22" s="33"/>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="C23" s="10"/>
-      <c r="D23" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="H23" s="10"/>
-      <c r="I23" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="M23" s="10"/>
-      <c r="N23" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="O23" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="P23" s="11" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="C24" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="D24" s="5">
+      <c r="D33" s="5">
         <v>200</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E33" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="F24" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="H24" s="10" t="s">
+      <c r="F33" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="H33" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="I24" s="5">
+      <c r="I33" s="5">
         <v>0.5</v>
       </c>
-      <c r="J24" s="5" t="s">
+      <c r="J33" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="K24" s="11"/>
-      <c r="M24" s="10" t="s">
+      <c r="K33" s="11"/>
+      <c r="M33" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="N24" s="5">
-        <f>D25</f>
+      <c r="N33" s="5">
+        <f>D34</f>
         <v>900</v>
       </c>
-      <c r="O24" s="5" t="s">
+      <c r="O33" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="P24" s="11"/>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="C25" s="10" t="s">
+      <c r="P33" s="11"/>
+    </row>
+    <row r="34" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="C34" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="D25" s="5">
-        <f>AppliedForceNormal+D24</f>
+      <c r="D34" s="5">
+        <f>AppliedForceNormal+D33</f>
         <v>900</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E34" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="F25" s="11"/>
-      <c r="H25" s="10" t="s">
+      <c r="F34" s="11"/>
+      <c r="H34" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="I25" s="5">
+      <c r="I34" s="5">
         <v>3</v>
       </c>
-      <c r="J25" s="5" t="s">
+      <c r="J34" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K25" s="11"/>
-      <c r="M25" s="10" t="s">
+      <c r="K34" s="11"/>
+      <c r="M34" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="N25" s="5">
-        <f>I26</f>
+      <c r="N34" s="5">
+        <f>I35</f>
         <v>1.5</v>
       </c>
-      <c r="O25" s="5"/>
-      <c r="P25" s="11"/>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="C26" s="10" t="s">
+      <c r="O34" s="5"/>
+      <c r="P34" s="11"/>
+    </row>
+    <row r="35" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="C35" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D35" s="5">
         <f>MachineWidth</f>
         <v>8.5</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E35" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F26" s="11" t="s">
+      <c r="F35" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="H26" s="10" t="s">
+      <c r="H35" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="I26" s="5">
-        <f>I24*I25</f>
+      <c r="I35" s="5">
+        <f>I33*I34</f>
         <v>1.5</v>
       </c>
-      <c r="J26" s="5" t="s">
+      <c r="J35" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="K26" s="11"/>
-      <c r="M26" s="10" t="s">
+      <c r="K35" s="11"/>
+      <c r="M35" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="N26" s="5">
+      <c r="N35" s="5">
         <f>SS303FatigueStrength</f>
         <v>34800</v>
       </c>
-      <c r="O26" s="5" t="s">
+      <c r="O35" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="P26" s="11"/>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="C27" s="10" t="s">
+      <c r="P35" s="11"/>
+    </row>
+    <row r="36" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="C36" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="D27" s="5">
-        <f>D25/2</f>
+      <c r="D36" s="5">
+        <f>D34/2</f>
         <v>450</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E36" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="F27" s="11"/>
-      <c r="H27" s="10" t="s">
+      <c r="F36" s="11"/>
+      <c r="H36" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="I27" s="5">
-        <f>SQRT((6*D31)/I26)</f>
+      <c r="I36" s="5">
+        <f>SQRT((6*D40)/I35)</f>
         <v>0.66306498355273824</v>
       </c>
-      <c r="J27" s="5" t="s">
+      <c r="J36" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="K27" s="11"/>
-      <c r="M27" s="10" t="s">
+      <c r="K36" s="11"/>
+      <c r="M36" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="N27" s="5">
+      <c r="N36" s="5">
         <v>5</v>
       </c>
-      <c r="O27" s="5"/>
-      <c r="P27" s="11"/>
-    </row>
-    <row r="28" spans="3:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C28" s="10" t="s">
+      <c r="O36" s="5"/>
+      <c r="P36" s="11"/>
+    </row>
+    <row r="37" spans="3:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C37" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="D28" s="5">
-        <f>D27*D26/2</f>
+      <c r="D37" s="5">
+        <f>D36*D35/2</f>
         <v>1912.5</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E37" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="F28" s="11"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="30"/>
-      <c r="M28" s="10" t="s">
+      <c r="F37" s="11"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="30"/>
+      <c r="M37" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="N28" s="5">
-        <f>N24*N27*FS/(N26*N25)</f>
+      <c r="N37" s="5">
+        <f>N33*N36*FS/(N35*N34)</f>
         <v>0.17241379310344829</v>
       </c>
-      <c r="O28" s="5"/>
-      <c r="P28" s="11"/>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="C29" s="10" t="s">
+      <c r="O37" s="5"/>
+      <c r="P37" s="11"/>
+    </row>
+    <row r="38" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="C38" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D38" s="5">
         <v>2</v>
       </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="11"/>
-      <c r="M29" s="10" t="s">
+      <c r="E38" s="5"/>
+      <c r="F38" s="11"/>
+      <c r="M38" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="N29" s="5">
-        <f>2*SQRT((N24*FS/I25)/N26)</f>
+      <c r="N38" s="5">
+        <f>2*SQRT((N33*FS/I34)/N35)</f>
         <v>0.26261286571944509</v>
       </c>
-      <c r="O29" s="5"/>
-      <c r="P29" s="11"/>
-    </row>
-    <row r="30" spans="3:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C30" s="10" t="s">
+      <c r="O38" s="5"/>
+      <c r="P38" s="11"/>
+    </row>
+    <row r="39" spans="3:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C39" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D39" s="5">
         <f>SS303FatigueStrength</f>
         <v>34800</v>
       </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="11"/>
-      <c r="M30" s="23" t="s">
+      <c r="E39" s="5"/>
+      <c r="F39" s="11"/>
+      <c r="M39" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="N30" s="34">
+      <c r="N39" s="34">
         <f>3/8</f>
         <v>0.375</v>
       </c>
-      <c r="O30" s="34"/>
-      <c r="P30" s="30"/>
-    </row>
-    <row r="31" spans="3:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C31" s="23" t="s">
+      <c r="O39" s="34"/>
+      <c r="P39" s="30"/>
+    </row>
+    <row r="40" spans="3:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C40" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="D31" s="34">
-        <f>D28*D29/D30</f>
+      <c r="D40" s="34">
+        <f>D37*D38/D39</f>
         <v>0.10991379310344827</v>
       </c>
-      <c r="E31" s="34"/>
-      <c r="F31" s="30"/>
-    </row>
-    <row r="41" spans="3:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C41" t="s">
+      <c r="E40" s="34"/>
+      <c r="F40" s="30"/>
+    </row>
+    <row r="54" spans="3:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C54" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="42" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="C42" s="31" t="s">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="C55" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="33"/>
-      <c r="H42" s="5" t="s">
+      <c r="D55" s="32"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="33"/>
+      <c r="H55" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="M42" s="31" t="s">
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="M55" s="31" t="s">
         <v>167</v>
       </c>
-      <c r="N42" s="32"/>
-      <c r="O42" s="32"/>
-      <c r="P42" s="33"/>
-    </row>
-    <row r="43" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="C43" s="10"/>
-      <c r="D43" s="5" t="s">
+      <c r="N55" s="32"/>
+      <c r="O55" s="32"/>
+      <c r="P55" s="33"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="C56" s="10"/>
+      <c r="D56" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="E56" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F43" s="11" t="s">
+      <c r="F56" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5" t="s">
+      <c r="H56" s="5"/>
+      <c r="I56" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J43" s="5" t="s">
+      <c r="J56" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="K43" s="5" t="s">
+      <c r="K56" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="M43" s="10"/>
-      <c r="N43" s="5" t="s">
+      <c r="M56" s="10"/>
+      <c r="N56" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="O43" s="5" t="s">
+      <c r="O56" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="P43" s="11" t="s">
+      <c r="P56" s="11" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="44" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="C44" s="10" t="s">
+    <row r="57" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="C57" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D57" s="6">
         <v>2</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="E57" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F44" s="11"/>
-      <c r="H44" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="I44" s="5">
-        <f>D52</f>
+      <c r="F57" s="11"/>
+      <c r="H57" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="I57" s="5">
+        <f>D65</f>
         <v>0.875</v>
       </c>
-      <c r="J44" s="5" t="s">
+      <c r="J57" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="K44" s="5"/>
-      <c r="M44" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="N44" s="5">
+      <c r="K57" s="5"/>
+      <c r="M57" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="N57" s="5">
         <v>0.75</v>
       </c>
-      <c r="O44" s="5" t="s">
+      <c r="O57" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="P44" s="11"/>
-    </row>
-    <row r="45" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="C45" s="10" t="s">
+      <c r="P57" s="11"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="C58" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="7">
-        <f>(D47*D49*(D44*D48)^2)/((PI()^2)*D46)</f>
+      <c r="D58" s="7">
+        <f>(D60*D62*(D57*D61)^2)/((PI()^2)*D59)</f>
         <v>2.3309064948399362E-3</v>
       </c>
-      <c r="E45" s="5"/>
-      <c r="F45" s="11"/>
-      <c r="H45" s="5" t="s">
+      <c r="E58" s="5"/>
+      <c r="F58" s="11"/>
+      <c r="H58" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="I45" s="5">
+      <c r="I58" s="5">
         <f>SS303FatigueStrength</f>
         <v>34800</v>
       </c>
-      <c r="J45" s="5" t="s">
+      <c r="J58" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K45" s="5"/>
-      <c r="M45" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="N45" s="5">
-        <f>(N44^2)*PI()</f>
+      <c r="K58" s="5"/>
+      <c r="M58" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="N58" s="5">
+        <f>(N57^2)*PI()</f>
         <v>1.7671458676442586</v>
       </c>
-      <c r="O45" s="5" t="s">
+      <c r="O58" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="P45" s="11"/>
-    </row>
-    <row r="46" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="C46" s="10" t="s">
+      <c r="P58" s="11"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="C59" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D46" s="8">
+      <c r="D59" s="8">
         <f>SS303YoungsModulus</f>
         <v>28000000</v>
       </c>
-      <c r="E46" s="5"/>
-      <c r="F46" s="11"/>
-      <c r="H46" s="5" t="s">
+      <c r="E59" s="5"/>
+      <c r="F59" s="11"/>
+      <c r="H59" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I46" s="5">
+      <c r="I59" s="5">
         <v>5</v>
       </c>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
-      <c r="M46" s="10" t="s">
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
+      <c r="M59" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="N46" s="5">
+      <c r="N59" s="5">
         <f>AppliedForceNormal</f>
         <v>700</v>
       </c>
-      <c r="O46" s="5" t="s">
+      <c r="O59" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="P46" s="11"/>
-    </row>
-    <row r="47" spans="3:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C47" s="10" t="s">
+      <c r="P59" s="11"/>
+    </row>
+    <row r="60" spans="3:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C60" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D60" s="8">
         <f>AppliedForceNormal</f>
         <v>700</v>
       </c>
-      <c r="E47" s="5"/>
-      <c r="F47" s="11"/>
-      <c r="H47" s="5" t="s">
+      <c r="E60" s="5"/>
+      <c r="F60" s="11"/>
+      <c r="H60" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="I47" s="5">
-        <f>AppliedForceNormal*I46/(I45*I44)</f>
+      <c r="I60" s="5">
+        <f>AppliedForceNormal*I59/(I58*I57)</f>
         <v>0.11494252873563218</v>
       </c>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
-      <c r="M47" s="23" t="s">
-        <v>293</v>
-      </c>
-      <c r="N47" s="34">
-        <f>N46/N45</f>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+      <c r="M60" s="23" t="s">
+        <v>290</v>
+      </c>
+      <c r="N60" s="34">
+        <f>N59/N58</f>
         <v>396.11896947316171</v>
       </c>
-      <c r="O47" s="34" t="s">
+      <c r="O60" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="P47" s="30"/>
-    </row>
-    <row r="48" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="C48" s="10" t="s">
+      <c r="P60" s="30"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="C61" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D61" s="7">
         <f>MachineHeight/2</f>
         <v>10.725</v>
       </c>
-      <c r="E48" s="5"/>
-      <c r="F48" s="11"/>
-      <c r="H48" s="5" t="s">
+      <c r="E61" s="5"/>
+      <c r="F61" s="11"/>
+      <c r="H61" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="I48" s="5">
+      <c r="I61" s="5">
         <f>3/8</f>
         <v>0.375</v>
       </c>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.45">
-      <c r="C49" s="10" t="s">
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="C62" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D62" s="8">
         <f>FS</f>
         <v>2</v>
       </c>
-      <c r="E49" s="5"/>
-      <c r="F49" s="11"/>
-      <c r="H49" s="5" t="s">
+      <c r="E62" s="5"/>
+      <c r="F62" s="11"/>
+      <c r="H62" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="I49" s="5">
-        <f>(((I44/2)^2)*PI())-(I44*I48)</f>
+      <c r="I62" s="5">
+        <f>(((I57/2)^2)*PI())-(I57*I61)</f>
         <v>0.2731954688511713</v>
       </c>
-      <c r="J49" s="5"/>
-      <c r="K49" s="5"/>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.45">
-      <c r="C50" s="10" t="s">
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="C63" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D50" s="7">
-        <f>((4*D45)/PI())^0.25</f>
+      <c r="D63" s="7">
+        <f>((4*D58)/PI())^0.25</f>
         <v>0.23340424081746836</v>
       </c>
-      <c r="E50" s="5"/>
-      <c r="F50" s="11"/>
-      <c r="H50" s="5" t="s">
+      <c r="E63" s="5"/>
+      <c r="F63" s="11"/>
+      <c r="H63" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="I50" s="5">
-        <f>AppliedForceNormal/I49</f>
+      <c r="I63" s="5">
+        <f>AppliedForceNormal/I62</f>
         <v>2562.2679722456855</v>
       </c>
-      <c r="J50" s="5"/>
-      <c r="K50" s="5" t="s">
+      <c r="J63" s="5"/>
+      <c r="K63" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.45">
-      <c r="C51" s="10" t="s">
+    <row r="64" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="C64" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D51" s="27">
-        <f>D50*2</f>
+      <c r="D64" s="27">
+        <f>D63*2</f>
         <v>0.46680848163493671</v>
       </c>
-      <c r="E51" s="5"/>
-      <c r="F51" s="11"/>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.45">
-      <c r="C52" s="10" t="s">
+      <c r="E64" s="5"/>
+      <c r="F64" s="11"/>
+    </row>
+    <row r="65" spans="3:26" x14ac:dyDescent="0.45">
+      <c r="C65" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D52" s="27">
+      <c r="D65" s="27">
         <v>0.875</v>
       </c>
-      <c r="E52" s="5" t="s">
+      <c r="E65" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F52" s="11"/>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.45">
-      <c r="C53" s="10"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="11"/>
-      <c r="H53" s="5" t="s">
+      <c r="F65" s="11"/>
+    </row>
+    <row r="66" spans="3:26" x14ac:dyDescent="0.45">
+      <c r="C66" s="10"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="11"/>
+      <c r="H66" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="I53" s="5" t="s">
+      <c r="I66" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J53" s="5" t="s">
+      <c r="J66" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="K53" s="11" t="s">
+      <c r="K66" s="11" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.45">
-      <c r="C54" s="10" t="s">
+    <row r="67" spans="3:26" x14ac:dyDescent="0.45">
+      <c r="C67" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="D54" s="5">
-        <f>((PI()^2)*D46)/((D48/(D52/2))^2)</f>
+      <c r="D67" s="5">
+        <f>((PI()^2)*D59)/((D61/(D65/2))^2)</f>
         <v>459853.28127613547</v>
       </c>
-      <c r="E54" s="5" t="s">
+      <c r="E67" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F54" s="11" t="s">
+      <c r="F67" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="H54" s="5" t="s">
+      <c r="H67" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="I54" s="5">
+      <c r="I67" s="5">
         <f>WashChamberDiameter</f>
         <v>4</v>
       </c>
-      <c r="J54" s="5"/>
-      <c r="K54" s="5"/>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.45">
-      <c r="C55" s="35" t="s">
+      <c r="J67" s="5"/>
+      <c r="K67" s="5"/>
+    </row>
+    <row r="68" spans="3:26" x14ac:dyDescent="0.45">
+      <c r="C68" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="D55" s="36">
-        <f>D54*(((D52/2)^2)*PI())</f>
+      <c r="D68" s="36">
+        <f>D67*(((D65/2)^2)*PI())</f>
         <v>276519.19069971534</v>
       </c>
-      <c r="E55" s="36" t="s">
+      <c r="E68" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="F55" s="37"/>
-      <c r="H55" s="5" t="s">
+      <c r="F68" s="37"/>
+      <c r="H68" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="I55" s="5">
+      <c r="I68" s="5">
         <v>0.25</v>
       </c>
-      <c r="J55" s="5"/>
-      <c r="K55" s="5"/>
-    </row>
-    <row r="56" spans="3:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C56" s="23" t="s">
+      <c r="J68" s="5"/>
+      <c r="K68" s="5"/>
+    </row>
+    <row r="69" spans="3:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C69" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="D56" s="34"/>
-      <c r="E56" s="34"/>
-      <c r="F56" s="30"/>
-      <c r="H56" s="5" t="s">
+      <c r="D69" s="34"/>
+      <c r="E69" s="34"/>
+      <c r="F69" s="30"/>
+      <c r="H69" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="I56" s="5">
-        <f>(I54-(2*I55))/I48</f>
+      <c r="I69" s="5">
+        <f>(I67-(2*I68))/I61</f>
         <v>9.3333333333333339</v>
       </c>
-      <c r="J56" s="5"/>
-      <c r="K56" s="5"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.45">
-      <c r="H57" s="5" t="s">
+      <c r="J69" s="5"/>
+      <c r="K69" s="5"/>
+    </row>
+    <row r="70" spans="3:26" x14ac:dyDescent="0.45">
+      <c r="H70" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="I57" s="5">
+      <c r="I70" s="5">
         <v>10</v>
       </c>
-      <c r="J57" s="5"/>
-      <c r="K57" s="5"/>
-    </row>
-    <row r="61" spans="3:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C61" t="s">
+      <c r="J70" s="5"/>
+      <c r="K70" s="5"/>
+    </row>
+    <row r="74" spans="3:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C74" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.45">
-      <c r="C62" s="31" t="s">
+    <row r="75" spans="3:26" x14ac:dyDescent="0.45">
+      <c r="C75" s="31" t="s">
         <v>167</v>
       </c>
-      <c r="D62" s="32"/>
-      <c r="E62" s="32"/>
-      <c r="F62" s="33"/>
-      <c r="H62" s="31" t="s">
+      <c r="D75" s="32"/>
+      <c r="E75" s="32"/>
+      <c r="F75" s="33"/>
+      <c r="H75" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="I62" s="32"/>
-      <c r="J62" s="32"/>
-      <c r="K62" s="33"/>
-      <c r="M62" s="5" t="s">
+      <c r="I75" s="32"/>
+      <c r="J75" s="32"/>
+      <c r="K75" s="33"/>
+      <c r="M75" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="N62" s="5"/>
-      <c r="O62" s="5"/>
-      <c r="P62" s="5"/>
-      <c r="R62" s="5" t="s">
+      <c r="N75" s="5"/>
+      <c r="O75" s="5"/>
+      <c r="P75" s="5"/>
+      <c r="R75" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="S62" s="5"/>
-      <c r="T62" s="5"/>
-      <c r="U62" s="5"/>
-      <c r="W62" s="31" t="s">
+      <c r="S75" s="5"/>
+      <c r="T75" s="5"/>
+      <c r="U75" s="5"/>
+      <c r="W75" s="31" t="s">
         <v>167</v>
       </c>
-      <c r="X62" s="32"/>
-      <c r="Y62" s="32"/>
-      <c r="Z62" s="33"/>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.45">
-      <c r="C63" s="10"/>
-      <c r="D63" s="5" t="s">
+      <c r="X75" s="32"/>
+      <c r="Y75" s="32"/>
+      <c r="Z75" s="33"/>
+    </row>
+    <row r="76" spans="3:26" x14ac:dyDescent="0.45">
+      <c r="C76" s="10"/>
+      <c r="D76" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E63" s="5" t="s">
+      <c r="E76" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F63" s="11" t="s">
+      <c r="F76" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="H63" s="10"/>
-      <c r="I63" s="5" t="s">
+      <c r="H76" s="10"/>
+      <c r="I76" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J63" s="5" t="s">
+      <c r="J76" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="K63" s="11" t="s">
+      <c r="K76" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="M63" s="5"/>
-      <c r="N63" s="5" t="s">
+      <c r="M76" s="5"/>
+      <c r="N76" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="O63" s="5" t="s">
+      <c r="O76" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="P63" s="5" t="s">
+      <c r="P76" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="R63" s="5"/>
-      <c r="S63" s="5" t="s">
+      <c r="R76" s="5"/>
+      <c r="S76" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="T63" s="5" t="s">
+      <c r="T76" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="U63" s="5" t="s">
+      <c r="U76" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="W63" s="10"/>
-      <c r="X63" s="5" t="s">
+      <c r="W76" s="10"/>
+      <c r="X76" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="Y63" s="5" t="s">
+      <c r="Y76" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Z63" s="11" t="s">
+      <c r="Z76" s="11" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.45">
-      <c r="C64" s="10" t="s">
+    <row r="77" spans="3:26" x14ac:dyDescent="0.45">
+      <c r="C77" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="D64" s="5">
+      <c r="D77" s="5">
         <f>(PI()*WashChamberDiameter^2/4)</f>
         <v>12.566370614359172</v>
       </c>
-      <c r="E64" s="5" t="s">
+      <c r="E77" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="F64" s="11"/>
-      <c r="H64" s="10" t="s">
+      <c r="F77" s="11"/>
+      <c r="H77" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="I64" s="5"/>
-      <c r="J64" s="5"/>
-      <c r="K64" s="11"/>
-      <c r="M64" s="5" t="s">
+      <c r="I77" s="5"/>
+      <c r="J77" s="5"/>
+      <c r="K77" s="11"/>
+      <c r="M77" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="N64" s="5">
-        <f>I74</f>
+      <c r="N77" s="5">
+        <f>I87</f>
         <v>0.5</v>
       </c>
-      <c r="O64" s="5" t="s">
+      <c r="O77" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="P64" s="5"/>
-      <c r="R64" s="5" t="s">
+      <c r="P77" s="5"/>
+      <c r="R77" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="S64" s="5">
-        <f>I65</f>
+      <c r="S77" s="5">
+        <f>I78</f>
         <v>4</v>
       </c>
-      <c r="T64" s="5"/>
-      <c r="U64" s="5"/>
-      <c r="W64" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="X64" s="5">
+      <c r="T77" s="5"/>
+      <c r="U77" s="5"/>
+      <c r="W77" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="X77" s="5">
         <f>3/8</f>
         <v>0.375</v>
       </c>
-      <c r="Y64" s="5" t="s">
+      <c r="Y77" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="Z64" s="11"/>
-    </row>
-    <row r="65" spans="3:26" x14ac:dyDescent="0.45">
-      <c r="C65" s="10" t="s">
+      <c r="Z77" s="11"/>
+    </row>
+    <row r="78" spans="3:26" x14ac:dyDescent="0.45">
+      <c r="C78" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D65" s="5">
-        <f>AppliedForceNormal/D64</f>
+      <c r="D78" s="5">
+        <f>AppliedForceNormal/D77</f>
         <v>55.70423008216337</v>
       </c>
-      <c r="E65" s="5" t="s">
+      <c r="E78" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F65" s="11"/>
-      <c r="H65" s="10" t="s">
+      <c r="F78" s="11"/>
+      <c r="H78" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="I65" s="6">
+      <c r="I78" s="6">
         <v>4</v>
       </c>
-      <c r="J65" s="5"/>
-      <c r="K65" s="11"/>
-      <c r="M65" s="5" t="s">
+      <c r="J78" s="5"/>
+      <c r="K78" s="11"/>
+      <c r="M78" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="N65" s="5">
+      <c r="N78" s="5">
         <f>SS303FatigueStrength</f>
         <v>34800</v>
       </c>
-      <c r="O65" s="5" t="s">
+      <c r="O78" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="P65" s="5"/>
-      <c r="R65" t="s">
+      <c r="P78" s="5"/>
+      <c r="R78" t="s">
         <v>190</v>
       </c>
-      <c r="S65" s="5"/>
-      <c r="T65" s="5"/>
-      <c r="U65" s="5"/>
-      <c r="W65" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="X65" s="5">
-        <f>(X64^2)*PI()</f>
+      <c r="S78" s="5"/>
+      <c r="T78" s="5"/>
+      <c r="U78" s="5"/>
+      <c r="W78" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="X78" s="5">
+        <f>(X77^2)*PI()</f>
         <v>0.44178646691106466</v>
       </c>
-      <c r="Y65" s="5" t="s">
+      <c r="Y78" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="Z65" s="11"/>
-    </row>
-    <row r="66" spans="3:26" x14ac:dyDescent="0.45">
-      <c r="C66" s="10" t="s">
+      <c r="Z78" s="11"/>
+    </row>
+    <row r="79" spans="3:26" x14ac:dyDescent="0.45">
+      <c r="C79" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D66" s="5">
-        <f>D64-(((D52/2)^2)*PI())</f>
+      <c r="D79" s="5">
+        <f>D77-(((D65/2)^2)*PI())</f>
         <v>11.965050145508002</v>
       </c>
-      <c r="E66" s="5" t="s">
+      <c r="E79" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="F66" s="11"/>
-      <c r="H66" s="10" t="s">
+      <c r="F79" s="11"/>
+      <c r="H79" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I66" s="6">
+      <c r="I79" s="6">
         <v>2</v>
       </c>
-      <c r="J66" s="5"/>
-      <c r="K66" s="11"/>
-      <c r="M66" s="5" t="s">
+      <c r="J79" s="5"/>
+      <c r="K79" s="11"/>
+      <c r="M79" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N66" s="5">
+      <c r="N79" s="5">
         <v>5</v>
       </c>
-      <c r="O66" s="5"/>
-      <c r="P66" s="5"/>
-      <c r="R66" s="5" t="s">
+      <c r="O79" s="5"/>
+      <c r="P79" s="5"/>
+      <c r="R79" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="S66" s="5">
-        <f>I74</f>
+      <c r="S79" s="5">
+        <f>I87</f>
         <v>0.5</v>
       </c>
-      <c r="T66" s="5"/>
-      <c r="U66" s="5"/>
-      <c r="W66" s="10" t="s">
+      <c r="T79" s="5"/>
+      <c r="U79" s="5"/>
+      <c r="W79" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="X66" s="5">
+      <c r="X79" s="5">
         <f>AppliedForceNormal/4</f>
         <v>175</v>
       </c>
-      <c r="Y66" s="5" t="s">
+      <c r="Y79" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="Z66" s="11"/>
-    </row>
-    <row r="67" spans="3:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C67" s="23" t="s">
+      <c r="Z79" s="11"/>
+    </row>
+    <row r="80" spans="3:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C80" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="D67" s="34">
-        <f>D65*D66</f>
+      <c r="D80" s="34">
+        <f>D78*D79</f>
         <v>666.50390625</v>
       </c>
-      <c r="E67" s="34" t="s">
+      <c r="E80" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="F67" s="30"/>
-      <c r="H67" s="10" t="s">
+      <c r="F80" s="30"/>
+      <c r="H80" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I67" s="7">
-        <f>((I69/I65)*I71*(I66*I70)^2)/((PI()^2)*I68)</f>
+      <c r="I80" s="7">
+        <f>((I82/I78)*I84*(I79*I83)^2)/((PI()^2)*I81)</f>
         <v>5.5484224425511174E-4</v>
       </c>
-      <c r="J67" s="5"/>
-      <c r="K67" s="11"/>
-      <c r="M67" s="5" t="s">
+      <c r="J80" s="5"/>
+      <c r="K80" s="11"/>
+      <c r="M80" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="N67" s="5">
-        <f>(I69*N66/I65)/(N65*N64)</f>
+      <c r="N80" s="5">
+        <f>(I82*N79/I78)/(N78*N77)</f>
         <v>4.7881027747844827E-2</v>
       </c>
-      <c r="O67" s="5"/>
-      <c r="P67" s="5"/>
-      <c r="R67" s="5"/>
-      <c r="S67" s="5"/>
-      <c r="T67" s="5"/>
-      <c r="U67" s="5"/>
-      <c r="W67" s="23" t="s">
-        <v>293</v>
-      </c>
-      <c r="X67" s="34">
-        <f>X66/X65</f>
+      <c r="O80" s="5"/>
+      <c r="P80" s="5"/>
+      <c r="R80" s="5"/>
+      <c r="S80" s="5"/>
+      <c r="T80" s="5"/>
+      <c r="U80" s="5"/>
+      <c r="W80" s="23" t="s">
+        <v>290</v>
+      </c>
+      <c r="X80" s="34">
+        <f>X79/X78</f>
         <v>396.11896947316171</v>
       </c>
-      <c r="Y67" s="34" t="s">
+      <c r="Y80" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="Z67" s="30"/>
-    </row>
-    <row r="68" spans="3:26" x14ac:dyDescent="0.45">
-      <c r="H68" s="10" t="s">
+      <c r="Z80" s="30"/>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.45">
+      <c r="H81" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I68" s="8">
+      <c r="I81" s="8">
         <f>SS303YoungsModulus</f>
         <v>28000000</v>
       </c>
-      <c r="J68" s="5"/>
-      <c r="K68" s="11"/>
-      <c r="M68" s="5" t="s">
+      <c r="J81" s="5"/>
+      <c r="K81" s="11"/>
+      <c r="M81" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="N68" s="27">
+      <c r="N81" s="27">
         <f>(0.25+0.125)/2</f>
         <v>0.1875</v>
       </c>
-      <c r="O68" s="5"/>
-      <c r="P68" s="5"/>
-      <c r="R68" s="5"/>
-      <c r="S68" s="5"/>
-      <c r="T68" s="5"/>
-      <c r="U68" s="5"/>
-    </row>
-    <row r="69" spans="3:26" x14ac:dyDescent="0.45">
-      <c r="H69" s="10" t="s">
+      <c r="O81" s="5"/>
+      <c r="P81" s="5"/>
+      <c r="R81" s="5"/>
+      <c r="S81" s="5"/>
+      <c r="T81" s="5"/>
+      <c r="U81" s="5"/>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.45">
+      <c r="H82" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="I69" s="8">
-        <f>D67</f>
+      <c r="I82" s="8">
+        <f>D80</f>
         <v>666.50390625</v>
       </c>
-      <c r="J69" s="5" t="s">
+      <c r="J82" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="K69" s="11"/>
-      <c r="M69" s="5" t="s">
+      <c r="K82" s="11"/>
+      <c r="M82" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="N69" s="5">
-        <f>(((N64/2)^2)*PI())-(N64*N68)</f>
+      <c r="N82" s="5">
+        <f>(((N77/2)^2)*PI())-(N77*N81)</f>
         <v>0.10259954084936207</v>
       </c>
-      <c r="O69" s="5"/>
-      <c r="P69" s="5"/>
-      <c r="R69" s="5"/>
-      <c r="S69" s="5"/>
-      <c r="T69" s="5"/>
-      <c r="U69" s="5"/>
-    </row>
-    <row r="70" spans="3:26" x14ac:dyDescent="0.45">
-      <c r="H70" s="10" t="s">
+      <c r="O82" s="5"/>
+      <c r="P82" s="5"/>
+      <c r="R82" s="5"/>
+      <c r="S82" s="5"/>
+      <c r="T82" s="5"/>
+      <c r="U82" s="5"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.45">
+      <c r="H83" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="I70" s="7">
+      <c r="I83" s="7">
         <f>MachineHeight/2</f>
         <v>10.725</v>
       </c>
-      <c r="J70" s="5" t="s">
+      <c r="J83" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="K70" s="11"/>
-      <c r="M70" s="5" t="s">
+      <c r="K83" s="11"/>
+      <c r="M83" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="N70" s="5">
-        <f>(I69/I65)/N69</f>
+      <c r="N83" s="5">
+        <f>(I82/I78)/N82</f>
         <v>1624.0421271196753</v>
       </c>
-      <c r="O70" s="5"/>
-      <c r="P70" s="5" t="s">
+      <c r="O83" s="5"/>
+      <c r="P83" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="R70" s="5"/>
-      <c r="S70" s="5"/>
-      <c r="T70" s="5"/>
-      <c r="U70" s="5"/>
-    </row>
-    <row r="71" spans="3:26" x14ac:dyDescent="0.45">
-      <c r="H71" s="10" t="s">
+      <c r="R83" s="5"/>
+      <c r="S83" s="5"/>
+      <c r="T83" s="5"/>
+      <c r="U83" s="5"/>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.45">
+      <c r="H84" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I71" s="8">
+      <c r="I84" s="8">
         <v>2</v>
       </c>
-      <c r="J71" s="5" t="s">
+      <c r="J84" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K71" s="11"/>
-    </row>
-    <row r="72" spans="3:26" x14ac:dyDescent="0.45">
-      <c r="H72" s="10" t="s">
+      <c r="K84" s="11"/>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.45">
+      <c r="H85" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="I72" s="7">
-        <f>((4*I67)/PI())^0.25</f>
+      <c r="I85" s="7">
+        <f>((4*I80)/PI())^0.25</f>
         <v>0.16303089382194147</v>
       </c>
-      <c r="J72" s="5" t="s">
+      <c r="J85" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="K72" s="11"/>
-    </row>
-    <row r="73" spans="3:26" x14ac:dyDescent="0.45">
-      <c r="H73" s="10" t="s">
+      <c r="K85" s="11"/>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.45">
+      <c r="H86" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="I73" s="27">
-        <f>SQRT(I72/PI())*2</f>
+      <c r="I86" s="27">
+        <f>SQRT(I85/PI())*2</f>
         <v>0.45560660775236284</v>
       </c>
-      <c r="J73" s="5" t="s">
+      <c r="J86" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="K73" s="11"/>
-      <c r="M73" s="5" t="s">
+      <c r="K86" s="11"/>
+      <c r="M86" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="N73" s="5" t="s">
+      <c r="N86" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="O73" s="5" t="s">
+      <c r="O86" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="P73" s="11" t="s">
+      <c r="P86" s="11" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="74" spans="3:26" x14ac:dyDescent="0.45">
-      <c r="H74" s="10" t="s">
+    <row r="87" spans="3:21" x14ac:dyDescent="0.45">
+      <c r="H87" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="I74" s="27">
+      <c r="I87" s="27">
         <v>0.5</v>
       </c>
-      <c r="J74" s="5" t="s">
+      <c r="J87" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="K74" s="11"/>
-      <c r="M74" s="5" t="s">
+      <c r="K87" s="11"/>
+      <c r="M87" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="N74" s="5">
+      <c r="N87" s="5">
         <f>1.29*2</f>
         <v>2.58</v>
       </c>
-      <c r="O74" s="5"/>
-      <c r="P74" s="5" t="s">
+      <c r="O87" s="5"/>
+      <c r="P87" s="5" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="75" spans="3:26" x14ac:dyDescent="0.45">
-      <c r="H75" s="10"/>
-      <c r="I75" s="5"/>
-      <c r="J75" s="5"/>
-      <c r="K75" s="11"/>
-      <c r="M75" s="5" t="s">
+    <row r="88" spans="3:21" x14ac:dyDescent="0.45">
+      <c r="H88" s="10"/>
+      <c r="I88" s="5"/>
+      <c r="J88" s="5"/>
+      <c r="K88" s="11"/>
+      <c r="M88" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="N75" s="5">
+      <c r="N88" s="5">
         <v>0.25</v>
       </c>
-      <c r="O75" s="5"/>
-      <c r="P75" s="5"/>
-    </row>
-    <row r="76" spans="3:26" x14ac:dyDescent="0.45">
-      <c r="H76" s="10" t="s">
+      <c r="O88" s="5"/>
+      <c r="P88" s="5"/>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.45">
+      <c r="H89" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="I76" s="5">
-        <f>((PI()^2)*I68)/((I70/(I74/2))^2)</f>
+      <c r="I89" s="5">
+        <f>((PI()^2)*I81)/((I83/(I87/2))^2)</f>
         <v>150156.17347792178</v>
       </c>
-      <c r="J76" s="5" t="s">
+      <c r="J89" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K76" s="11" t="s">
+      <c r="K89" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="M76" s="5" t="s">
+      <c r="M89" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="N76" s="5">
-        <f>(N74-(2*N75))/N68</f>
+      <c r="N89" s="5">
+        <f>(N87-(2*N88))/N81</f>
         <v>11.093333333333334</v>
       </c>
-      <c r="O76" s="5"/>
-      <c r="P76" s="5"/>
-    </row>
-    <row r="77" spans="3:26" x14ac:dyDescent="0.45">
-      <c r="H77" s="10" t="s">
+      <c r="O89" s="5"/>
+      <c r="P89" s="5"/>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.45">
+      <c r="H90" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="I77" s="5">
-        <f>I76*(((I74/2)^2)*PI())</f>
+      <c r="I90" s="5">
+        <f>I89*(((I87/2)^2)*PI())</f>
         <v>29483.095718087101</v>
       </c>
-      <c r="J77" s="5" t="s">
+      <c r="J90" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="K77" s="11"/>
-      <c r="M77" s="5" t="s">
+      <c r="K90" s="11"/>
+      <c r="M90" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="N77" s="5">
+      <c r="N90" s="5">
         <v>10</v>
       </c>
-      <c r="O77" s="5"/>
-      <c r="P77" s="5" t="s">
+      <c r="O90" s="5"/>
+      <c r="P90" s="5" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="78" spans="3:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="H78" s="23" t="s">
+    <row r="91" spans="3:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="H91" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="I78" s="34"/>
-      <c r="J78" s="34"/>
-      <c r="K78" s="30"/>
-    </row>
-    <row r="79" spans="3:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="80" spans="3:26" x14ac:dyDescent="0.45">
-      <c r="C80" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="D80" s="25"/>
-      <c r="E80" s="25"/>
-      <c r="F80" s="26"/>
-      <c r="H80" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="I80" s="39"/>
-      <c r="J80" s="39"/>
-      <c r="K80" s="40"/>
-      <c r="M80" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="N80" s="5"/>
-      <c r="O80" s="5"/>
-      <c r="P80" s="5"/>
-      <c r="R80" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="C81" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="E81" s="5"/>
-      <c r="F81" s="11"/>
-      <c r="H81" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="I81" s="5" t="s">
+      <c r="I91" s="34"/>
+      <c r="J91" s="34"/>
+      <c r="K91" s="30"/>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.45">
+      <c r="C93" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.45">
+      <c r="C95" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
+      <c r="H95" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="I95" s="5"/>
+      <c r="J95" s="5"/>
+      <c r="K95" s="5"/>
+      <c r="M95" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="N95" s="5"/>
+      <c r="O95" s="5"/>
+      <c r="P95" s="5"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.45">
+      <c r="C96" s="5"/>
+      <c r="D96" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J81" s="5" t="s">
+      <c r="E96" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="K81" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="M81" s="5"/>
-      <c r="N81" s="5" t="s">
+      <c r="F96" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="H96" s="5"/>
+      <c r="I96" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="O81" s="5" t="s">
+      <c r="J96" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="P81" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="S81" t="s">
+      <c r="K96" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="M96" s="5"/>
+      <c r="N96" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="T81" t="s">
+      <c r="O96" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="U81" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="C82" s="10" t="s">
+      <c r="P96" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.45">
+      <c r="C97" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D97" s="5">
+        <f>AppliedForceNormal</f>
+        <v>700</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F97" s="5"/>
+      <c r="H97" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="I97" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="J97" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K97" s="5"/>
+      <c r="M97" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="N97" s="5">
         <v>1</v>
       </c>
-      <c r="D82" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="E82" s="5"/>
-      <c r="F82" s="11"/>
-      <c r="H82" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="I82" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="J82" s="5" t="s">
+      <c r="O97" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="P97" s="5"/>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.45">
+      <c r="C98" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D98" s="5">
+        <f>3.725*2</f>
+        <v>7.45</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="H98" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="I98" s="5">
+        <v>2</v>
+      </c>
+      <c r="J98" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K82" s="11"/>
-      <c r="M82" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="N82" s="8">
-        <f>D87</f>
-        <v>350</v>
-      </c>
-      <c r="O82" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="P82" s="5"/>
-      <c r="R82" t="s">
-        <v>266</v>
-      </c>
-      <c r="S82" s="1">
-        <f>N83</f>
-        <v>393.91438356324193</v>
-      </c>
-      <c r="T82" t="s">
-        <v>103</v>
-      </c>
-      <c r="U82" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="C83" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="11"/>
-      <c r="H83" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="I83" s="8">
+      <c r="K98" s="5"/>
+      <c r="M98" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="N98" s="5">
         <f>SS303FatigueStrength</f>
         <v>34800</v>
       </c>
-      <c r="J83" s="5"/>
-      <c r="K83" s="11"/>
-      <c r="M83" s="5" t="s">
+      <c r="O98" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="P98" s="5"/>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.45">
+      <c r="C99" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D99" s="5">
+        <f>D97/2</f>
+        <v>350</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F99" s="5"/>
+      <c r="H99" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I99" s="5">
+        <f>I97*I98</f>
+        <v>0.5</v>
+      </c>
+      <c r="J99" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K99" s="5"/>
+      <c r="M99" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N99" s="5">
+        <v>5</v>
+      </c>
+      <c r="O99" s="5"/>
+      <c r="P99" s="5"/>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.45">
+      <c r="C100" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D100" s="5">
+        <f>D99*D98/2</f>
+        <v>1303.75</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="F100" s="5"/>
+      <c r="H100" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="I100" s="5">
+        <f>SQRT((6*D103)/I99)</f>
+        <v>0.94822883895950072</v>
+      </c>
+      <c r="J100" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K100" s="5"/>
+      <c r="M100" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="N100" s="5">
+        <f>AppliedForceNormal*N99/(N98*N97)</f>
+        <v>0.10057471264367816</v>
+      </c>
+      <c r="O100" s="5"/>
+      <c r="P100" s="5"/>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.45">
+      <c r="C101" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D101" s="5">
+        <v>2</v>
+      </c>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5"/>
+      <c r="H101" s="5"/>
+      <c r="I101" s="5"/>
+      <c r="J101" s="5"/>
+      <c r="K101" s="5"/>
+      <c r="M101" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="N101" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="O101" s="5"/>
+      <c r="P101" s="5"/>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.45">
+      <c r="C102" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="D102" s="5">
+        <f>SS303FatigueStrength</f>
+        <v>34800</v>
+      </c>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+      <c r="M102" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="N102" s="5">
+        <f>(((N97/2)^2)*PI())-(N97*N101)</f>
+        <v>0.53539816339744828</v>
+      </c>
+      <c r="O102" s="5"/>
+      <c r="P102" s="5"/>
+    </row>
+    <row r="103" spans="3:21" x14ac:dyDescent="0.45">
+      <c r="C103" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="D103" s="5">
+        <f>D100*D101/D102</f>
+        <v>7.4928160919540229E-2</v>
+      </c>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+      <c r="M103" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="N103" s="5">
+        <f>AppliedForceNormal/N102</f>
+        <v>1307.4381793879277</v>
+      </c>
+      <c r="O103" s="5"/>
+      <c r="P103" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="108" spans="3:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="109" spans="3:21" x14ac:dyDescent="0.45">
+      <c r="C109" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="D109" s="25"/>
+      <c r="E109" s="25"/>
+      <c r="F109" s="26"/>
+      <c r="H109" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="I109" s="39"/>
+      <c r="J109" s="39"/>
+      <c r="K109" s="40"/>
+      <c r="M109" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="N109" s="5"/>
+      <c r="O109" s="5"/>
+      <c r="P109" s="5"/>
+      <c r="R109" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="110" spans="3:21" x14ac:dyDescent="0.45">
+      <c r="C110" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E110" s="5"/>
+      <c r="F110" s="11"/>
+      <c r="H110" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="I110" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J110" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K110" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="M110" s="5"/>
+      <c r="N110" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O110" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="P110" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="S110" t="s">
+        <v>14</v>
+      </c>
+      <c r="T110" t="s">
+        <v>5</v>
+      </c>
+      <c r="U110" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="111" spans="3:21" x14ac:dyDescent="0.45">
+      <c r="C111" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E111" s="5"/>
+      <c r="F111" s="11"/>
+      <c r="H111" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="I111" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="J111" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K111" s="11"/>
+      <c r="M111" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="N111" s="8">
+        <f>D116</f>
+        <v>350</v>
+      </c>
+      <c r="O111" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="P111" s="5"/>
+      <c r="R111" t="s">
+        <v>265</v>
+      </c>
+      <c r="S111" s="1">
+        <f>N112</f>
+        <v>393.91438356324193</v>
+      </c>
+      <c r="T111" t="s">
+        <v>103</v>
+      </c>
+      <c r="U111" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="112" spans="3:21" x14ac:dyDescent="0.45">
+      <c r="C112" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="11"/>
+      <c r="H112" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="I112" s="8">
+        <f>SS303FatigueStrength</f>
+        <v>34800</v>
+      </c>
+      <c r="J112" s="5"/>
+      <c r="K112" s="11"/>
+      <c r="M112" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="N83" s="7">
-        <f>(N82/COS(I94))/COS(RADIANS(27))</f>
+      <c r="N112" s="7">
+        <f>(N111/COS(I123))/COS(RADIANS(27))</f>
         <v>393.91438356324193</v>
       </c>
-      <c r="O83" s="5" t="s">
+      <c r="O112" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="P83" s="5"/>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="C84" s="13"/>
-      <c r="D84" s="5" t="s">
+      <c r="P112" s="5"/>
+    </row>
+    <row r="113" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="C113" s="13"/>
+      <c r="D113" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E84" s="5" t="s">
+      <c r="E113" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F84" s="11" t="s">
+      <c r="F113" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="H84" s="10" t="s">
+      <c r="H113" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I84" s="8">
+      <c r="I113" s="8">
         <f>FS</f>
         <v>2</v>
       </c>
-      <c r="J84" s="5"/>
-      <c r="K84" s="11"/>
-      <c r="M84" s="5" t="s">
+      <c r="J113" s="5"/>
+      <c r="K113" s="11"/>
+      <c r="M113" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="N84" s="7">
-        <f>SQRT((N83^2)-(N82^2))</f>
+      <c r="N113" s="7">
+        <f>SQRT((N112^2)-(N111^2))</f>
         <v>180.74440953459359</v>
       </c>
-      <c r="O84" s="5" t="s">
+      <c r="O113" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="P84" s="5"/>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="C85" s="10" t="s">
+      <c r="P113" s="5"/>
+    </row>
+    <row r="114" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="C114" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D85" s="5" t="s">
+      <c r="D114" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E85" s="5" t="s">
+      <c r="E114" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F85" s="11" t="s">
+      <c r="F114" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H85" s="10" t="s">
+      <c r="H114" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="I85" s="6" t="s">
+      <c r="I114" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="J85" s="5" t="s">
+      <c r="J114" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K85" s="11"/>
-      <c r="M85" s="5" t="s">
+      <c r="K114" s="11"/>
+      <c r="M114" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="N85" s="7">
-        <f>N83*CoeffStaticFrictionBrassonSteelLubricated</f>
+      <c r="N114" s="7">
+        <f>N112*CoeffStaticFrictionBrassonSteelLubricated</f>
         <v>74.843732877015967</v>
       </c>
-      <c r="O85" s="5" t="s">
+      <c r="O114" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="P85" s="5"/>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="C86" s="10" t="s">
+      <c r="P114" s="5"/>
+    </row>
+    <row r="115" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="C115" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="D86" s="6">
+      <c r="D115" s="6">
         <v>2</v>
       </c>
-      <c r="E86" s="5" t="s">
+      <c r="E115" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F86" s="11" t="s">
+      <c r="F115" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H86" s="10" t="s">
+      <c r="H115" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="I86" s="6">
+      <c r="I115" s="6">
         <v>0.5</v>
       </c>
-      <c r="J86" s="5" t="s">
+      <c r="J115" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="K86" s="11"/>
-      <c r="M86" s="5" t="s">
+      <c r="K115" s="11"/>
+      <c r="M115" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="N86" s="7">
-        <f>N84+COS(I94)*N85</f>
+      <c r="N115" s="7">
+        <f>N113+COS(I123)*N114</f>
         <v>255.37910433727859</v>
       </c>
-      <c r="O86" s="5" t="s">
+      <c r="O115" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="P86" s="5"/>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="C87" s="10" t="s">
+      <c r="P115" s="5"/>
+    </row>
+    <row r="116" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="C116" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D87" s="7">
-        <f>AppliedForceNormal/D86</f>
+      <c r="D116" s="7">
+        <f>AppliedForceNormal/D115</f>
         <v>350</v>
       </c>
-      <c r="E87" s="5" t="s">
+      <c r="E116" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="F87" s="11"/>
-      <c r="H87" s="10" t="s">
+      <c r="F116" s="11"/>
+      <c r="H116" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="I87" s="6">
+      <c r="I116" s="6">
         <v>0.35</v>
       </c>
-      <c r="J87" s="5" t="s">
+      <c r="J116" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="K87" s="11"/>
-      <c r="M87" s="5" t="s">
+      <c r="K116" s="11"/>
+      <c r="M116" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="N87" s="27">
-        <f>N86*((I88/2)/12)</f>
+      <c r="N116" s="27">
+        <f>N115*((I117/2)/12)</f>
         <v>4.5223383059726414</v>
       </c>
-      <c r="O87" s="5" t="s">
+      <c r="O116" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="P87" s="5"/>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="C88" s="10" t="s">
+      <c r="P116" s="5"/>
+    </row>
+    <row r="117" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="C117" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D88" s="8">
+      <c r="D117" s="8">
         <f>SS303FatigueStrength</f>
         <v>34800</v>
       </c>
-      <c r="E88" s="5" t="s">
+      <c r="E117" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F88" s="11"/>
-      <c r="H88" s="10" t="s">
+      <c r="F117" s="11"/>
+      <c r="H117" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="I88" s="27">
-        <f>(I86+I87)/2</f>
+      <c r="I117" s="27">
+        <f>(I115+I116)/2</f>
         <v>0.42499999999999999</v>
       </c>
-      <c r="J88" s="5" t="s">
+      <c r="J117" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="K88" s="11"/>
-      <c r="M88" s="5" t="s">
+      <c r="K117" s="11"/>
+      <c r="M117" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="N88" s="27">
-        <f>N87*16*12</f>
+      <c r="N117" s="27">
+        <f>N116*16*12</f>
         <v>868.28895474674709</v>
       </c>
-      <c r="O88" s="5" t="s">
+      <c r="O117" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="P88" s="5"/>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="C89" s="10" t="s">
+      <c r="P117" s="5"/>
+    </row>
+    <row r="118" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="C118" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D89" s="8">
+      <c r="D118" s="8">
         <f>FS</f>
         <v>2</v>
       </c>
-      <c r="E89" s="5" t="s">
+      <c r="E118" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F89" s="11"/>
-      <c r="H89" s="10" t="s">
+      <c r="F118" s="11"/>
+      <c r="H118" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="I89" s="7">
-        <f>I88*PI()</f>
+      <c r="I118" s="7">
+        <f>I117*PI()</f>
         <v>1.3351768777756621</v>
       </c>
-      <c r="J89" s="5" t="s">
+      <c r="J118" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="K89" s="11"/>
-      <c r="M89" s="5" t="s">
+      <c r="K118" s="11"/>
+      <c r="M118" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="N89" s="27">
-        <f>N87*0.4535*30.48</f>
+      <c r="N118" s="27">
+        <f>N116*0.4535*30.48</f>
         <v>62.510835255201911</v>
       </c>
-      <c r="O89" s="5" t="s">
+      <c r="O118" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="P89" s="5"/>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="C90" s="10" t="s">
+      <c r="P118" s="5"/>
+    </row>
+    <row r="119" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="C119" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="D90" s="7">
-        <f>SQRT((4*D87*D89)/(D88*PI()))</f>
+      <c r="D119" s="7">
+        <f>SQRT((4*D116*D118)/(D117*PI()))</f>
         <v>0.16003480954986424</v>
       </c>
-      <c r="E90" s="5" t="s">
+      <c r="E119" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F90" s="11"/>
-      <c r="H90" s="10" t="s">
+      <c r="F119" s="11"/>
+      <c r="H119" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="I90" s="27">
-        <f>((I87/2)^2)*PI()</f>
+      <c r="I119" s="27">
+        <f>((I116/2)^2)*PI()</f>
         <v>9.6211275016187398E-2</v>
       </c>
-      <c r="J90" s="5"/>
-      <c r="K90" s="11"/>
-      <c r="M90" s="5" t="s">
+      <c r="J119" s="5"/>
+      <c r="K119" s="11"/>
+      <c r="M119" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="N90" s="5">
-        <f>N87/I91</f>
+      <c r="N119" s="5">
+        <f>N116/I120</f>
         <v>3069.6649547141997</v>
       </c>
-      <c r="O90" s="5" t="s">
+      <c r="O119" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="P90" s="5"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="C91" s="10" t="s">
+      <c r="P119" s="5"/>
+    </row>
+    <row r="120" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="C120" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D91" s="9">
+      <c r="D120" s="9">
         <v>0.375</v>
       </c>
-      <c r="E91" s="5" t="s">
+      <c r="E120" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F91" s="12" t="s">
+      <c r="F120" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="H91" s="10" t="s">
+      <c r="H120" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="I91" s="27">
-        <f>PI()*((I87/2)^4)/2</f>
+      <c r="I120" s="27">
+        <f>PI()*((I116/2)^4)/2</f>
         <v>1.4732351486853694E-3</v>
       </c>
-      <c r="J91" s="5" t="s">
+      <c r="J120" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="K91" s="11"/>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="C92" s="13"/>
-      <c r="D92" s="21"/>
-      <c r="E92" s="21"/>
-      <c r="F92" s="22"/>
-      <c r="H92" s="10" t="s">
+      <c r="K120" s="11"/>
+    </row>
+    <row r="121" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="C121" s="13"/>
+      <c r="D121" s="21"/>
+      <c r="E121" s="21"/>
+      <c r="F121" s="22"/>
+      <c r="H121" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="I92" s="7">
-        <f>1/I93</f>
+      <c r="I121" s="7">
+        <f>1/I122</f>
         <v>0.1</v>
       </c>
-      <c r="J92" s="5" t="s">
+      <c r="J121" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="K92" s="11"/>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="C93" s="14" t="s">
+      <c r="K121" s="11"/>
+    </row>
+    <row r="122" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="C122" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="D93" s="15">
-        <f>D91*PI()</f>
+      <c r="D122" s="15">
+        <f>D120*PI()</f>
         <v>1.1780972450961724</v>
       </c>
-      <c r="E93" s="15"/>
-      <c r="F93" s="16"/>
-      <c r="H93" s="10" t="s">
+      <c r="E122" s="15"/>
+      <c r="F122" s="16"/>
+      <c r="H122" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="I93" s="6">
+      <c r="I122" s="6">
         <v>10</v>
       </c>
-      <c r="J93" s="5" t="s">
+      <c r="J122" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="K93" s="11"/>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="C94" s="14" t="s">
+      <c r="K122" s="11"/>
+    </row>
+    <row r="123" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="C123" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="D94" s="17">
+      <c r="D123" s="17">
         <v>0.16666666666666666</v>
       </c>
-      <c r="E94" s="15"/>
-      <c r="F94" s="16" t="s">
+      <c r="E123" s="15"/>
+      <c r="F123" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="H94" s="10" t="s">
+      <c r="H123" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="I94" s="27">
-        <f>ATAN(I92/I89)</f>
+      <c r="I123" s="27">
+        <f>ATAN(I121/I118)</f>
         <v>7.4756869969081929E-2</v>
       </c>
-      <c r="J94" s="5" t="s">
+      <c r="J123" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="K94" s="11"/>
-    </row>
-    <row r="95" spans="3:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C95" s="14" t="s">
+      <c r="K123" s="11"/>
+    </row>
+    <row r="124" spans="3:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C124" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="D95" s="15">
-        <f>ATAN(D94/D93)</f>
+      <c r="D124" s="15">
+        <f>ATAN(D123/D122)</f>
         <v>0.14053843111258857</v>
       </c>
-      <c r="E95" s="15"/>
-      <c r="F95" s="16"/>
-      <c r="H95" s="28" t="s">
+      <c r="E124" s="15"/>
+      <c r="F124" s="16"/>
+      <c r="H124" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="I95" s="29">
-        <f>DEGREES(I94)</f>
+      <c r="I124" s="29">
+        <f>DEGREES(I123)</f>
         <v>4.2832531388366837</v>
       </c>
-      <c r="J95" s="29" t="s">
+      <c r="J124" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="K95" s="30"/>
-    </row>
-    <row r="96" spans="3:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C96" s="18" t="s">
+      <c r="K124" s="30"/>
+    </row>
+    <row r="125" spans="3:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C125" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="D96" s="19">
-        <f>PI()*((D91/2)^4)/2</f>
+      <c r="D125" s="19">
+        <f>PI()*((D120/2)^4)/2</f>
         <v>1.9414444346677645E-3</v>
       </c>
-      <c r="E96" s="19"/>
-      <c r="F96" s="20"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="H99" t="s">
+      <c r="E125" s="19"/>
+      <c r="F125" s="20"/>
+    </row>
+    <row r="128" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="H128" t="s">
         <v>119</v>
       </c>
-      <c r="I99" s="4">
+      <c r="I128" s="4">
         <v>0.4</v>
       </c>
     </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C100" s="3" t="s">
+    <row r="129" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C129" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="H100" t="s">
+      <c r="H129" t="s">
         <v>125</v>
       </c>
-      <c r="I100" s="4">
+      <c r="I129" s="4">
         <v>0.98</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C101" t="s">
+    <row r="130" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C130" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="105" spans="3:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C105" t="s">
+    <row r="134" spans="3:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C134" t="s">
         <v>173</v>
       </c>
-      <c r="H105" t="s">
+      <c r="H134" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="106" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C106" s="31"/>
-      <c r="D106" s="32" t="s">
+    <row r="135" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C135" s="31"/>
+      <c r="D135" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="E106" s="32" t="s">
+      <c r="E135" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="F106" s="33" t="s">
+      <c r="F135" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="H106" s="10"/>
-      <c r="I106" s="5" t="s">
+      <c r="H135" s="10"/>
+      <c r="I135" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J106" s="5" t="s">
+      <c r="J135" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="K106" s="11" t="s">
+      <c r="K135" s="11" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="107" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C107" s="10" t="s">
+    <row r="136" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C136" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="D107" s="27">
-        <f>ROUND(N87*D86,1)</f>
+      <c r="D136" s="27">
+        <f>ROUND(N116*D115,1)</f>
         <v>9</v>
       </c>
-      <c r="E107" s="5" t="s">
+      <c r="E136" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="F107" s="11" t="s">
+      <c r="F136" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="H107" t="s">
-        <v>253</v>
-      </c>
-      <c r="I107">
-        <f>D112/(D108/12)</f>
+      <c r="H136" t="s">
+        <v>252</v>
+      </c>
+      <c r="I136">
+        <f>D141/(D137/12)</f>
         <v>35.100000000000009</v>
       </c>
     </row>
-    <row r="108" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C108" s="10" t="s">
+    <row r="137" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C137" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="D108" s="41">
+      <c r="D137" s="41">
         <f>2</f>
         <v>2</v>
       </c>
-      <c r="E108" s="5" t="s">
+      <c r="E137" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F108" s="11" t="s">
+      <c r="F137" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="H108" t="s">
+      <c r="H137" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="109" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C109" s="10" t="s">
+    <row r="138" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C138" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="D109" s="5">
-        <f>D107/(D108/12)</f>
+      <c r="D138" s="5">
+        <f>D136/(D137/12)</f>
         <v>54</v>
       </c>
-      <c r="E109" s="5" t="s">
+      <c r="E138" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F109" s="11"/>
-      <c r="H109" t="s">
+      <c r="F138" s="11"/>
+      <c r="H138" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="110" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C110" s="10" t="s">
+    <row r="139" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C139" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="D139" s="5">
+        <v>1.25</v>
+      </c>
+      <c r="E139" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F139" s="11"/>
+    </row>
+    <row r="140" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C140" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D140" s="42">
+        <v>0.96</v>
+      </c>
+      <c r="E140" s="5"/>
+      <c r="F140" s="11"/>
+    </row>
+    <row r="141" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C141" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="D141" s="27">
+        <f>D136*(D139/D137)*(1-D140+1)</f>
+        <v>5.8500000000000005</v>
+      </c>
+      <c r="E141" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F141" s="43"/>
+      <c r="K141" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="142" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C142" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="D142" s="27">
+        <f>D141*16*12</f>
+        <v>1123.2</v>
+      </c>
+      <c r="E142" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F142" s="11"/>
+    </row>
+    <row r="143" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C143" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="D143" s="27">
+        <f>D141*0.4535*30.48</f>
+        <v>80.862678000000017</v>
+      </c>
+      <c r="E143" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F143" s="11"/>
+    </row>
+    <row r="144" spans="3:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C144" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="D144" s="34">
+        <f>D137/D139</f>
+        <v>1.6</v>
+      </c>
+      <c r="E144" s="34"/>
+      <c r="F144" s="30"/>
+    </row>
+    <row r="147" spans="3:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="H147" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="148" spans="3:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C148" t="s">
+        <v>124</v>
+      </c>
+      <c r="H148" s="31"/>
+      <c r="I148" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J148" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="K148" s="33" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="149" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C149" s="31"/>
+      <c r="D149" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="E149" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F149" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="H149" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="I149" s="6">
+        <v>19</v>
+      </c>
+      <c r="J149" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="K149" s="11"/>
+    </row>
+    <row r="150" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C150" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="D150" s="27">
+        <f>D141</f>
+        <v>5.8500000000000005</v>
+      </c>
+      <c r="E150" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F150" s="11"/>
+      <c r="H150" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="I150" s="6">
+        <v>1</v>
+      </c>
+      <c r="J150" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K150" s="11"/>
+    </row>
+    <row r="151" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C151" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="D151" s="27">
+        <f>D150*16*12</f>
+        <v>1123.2</v>
+      </c>
+      <c r="E151" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F151" s="11"/>
+      <c r="H151" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="I151" s="8">
+        <f>D144</f>
+        <v>1.6</v>
+      </c>
+      <c r="J151" s="5"/>
+      <c r="K151" s="11"/>
+    </row>
+    <row r="152" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C152" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="D152" s="27">
+        <f>D150*0.4535*30.48</f>
+        <v>80.862678000000017</v>
+      </c>
+      <c r="E152" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F152" s="11"/>
+      <c r="H152" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="I152" s="8">
+        <f>I122</f>
+        <v>10</v>
+      </c>
+      <c r="J152" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="K152" s="11"/>
+    </row>
+    <row r="153" spans="3:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C153" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="D153" s="34">
+        <f>D150*1.3558179483</f>
+        <v>7.9315349975550005</v>
+      </c>
+      <c r="E153" s="34" t="s">
         <v>256</v>
       </c>
-      <c r="D110" s="5">
-        <v>1.25</v>
-      </c>
-      <c r="E110" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F110" s="11"/>
-    </row>
-    <row r="111" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C111" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="D111" s="42">
-        <v>0.96</v>
-      </c>
-      <c r="E111" s="5"/>
-      <c r="F111" s="11"/>
-    </row>
-    <row r="112" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C112" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="D112" s="27">
-        <f>D107*(D110/D108)*(1-D111+1)</f>
-        <v>5.8500000000000005</v>
-      </c>
-      <c r="E112" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F112" s="43"/>
-      <c r="K112" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="113" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C113" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="D113" s="27">
-        <f>D112*16*12</f>
-        <v>1123.2</v>
-      </c>
-      <c r="E113" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="F113" s="11"/>
-    </row>
-    <row r="114" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C114" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="D114" s="27">
-        <f>D112*0.4535*30.48</f>
-        <v>80.862678000000017</v>
-      </c>
-      <c r="E114" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F114" s="11"/>
-    </row>
-    <row r="115" spans="3:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C115" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="D115" s="34">
-        <f>D108/D110</f>
-        <v>1.6</v>
-      </c>
-      <c r="E115" s="34"/>
-      <c r="F115" s="30"/>
-    </row>
-    <row r="118" spans="3:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="H118" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="119" spans="3:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C119" t="s">
-        <v>124</v>
-      </c>
-      <c r="H119" s="31"/>
-      <c r="I119" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="J119" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="K119" s="33" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="120" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C120" s="31"/>
-      <c r="D120" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="E120" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="F120" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="H120" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="I120" s="6">
-        <v>19</v>
-      </c>
-      <c r="J120" s="5" t="s">
+      <c r="F153" s="30"/>
+      <c r="H153" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="I153" s="7">
+        <f>I149/(I150*I151)</f>
+        <v>11.875</v>
+      </c>
+      <c r="J153" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="K120" s="11"/>
-    </row>
-    <row r="121" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C121" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="D121" s="27">
-        <f>D112</f>
-        <v>5.8500000000000005</v>
-      </c>
-      <c r="E121" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F121" s="11"/>
-      <c r="H121" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="I121" s="6">
-        <v>1</v>
-      </c>
-      <c r="J121" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K121" s="11"/>
-    </row>
-    <row r="122" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C122" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="D122" s="27">
-        <f>D121*16*12</f>
-        <v>1123.2</v>
-      </c>
-      <c r="E122" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="F122" s="11"/>
-      <c r="H122" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="I122" s="8">
-        <f>D115</f>
-        <v>1.6</v>
-      </c>
-      <c r="J122" s="5"/>
-      <c r="K122" s="11"/>
-    </row>
-    <row r="123" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C123" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="D123" s="27">
-        <f>D121*0.4535*30.48</f>
-        <v>80.862678000000017</v>
-      </c>
-      <c r="E123" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F123" s="11"/>
-      <c r="H123" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="I123" s="8">
-        <f>I93</f>
-        <v>10</v>
-      </c>
-      <c r="J123" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="K123" s="11"/>
-    </row>
-    <row r="124" spans="3:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C124" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="D124" s="34">
-        <f>D121*1.3558179483</f>
+      <c r="K153" s="11"/>
+    </row>
+    <row r="154" spans="3:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="H154" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="I154" s="34">
+        <f>I153/I152</f>
+        <v>1.1875</v>
+      </c>
+      <c r="J154" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="K154" s="30"/>
+    </row>
+    <row r="155" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C155" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="156" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C156" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="157" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="F157">
+        <v>50</v>
+      </c>
+      <c r="G157" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="158" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="F158">
+        <f>2*PI()*F157/60</f>
+        <v>5.2359877559829888</v>
+      </c>
+      <c r="G158" t="s">
+        <v>259</v>
+      </c>
+      <c r="H158" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="159" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="F159">
+        <f>D153</f>
         <v>7.9315349975550005</v>
       </c>
-      <c r="E124" s="34" t="s">
-        <v>257</v>
-      </c>
-      <c r="F124" s="30"/>
-      <c r="H124" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="I124" s="7">
-        <f>I120/(I121*I122)</f>
-        <v>11.875</v>
-      </c>
-      <c r="J124" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="K124" s="11"/>
-    </row>
-    <row r="125" spans="3:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="H125" s="23" t="s">
-        <v>236</v>
-      </c>
-      <c r="I125" s="34">
-        <f>I124/I123</f>
-        <v>1.1875</v>
-      </c>
-      <c r="J125" s="34" t="s">
-        <v>237</v>
-      </c>
-      <c r="K125" s="30"/>
-    </row>
-    <row r="126" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C126" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="127" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C127" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="128" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="F128">
-        <v>50</v>
-      </c>
-      <c r="G128" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="129" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="F129">
-        <f>2*PI()*F128/60</f>
-        <v>5.2359877559829888</v>
-      </c>
-      <c r="G129" t="s">
+      <c r="G159" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="160" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="F160">
+        <f>F158*F159</f>
+        <v>41.529420133348545</v>
+      </c>
+      <c r="G160" t="s">
         <v>260</v>
       </c>
-      <c r="H129" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="130" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="F130">
-        <f>D124</f>
-        <v>7.9315349975550005</v>
-      </c>
-      <c r="G130" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="131" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="F131">
-        <f>F129*F130</f>
-        <v>41.529420133348545</v>
-      </c>
-      <c r="G131" t="s">
+      <c r="H160">
+        <f>0.105*90*D153</f>
+        <v>74.953005726894744</v>
+      </c>
+    </row>
+    <row r="162" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F162">
+        <v>24</v>
+      </c>
+      <c r="G162" t="s">
         <v>261</v>
       </c>
-      <c r="H131">
-        <f>0.105*90*D124</f>
-        <v>74.953005726894744</v>
-      </c>
-    </row>
-    <row r="133" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="F133">
-        <v>24</v>
-      </c>
-      <c r="G133" t="s">
+    </row>
+    <row r="163" spans="6:8" x14ac:dyDescent="0.45">
+      <c r="F163">
+        <f>F160/F162</f>
+        <v>1.7303925055561893</v>
+      </c>
+      <c r="G163" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="134" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="F134">
-        <f>F131/F133</f>
-        <v>1.7303925055561893</v>
-      </c>
-      <c r="G134" t="s">
-        <v>263</v>
-      </c>
-      <c r="H134">
+      <c r="H163">
         <f>6000*0.224808943</f>
         <v>1348.853658</v>
       </c>
     </row>
-    <row r="136" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="C136" t="s">
-        <v>249</v>
-      </c>
-      <c r="H136">
-        <f>12*2.3</f>
-        <v>27.599999999999998</v>
-      </c>
-    </row>
-    <row r="138" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="C138" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="D138" s="5"/>
-      <c r="E138" s="5"/>
-      <c r="F138" s="5"/>
-      <c r="H138" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="I138" s="5"/>
-      <c r="J138" s="5"/>
-      <c r="K138" s="5"/>
-      <c r="M138" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="N138" s="5"/>
-      <c r="O138" s="5"/>
-      <c r="P138" s="5"/>
-    </row>
-    <row r="139" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="C139" s="5"/>
-      <c r="D139" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E139" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F139" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="H139" s="5"/>
-      <c r="I139" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J139" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="K139" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="M139" s="5"/>
-      <c r="N139" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="O139" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="P139" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="140" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="C140" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="D140" s="5">
-        <f>AppliedForceNormal</f>
-        <v>700</v>
-      </c>
-      <c r="E140" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F140" s="5"/>
-      <c r="H140" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="I140" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="J140" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="K140" s="5"/>
-      <c r="M140" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="N140" s="5">
-        <v>1</v>
-      </c>
-      <c r="O140" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="P140" s="5"/>
-    </row>
-    <row r="141" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="C141" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="D141" s="5">
-        <f>3.725*2</f>
-        <v>7.45</v>
-      </c>
-      <c r="E141" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F141" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="H141" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="I141" s="5">
-        <v>2</v>
-      </c>
-      <c r="J141" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K141" s="5"/>
-      <c r="M141" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="N141" s="5">
-        <f>SS303FatigueStrength</f>
-        <v>34800</v>
-      </c>
-      <c r="O141" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="P141" s="5"/>
-    </row>
-    <row r="142" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="C142" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="D142" s="5">
-        <f>D140/2</f>
-        <v>350</v>
-      </c>
-      <c r="E142" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F142" s="5"/>
-      <c r="H142" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="I142" s="5">
-        <f>I140*I141</f>
-        <v>0.5</v>
-      </c>
-      <c r="J142" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="K142" s="5"/>
-      <c r="M142" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="N142" s="5">
-        <v>5</v>
-      </c>
-      <c r="O142" s="5"/>
-      <c r="P142" s="5"/>
-    </row>
-    <row r="143" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="C143" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="D143" s="5">
-        <f>D142*D141/2</f>
-        <v>1303.75</v>
-      </c>
-      <c r="E143" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="F143" s="5"/>
-      <c r="H143" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="I143" s="5">
-        <f>SQRT((6*D146)/I142)</f>
-        <v>0.94822883895950072</v>
-      </c>
-      <c r="J143" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="K143" s="5"/>
-      <c r="M143" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="N143" s="5">
-        <f>AppliedForceNormal*N142/(N141*N140)</f>
-        <v>0.10057471264367816</v>
-      </c>
-      <c r="O143" s="5"/>
-      <c r="P143" s="5"/>
-    </row>
-    <row r="144" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="C144" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D144" s="5">
-        <v>2</v>
-      </c>
-      <c r="E144" s="5"/>
-      <c r="F144" s="5"/>
-      <c r="H144" s="5"/>
-      <c r="I144" s="5"/>
-      <c r="J144" s="5"/>
-      <c r="K144" s="5"/>
-      <c r="M144" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="N144" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="O144" s="5"/>
-      <c r="P144" s="5"/>
-    </row>
-    <row r="145" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="C145" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="D145" s="5">
-        <f>SS303FatigueStrength</f>
-        <v>34800</v>
-      </c>
-      <c r="E145" s="5"/>
-      <c r="F145" s="5"/>
-      <c r="M145" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="N145" s="5">
-        <f>(((N140/2)^2)*PI())-(N140*N144)</f>
-        <v>0.53539816339744828</v>
-      </c>
-      <c r="O145" s="5"/>
-      <c r="P145" s="5"/>
-    </row>
-    <row r="146" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="C146" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="D146" s="5">
-        <f>D143*D144/D145</f>
-        <v>7.4928160919540229E-2</v>
-      </c>
-      <c r="E146" s="5"/>
-      <c r="F146" s="5"/>
-      <c r="M146" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="N146" s="5">
-        <f>AppliedForceNormal/N145</f>
-        <v>1307.4381793879277</v>
-      </c>
-      <c r="O146" s="5"/>
-      <c r="P146" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="159" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="C159" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="172" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C172" t="s">
-        <v>254</v>
+    <row r="182" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B182" t="s">
+        <v>292</v>
+      </c>
+      <c r="C182" t="s">
+        <v>291</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C100" r:id="rId1" location=":~:text=The%20bearing%20pressure%20refers%20to%20the#:~:text=The%20bearing%20pressure%20refers%20to%20the" display="https://engineerexcel.com/acme-thread-calculations/ - :~:text=The%20bearing%20pressure%20refers%20to%20the#:~:text=The%20bearing%20pressure%20refers%20to%20the" xr:uid="{EB560DC3-B69B-4530-B1AF-3637325D1D1F}"/>
-    <hyperlink ref="K112" r:id="rId2" location="fig25" display="http://chain-guide.com/basics/2-1-2-engagement-with-sprockets.html - fig25" xr:uid="{80E4AA67-26CD-4E34-8F69-0332D5B7D54D}"/>
+    <hyperlink ref="C129" r:id="rId1" location=":~:text=The%20bearing%20pressure%20refers%20to%20the#:~:text=The%20bearing%20pressure%20refers%20to%20the" display="https://engineerexcel.com/acme-thread-calculations/ - :~:text=The%20bearing%20pressure%20refers%20to%20the#:~:text=The%20bearing%20pressure%20refers%20to%20the" xr:uid="{EB560DC3-B69B-4530-B1AF-3637325D1D1F}"/>
+    <hyperlink ref="K141" r:id="rId2" location="fig25" display="http://chain-guide.com/basics/2-1-2-engagement-with-sprockets.html - fig25" xr:uid="{80E4AA67-26CD-4E34-8F69-0332D5B7D54D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId3"/>
@@ -4822,7 +5033,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCF40096-3C22-48AC-994A-0768CD3A5344}">
   <dimension ref="A5:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -4948,7 +5159,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B5C0A57-75E1-4C82-BEEC-8882CA08F993}">
   <dimension ref="C6:D22"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -5047,7 +5258,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA2221C-5C0B-46B0-85B0-C1695986BBCC}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -5095,11 +5306,11 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E7" cm="1">
         <f t="array" ref="E7">(MMH-PTIH)*(((WCID/2)^2)-((WPRT/2)^2))/((2*((WCID/2)^2))-((WPRT/2)^2))</f>
@@ -5111,14 +5322,14 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B8" s="5">
         <f>0.938+0.75</f>
         <v>1.6879999999999999</v>
       </c>
       <c r="D8" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E8">
         <f>(WPRT^2)*E7/((WCID^2)-(WPRT^2))</f>
@@ -5127,7 +5338,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B9" s="5">
         <v>1.67</v>
@@ -5135,13 +5346,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B10" s="5">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E10">
         <f>E7+E8+B9+B11</f>
@@ -5150,31 +5361,31 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B11" s="5">
         <v>1.67</v>
       </c>
       <c r="D11" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E11">
         <f>E7+E8+B11</f>
         <v>8.8016298149074537</v>
       </c>
       <c r="F11" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B12" s="5">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E12">
         <f>E7+E8+B10</f>
@@ -5183,7 +5394,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B13" s="5">
         <v>0.5</v>
@@ -5191,14 +5402,14 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B14" s="5">
         <f>SUM(B8:B13)</f>
         <v>7.5279999999999996</v>
       </c>
       <c r="D14" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>

--- a/System Design and Documentation/Washing Machine Design Calculations.xlsx
+++ b/System Design and Documentation/Washing Machine Design Calculations.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dcdf7eb514dfaeec/Projects/Microgravity-Press-Washing-Machine/System Design and Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1438" documentId="13_ncr:1_{4AAA6B9C-80F3-4AB5-A3F7-F08D2B1D8BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAC8B969-F2ED-4131-8A3E-61FDA812043C}"/>
+  <xr:revisionPtr revIDLastSave="1638" documentId="13_ncr:1_{4AAA6B9C-80F3-4AB5-A3F7-F08D2B1D8BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2AD0F76-A167-4BBC-9A13-A6ED3DFE6623}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" firstSheet="1" activeTab="1" xr2:uid="{73A7591B-B5CA-4318-9343-9B3FDBEBCAB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Design and Material Specs" sheetId="2" r:id="rId1"/>
     <sheet name="WS Sizing Calculations" sheetId="1" r:id="rId2"/>
-    <sheet name="Sources" sheetId="8" r:id="rId3"/>
-    <sheet name="Equation Derivation" sheetId="3" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
+    <sheet name="Screw Calculations" sheetId="9" r:id="rId3"/>
+    <sheet name="Sources" sheetId="8" r:id="rId4"/>
+    <sheet name="Equation Derivation" sheetId="3" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="AmbientPressureAbsolute">'Design and Material Specs'!$N$14</definedName>
@@ -38,8 +39,7 @@
     <definedName name="WCID">Sheet1!$B$2</definedName>
     <definedName name="WPRT">Sheet1!$B$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="352">
   <si>
     <t>Desired Force Application</t>
   </si>
@@ -997,6 +997,147 @@
   </si>
   <si>
     <t>Frame Pin Reinforcement Thickness</t>
+  </si>
+  <si>
+    <t>ACME Loading Calcs</t>
+  </si>
+  <si>
+    <t>2.5D</t>
+  </si>
+  <si>
+    <t>Max height for loading on Threads</t>
+  </si>
+  <si>
+    <t>Major Diameter</t>
+  </si>
+  <si>
+    <t>Minor Diameter</t>
+  </si>
+  <si>
+    <t>% Loaded Threads</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>Yield Strength</t>
+  </si>
+  <si>
+    <t>C360 Brass</t>
+  </si>
+  <si>
+    <t>https://www.onlinemetals.com/en/product-guide/alloy/360</t>
+  </si>
+  <si>
+    <t>https://www.machiningdoctor.com/threadinfo-acme/?tid=5004</t>
+  </si>
+  <si>
+    <t>Shear Strength</t>
+  </si>
+  <si>
+    <t>Pitch</t>
+  </si>
+  <si>
+    <t>Area/Thread for Shear</t>
+  </si>
+  <si>
+    <t>Area/Thread for Pressure</t>
+  </si>
+  <si>
+    <t>in2/inh</t>
+  </si>
+  <si>
+    <t>threads/inh</t>
+  </si>
+  <si>
+    <t>Nut Height</t>
+  </si>
+  <si>
+    <t>Loaded Nut Height</t>
+  </si>
+  <si>
+    <t>Shear Loaded</t>
+  </si>
+  <si>
+    <t>inh</t>
+  </si>
+  <si>
+    <t>Number of engaged teeth</t>
+  </si>
+  <si>
+    <t>threads</t>
+  </si>
+  <si>
+    <t>Moment of inertia from spinning calc</t>
+  </si>
+  <si>
+    <t>Experience Screw Force</t>
+  </si>
+  <si>
+    <t># of Nuts per Arm</t>
+  </si>
+  <si>
+    <t>Radius of Screw to Center</t>
+  </si>
+  <si>
+    <t>Pitch Diameter</t>
+  </si>
+  <si>
+    <t>Anectdotes</t>
+  </si>
+  <si>
+    <t>(Ballpark)</t>
+  </si>
+  <si>
+    <t>Horizontal Loading Force</t>
+  </si>
+  <si>
+    <t>Radius of Pitch Diameter</t>
+  </si>
+  <si>
+    <t>Moment 1</t>
+  </si>
+  <si>
+    <t>Moment 2</t>
+  </si>
+  <si>
+    <t>Moment 3</t>
+  </si>
+  <si>
+    <t>Moment 4</t>
+  </si>
+  <si>
+    <t>Short Distance</t>
+  </si>
+  <si>
+    <t>Long Distance</t>
+  </si>
+  <si>
+    <t>in-lbf</t>
+  </si>
+  <si>
+    <t>ft-lbf</t>
+  </si>
+  <si>
+    <t>EQ Force at Frame</t>
+  </si>
+  <si>
+    <t>Vertical Force due to Reinforcement</t>
+  </si>
+  <si>
+    <t>lb/in2</t>
+  </si>
+  <si>
+    <t>in3</t>
+  </si>
+  <si>
+    <t>Area of Space</t>
+  </si>
+  <si>
+    <t>Cross Sectional Area of Beam</t>
+  </si>
+  <si>
+    <t>Stress Due to Tension</t>
   </si>
 </sst>
 </file>
@@ -1311,7 +1452,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1370,7 +1511,16 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1507,7 +1657,7 @@
       <xdr:col>19</xdr:col>
       <xdr:colOff>100222</xdr:colOff>
       <xdr:row>152</xdr:row>
-      <xdr:rowOff>174028</xdr:rowOff>
+      <xdr:rowOff>174029</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1532,6 +1682,50 @@
         <a:xfrm>
           <a:off x="14231826" y="17866906"/>
           <a:ext cx="8388217" cy="3279132"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>609781</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>58118</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>75492</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>104959</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D7CD7BA-F909-F305-E75C-696331FF6B68}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="2207208" y="1352209"/>
+          <a:ext cx="1484096" cy="4678949"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1863,7 +2057,7 @@
   <dimension ref="C2:Q55"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2266,10 +2460,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F7F30C8-AEF8-4367-97CA-93B5B12A08F4}">
-  <dimension ref="B4:Z182"/>
+  <dimension ref="B4:AK182"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="56" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="56" zoomScaleNormal="56" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2288,440 +2482,630 @@
     <col min="23" max="23" width="22.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" t="s">
+    <row r="4" spans="2:37" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="W4" s="46" t="s">
         <v>294</v>
       </c>
-      <c r="C4" t="s">
+      <c r="X4" s="46" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="C5" s="31" t="s">
+      <c r="Y4" s="46"/>
+      <c r="Z4" s="46"/>
+      <c r="AA4" s="46"/>
+      <c r="AB4" s="46"/>
+      <c r="AC4" s="46"/>
+      <c r="AD4" s="46"/>
+      <c r="AE4" s="46"/>
+      <c r="AF4" s="46"/>
+      <c r="AG4" s="46"/>
+      <c r="AH4" s="46"/>
+      <c r="AI4" s="46"/>
+      <c r="AJ4" s="46"/>
+      <c r="AK4" s="46"/>
+    </row>
+    <row r="5" spans="2:37" x14ac:dyDescent="0.45">
+      <c r="W5" s="46"/>
+      <c r="X5" s="47" t="s">
         <v>270</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="33"/>
-      <c r="H5" s="31" t="s">
+      <c r="Y5" s="48"/>
+      <c r="Z5" s="48"/>
+      <c r="AA5" s="49"/>
+      <c r="AB5" s="46"/>
+      <c r="AC5" s="47" t="s">
         <v>267</v>
       </c>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="33"/>
-      <c r="M5" s="31" t="s">
+      <c r="AD5" s="48"/>
+      <c r="AE5" s="48"/>
+      <c r="AF5" s="49"/>
+      <c r="AG5" s="46"/>
+      <c r="AH5" s="47" t="s">
         <v>301</v>
       </c>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="33"/>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="C6" s="10"/>
-      <c r="D6" s="5" t="s">
+      <c r="AI5" s="48"/>
+      <c r="AJ5" s="48"/>
+      <c r="AK5" s="49"/>
+    </row>
+    <row r="6" spans="2:37" x14ac:dyDescent="0.45">
+      <c r="W6" s="46"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="Z6" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="AA6" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="5" t="s">
+      <c r="AB6" s="46"/>
+      <c r="AC6" s="13"/>
+      <c r="AD6" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="AE6" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="AF6" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="M6" s="10"/>
-      <c r="N6" s="5" t="s">
+      <c r="AG6" s="46"/>
+      <c r="AH6" s="13"/>
+      <c r="AI6" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="O6" s="5" t="s">
+      <c r="AJ6" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="P6" s="11" t="s">
+      <c r="AK6" s="22" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="C7" s="10"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="11"/>
-      <c r="H7" s="10" t="s">
+    <row r="7" spans="2:37" x14ac:dyDescent="0.45">
+      <c r="W7" s="46"/>
+      <c r="X7" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y7" s="21">
+        <v>700</v>
+      </c>
+      <c r="Z7" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA7" s="22"/>
+      <c r="AB7" s="46"/>
+      <c r="AC7" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="I7" s="5">
+      <c r="AD7" s="21">
         <v>0.5</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="AE7" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="K7" s="11"/>
-      <c r="M7" s="10" t="s">
+      <c r="AF7" s="22"/>
+      <c r="AG7" s="46"/>
+      <c r="AH7" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="N7" s="5">
-        <f>D8</f>
+      <c r="AI7" s="21">
+        <f>Y7</f>
         <v>700</v>
       </c>
-      <c r="O7" s="5" t="s">
+      <c r="AJ7" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="P7" s="11"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="C8" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="D8" s="5">
-        <v>700</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="AK7" s="22"/>
+    </row>
+    <row r="8" spans="2:37" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>292</v>
+      </c>
+      <c r="W8" s="46"/>
+      <c r="X8" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y8" s="21">
+        <v>8.5</v>
+      </c>
+      <c r="Z8" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA8" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="AB8" s="46"/>
+      <c r="AC8" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="AD8" s="21">
+        <v>2</v>
+      </c>
+      <c r="AE8" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF8" s="22"/>
+      <c r="AG8" s="46"/>
+      <c r="AH8" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="AI8" s="21">
+        <f>AD9</f>
+        <v>1</v>
+      </c>
+      <c r="AJ8" s="21"/>
+      <c r="AK8" s="22"/>
+    </row>
+    <row r="9" spans="2:37" x14ac:dyDescent="0.45">
+      <c r="C9" t="s">
+        <v>349</v>
+      </c>
+      <c r="W9" s="46"/>
+      <c r="X9" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y9" s="21">
+        <f>Y7/2</f>
+        <v>350</v>
+      </c>
+      <c r="Z9" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="H8" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="I8" s="5">
-        <v>2</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="11"/>
-      <c r="M8" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="N8" s="5">
-        <f>I9</f>
+      <c r="AA9" s="22"/>
+      <c r="AB9" s="46"/>
+      <c r="AC9" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="AD9" s="21">
+        <f>AD7*AD8</f>
         <v>1</v>
       </c>
-      <c r="O8" s="5"/>
-      <c r="P8" s="11"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="C9" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="D9" s="5">
-        <v>8</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="AE9" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="F9" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="I9" s="5">
-        <f>I7*I8</f>
-        <v>1</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="K9" s="11"/>
-      <c r="M9" s="10" t="s">
+      <c r="AF9" s="22"/>
+      <c r="AG9" s="46"/>
+      <c r="AH9" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="N9" s="5">
+      <c r="AI9" s="21">
         <f>SS303FatigueStrength</f>
         <v>34800</v>
       </c>
-      <c r="O9" s="5" t="s">
+      <c r="AJ9" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="P9" s="11"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="C10" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="D10" s="5">
-        <f>D8/2</f>
-        <v>350</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F10" s="11"/>
-      <c r="H10" s="10" t="s">
+      <c r="AK9" s="22"/>
+    </row>
+    <row r="10" spans="2:37" x14ac:dyDescent="0.45">
+      <c r="D10">
+        <v>0.125</v>
+      </c>
+      <c r="W10" s="46"/>
+      <c r="X10" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y10" s="21">
+        <f>Y9*Y8/2</f>
+        <v>1487.5</v>
+      </c>
+      <c r="Z10" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA10" s="22"/>
+      <c r="AB10" s="46"/>
+      <c r="AC10" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="I10" s="5">
-        <f>SQRT((6*D14)/I9)</f>
-        <v>0.69480833377965112</v>
-      </c>
-      <c r="J10" s="5" t="s">
+      <c r="AD10" s="21">
+        <f>SQRT((6*Y13)/AD9)</f>
+        <v>0.71619203743322835</v>
+      </c>
+      <c r="AE10" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="K10" s="11"/>
-      <c r="M10" s="10" t="s">
+      <c r="AF10" s="22"/>
+      <c r="AG10" s="46"/>
+      <c r="AH10" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="N10" s="5">
+      <c r="AI10" s="21">
         <v>5</v>
       </c>
-      <c r="O10" s="5"/>
-      <c r="P10" s="11"/>
-    </row>
-    <row r="11" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C11" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="D11" s="5">
-        <f>D10*D9/2</f>
-        <v>1400</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="F11" s="11"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="30"/>
-      <c r="M11" s="10" t="s">
+      <c r="AJ10" s="21"/>
+      <c r="AK10" s="22"/>
+    </row>
+    <row r="11" spans="2:37" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D11">
+        <v>8.5</v>
+      </c>
+      <c r="W11" s="46"/>
+      <c r="X11" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y11" s="21">
+        <v>2</v>
+      </c>
+      <c r="Z11" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA11" s="22"/>
+      <c r="AB11" s="46"/>
+      <c r="AC11" s="50"/>
+      <c r="AD11" s="51"/>
+      <c r="AE11" s="51"/>
+      <c r="AF11" s="52"/>
+      <c r="AG11" s="46"/>
+      <c r="AH11" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="N11" s="5">
-        <f>N7*N10*FS/(N9*N8)</f>
+      <c r="AI11" s="21">
+        <f>AI7*AI10*FS/(AI9*AI8)</f>
         <v>0.20114942528735633</v>
       </c>
-      <c r="O11" s="5"/>
-      <c r="P11" s="11"/>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="C12" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="5">
-        <v>2</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="11"/>
-      <c r="M12" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="N12" s="5">
-        <f>2*SQRT((N7*FS/I8)/N9)</f>
-        <v>0.2836543144655877</v>
-      </c>
-      <c r="O12" s="5"/>
-      <c r="P12" s="11"/>
-    </row>
-    <row r="13" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C13" s="10" t="s">
+      <c r="AJ11" s="21"/>
+      <c r="AK11" s="22"/>
+    </row>
+    <row r="12" spans="2:37" x14ac:dyDescent="0.45">
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="W12" s="46"/>
+      <c r="X12" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="D13" s="5">
+      <c r="Y12" s="21">
         <f>SS303FatigueStrength</f>
         <v>34800</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="11"/>
-      <c r="M13" s="23" t="s">
+      <c r="Z12" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="AA12" s="22"/>
+      <c r="AB12" s="46"/>
+      <c r="AC12" s="46"/>
+      <c r="AD12" s="46"/>
+      <c r="AE12" s="46"/>
+      <c r="AF12" s="46"/>
+      <c r="AG12" s="46"/>
+      <c r="AH12" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="AI12" s="21">
+        <f>2*SQRT((AI7*FS/AD8)/AI9)</f>
+        <v>0.2836543144655877</v>
+      </c>
+      <c r="AJ12" s="21"/>
+      <c r="AK12" s="22"/>
+    </row>
+    <row r="13" spans="2:37" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D13">
+        <f>D12*D10*2</f>
+        <v>0.25</v>
+      </c>
+      <c r="W13" s="46"/>
+      <c r="X13" s="50" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y13" s="51">
+        <f>Y10*Y11/Y12</f>
+        <v>8.5488505747126436E-2</v>
+      </c>
+      <c r="Z13" s="51" t="s">
+        <v>348</v>
+      </c>
+      <c r="AA13" s="52"/>
+      <c r="AB13" s="46"/>
+      <c r="AC13" s="46"/>
+      <c r="AD13" s="46"/>
+      <c r="AE13" s="46"/>
+      <c r="AF13" s="46"/>
+      <c r="AG13" s="46"/>
+      <c r="AH13" s="50" t="s">
         <v>177</v>
       </c>
-      <c r="N13" s="34">
+      <c r="AI13" s="51">
         <f>3/8</f>
         <v>0.375</v>
       </c>
-      <c r="O13" s="34"/>
-      <c r="P13" s="30"/>
-    </row>
-    <row r="14" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C14" s="23" t="s">
-        <v>240</v>
-      </c>
-      <c r="D14" s="34">
-        <f>D11*D12/D13</f>
-        <v>8.0459770114942528E-2</v>
-      </c>
-      <c r="E14" s="34"/>
-      <c r="F14" s="30"/>
-    </row>
-    <row r="16" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="AJ13" s="51"/>
+      <c r="AK13" s="52"/>
+    </row>
+    <row r="14" spans="2:37" x14ac:dyDescent="0.45">
+      <c r="D14">
+        <f>D11*D10</f>
+        <v>1.0625</v>
+      </c>
+      <c r="W14" s="46"/>
+      <c r="X14" s="46"/>
+      <c r="Y14" s="46"/>
+      <c r="Z14" s="46"/>
+      <c r="AA14" s="46"/>
+      <c r="AB14" s="46"/>
+      <c r="AC14" s="46"/>
+      <c r="AD14" s="46"/>
+      <c r="AE14" s="46"/>
+      <c r="AF14" s="46"/>
+      <c r="AG14" s="46"/>
+      <c r="AH14" s="46"/>
+      <c r="AI14" s="46"/>
+      <c r="AJ14" s="46"/>
+      <c r="AK14" s="46"/>
+    </row>
+    <row r="15" spans="2:37" x14ac:dyDescent="0.45">
+      <c r="C15" t="s">
+        <v>350</v>
+      </c>
+      <c r="D15">
+        <f>D13+D14</f>
+        <v>1.3125</v>
+      </c>
+      <c r="W15" s="46"/>
+      <c r="X15" s="46"/>
+      <c r="Y15" s="46"/>
+      <c r="Z15" s="46"/>
+      <c r="AA15" s="46"/>
+      <c r="AB15" s="46"/>
+      <c r="AC15" s="46"/>
+      <c r="AD15" s="46"/>
+      <c r="AE15" s="46"/>
+      <c r="AF15" s="46"/>
+      <c r="AG15" s="46"/>
+      <c r="AH15" s="46"/>
+      <c r="AI15" s="46"/>
+      <c r="AJ15" s="46"/>
+      <c r="AK15" s="46"/>
+    </row>
+    <row r="16" spans="2:37" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C16" t="s">
+        <v>351</v>
+      </c>
+      <c r="W16" s="46"/>
+      <c r="X16" s="46" t="s">
         <v>298</v>
       </c>
-      <c r="H16" t="s">
+      <c r="Y16" s="46"/>
+      <c r="Z16" s="46"/>
+      <c r="AA16" s="46"/>
+      <c r="AB16" s="46"/>
+      <c r="AC16" s="46" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="C17" s="31" t="s">
+      <c r="AD16" s="46"/>
+      <c r="AE16" s="46"/>
+      <c r="AF16" s="46"/>
+      <c r="AG16" s="46"/>
+      <c r="AH16" s="46"/>
+      <c r="AI16" s="46"/>
+      <c r="AJ16" s="46"/>
+      <c r="AK16" s="46"/>
+    </row>
+    <row r="17" spans="2:37" x14ac:dyDescent="0.45">
+      <c r="W17" s="46"/>
+      <c r="X17" s="47" t="s">
         <v>299</v>
       </c>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="33"/>
-      <c r="H17" s="31" t="s">
+      <c r="Y17" s="48"/>
+      <c r="Z17" s="48"/>
+      <c r="AA17" s="49"/>
+      <c r="AB17" s="46"/>
+      <c r="AC17" s="47" t="s">
         <v>299</v>
       </c>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="33"/>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="C18" s="10"/>
-      <c r="D18" s="5" t="s">
+      <c r="AD17" s="48"/>
+      <c r="AE17" s="48"/>
+      <c r="AF17" s="49"/>
+      <c r="AG17" s="46"/>
+      <c r="AH17" s="46"/>
+      <c r="AI17" s="46"/>
+      <c r="AJ17" s="46"/>
+      <c r="AK17" s="46"/>
+    </row>
+    <row r="18" spans="2:37" x14ac:dyDescent="0.45">
+      <c r="W18" s="46"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="Z18" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="AA18" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="H18" s="10"/>
-      <c r="I18" s="5" t="s">
+      <c r="AB18" s="46"/>
+      <c r="AC18" s="13"/>
+      <c r="AD18" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="J18" s="5" t="s">
+      <c r="AE18" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="K18" s="11" t="s">
+      <c r="AF18" s="22" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="C19" s="10" t="s">
+      <c r="AG18" s="46"/>
+      <c r="AH18" s="46"/>
+      <c r="AI18" s="46"/>
+      <c r="AJ18" s="46"/>
+      <c r="AK18" s="46"/>
+    </row>
+    <row r="19" spans="2:37" x14ac:dyDescent="0.45">
+      <c r="W19" s="46"/>
+      <c r="X19" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="D19" s="5">
+      <c r="Y19" s="21">
         <f>0.125</f>
         <v>0.125</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="Z19" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="F19" s="11"/>
-      <c r="H19" s="10" t="s">
+      <c r="AA19" s="22"/>
+      <c r="AB19" s="46"/>
+      <c r="AC19" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="I19" s="5">
+      <c r="AD19" s="21">
         <f>0.125</f>
         <v>0.125</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="AE19" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="K19" s="11"/>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="C20" s="10" t="s">
+      <c r="AF19" s="22"/>
+      <c r="AG19" s="46"/>
+      <c r="AH19" s="46"/>
+      <c r="AI19" s="46"/>
+      <c r="AJ19" s="46"/>
+      <c r="AK19" s="46"/>
+    </row>
+    <row r="20" spans="2:37" x14ac:dyDescent="0.45">
+      <c r="W20" s="46"/>
+      <c r="X20" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="D20" s="5">
+      <c r="Y20" s="21">
         <f>SS303FatigueStrength</f>
         <v>34800</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="Z20" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="11"/>
-      <c r="H20" s="10" t="s">
+      <c r="AA20" s="22"/>
+      <c r="AB20" s="46"/>
+      <c r="AC20" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="I20" s="5">
+      <c r="AD20" s="21">
         <f>SS303FatigueStrength</f>
         <v>34800</v>
       </c>
-      <c r="J20" s="5" t="s">
+      <c r="AE20" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="K20" s="11"/>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="C21" s="10" t="s">
+      <c r="AF20" s="22"/>
+      <c r="AG20" s="46"/>
+      <c r="AH20" s="46"/>
+      <c r="AI20" s="46"/>
+      <c r="AJ20" s="46"/>
+      <c r="AK20" s="46"/>
+    </row>
+    <row r="21" spans="2:37" x14ac:dyDescent="0.45">
+      <c r="W21" s="46"/>
+      <c r="X21" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="5">
+      <c r="Y21" s="21">
         <v>3</v>
       </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="11"/>
-      <c r="H21" s="10" t="s">
+      <c r="Z21" s="21"/>
+      <c r="AA21" s="22"/>
+      <c r="AB21" s="46"/>
+      <c r="AC21" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I21" s="5">
+      <c r="AD21" s="21">
         <v>3</v>
       </c>
-      <c r="J21" s="5"/>
-      <c r="K21" s="11"/>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="C22" s="10" t="s">
+      <c r="AE21" s="21"/>
+      <c r="AF21" s="22"/>
+      <c r="AG21" s="46"/>
+      <c r="AH21" s="46"/>
+      <c r="AI21" s="46"/>
+      <c r="AJ21" s="46"/>
+      <c r="AK21" s="46"/>
+    </row>
+    <row r="22" spans="2:37" x14ac:dyDescent="0.45">
+      <c r="W22" s="46"/>
+      <c r="X22" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="D22" s="5">
-        <f>AppliedForceNormal/2*D21/(D20*D19)</f>
+      <c r="Y22" s="21">
+        <f>AppliedForceNormal/2*Y21/(Y20*Y19)</f>
         <v>0.2413793103448276</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="Z22" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="F22" s="11"/>
-      <c r="H22" s="10" t="s">
+      <c r="AA22" s="22"/>
+      <c r="AB22" s="46"/>
+      <c r="AC22" s="13" t="s">
         <v>302</v>
       </c>
-      <c r="I22" s="5">
-        <f>I21*AppliedForceNormal*0.5/(2*I19*I20)</f>
+      <c r="AD22" s="21">
+        <f>AD21*AppliedForceNormal*0.5/(2*AD19*AD20)</f>
         <v>0.1206896551724138</v>
       </c>
-      <c r="J22" s="5" t="s">
+      <c r="AE22" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="K22" s="11"/>
-    </row>
-    <row r="23" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C23" s="23" t="s">
+      <c r="AF22" s="22"/>
+      <c r="AG22" s="46"/>
+      <c r="AH22" s="46"/>
+      <c r="AI22" s="46"/>
+      <c r="AJ22" s="46"/>
+      <c r="AK22" s="46"/>
+    </row>
+    <row r="23" spans="2:37" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="W23" s="46"/>
+      <c r="X23" s="50" t="s">
         <v>177</v>
       </c>
-      <c r="D23" s="34">
+      <c r="Y23" s="51">
         <v>0.375</v>
       </c>
-      <c r="E23" s="34" t="s">
+      <c r="Z23" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="F23" s="30"/>
-      <c r="H23" s="23" t="s">
+      <c r="AA23" s="52"/>
+      <c r="AB23" s="46"/>
+      <c r="AC23" s="50" t="s">
         <v>303</v>
       </c>
-      <c r="I23" s="34">
+      <c r="AD23" s="51">
         <v>0.25</v>
       </c>
-      <c r="J23" s="34" t="s">
+      <c r="AE23" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="K23" s="30"/>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="H24" s="44" t="s">
+      <c r="AF23" s="52"/>
+      <c r="AG23" s="46"/>
+      <c r="AH23" s="46"/>
+      <c r="AI23" s="46"/>
+      <c r="AJ23" s="46"/>
+      <c r="AK23" s="46"/>
+    </row>
+    <row r="24" spans="2:37" x14ac:dyDescent="0.45">
+      <c r="W24" s="46"/>
+      <c r="X24" s="46"/>
+      <c r="Y24" s="46"/>
+      <c r="Z24" s="46"/>
+      <c r="AA24" s="46"/>
+      <c r="AB24" s="46"/>
+      <c r="AC24" s="53" t="s">
         <v>304</v>
       </c>
-      <c r="I24">
-        <f>D23+(2*I23)</f>
+      <c r="AD24" s="46">
+        <f>Y23+(2*AD23)</f>
         <v>0.875</v>
       </c>
-    </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="AE24" s="46"/>
+      <c r="AF24" s="46"/>
+      <c r="AG24" s="46"/>
+      <c r="AH24" s="46"/>
+      <c r="AI24" s="46"/>
+      <c r="AJ24" s="46"/>
+      <c r="AK24" s="46"/>
+    </row>
+    <row r="28" spans="2:37" x14ac:dyDescent="0.45">
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:37" x14ac:dyDescent="0.45">
       <c r="C29" s="3"/>
     </row>
-    <row r="30" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:37" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B30" t="s">
         <v>293</v>
       </c>
@@ -2729,7 +3113,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:37" x14ac:dyDescent="0.45">
       <c r="C31" s="31" t="s">
         <v>269</v>
       </c>
@@ -2749,7 +3133,7 @@
       <c r="O31" s="32"/>
       <c r="P31" s="33"/>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:37" x14ac:dyDescent="0.45">
       <c r="C32" s="10"/>
       <c r="D32" s="5" t="s">
         <v>14</v>
@@ -5030,6 +5414,391 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3C7E393-217F-47B1-AEB5-314CED4C9834}">
+  <dimension ref="C2:L24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="4" max="4" width="23.59765625" customWidth="1"/>
+    <col min="5" max="5" width="10.06640625" customWidth="1"/>
+    <col min="10" max="10" width="29.53125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="J2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="3" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="D3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="4" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" t="s">
+        <v>306</v>
+      </c>
+      <c r="K4" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="5" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="D5" t="s">
+        <v>329</v>
+      </c>
+      <c r="E5">
+        <f>AppliedForceNormal/E6</f>
+        <v>350</v>
+      </c>
+      <c r="J5" s="44">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K5" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="6" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="D6" t="s">
+        <v>330</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="D7" t="s">
+        <v>317</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="8" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="D8" t="s">
+        <v>308</v>
+      </c>
+      <c r="E8">
+        <v>0.5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C9" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="D9" t="s">
+        <v>309</v>
+      </c>
+      <c r="E9">
+        <v>0.4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C10" s="3"/>
+      <c r="D10" t="s">
+        <v>332</v>
+      </c>
+      <c r="E10">
+        <f>(E9+E8)/2</f>
+        <v>0.45</v>
+      </c>
+      <c r="F10" t="s">
+        <v>71</v>
+      </c>
+      <c r="J10" s="45" t="s">
+        <v>334</v>
+      </c>
+      <c r="K10" s="45" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="11" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="D11" t="s">
+        <v>311</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>71</v>
+      </c>
+      <c r="J11" s="45" t="s">
+        <v>335</v>
+      </c>
+      <c r="K11" s="45">
+        <f>'WS Sizing Calculations'!N115</f>
+        <v>255.37910433727859</v>
+      </c>
+      <c r="L11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C12" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E12" t="s">
+        <v>313</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" t="s">
+        <v>331</v>
+      </c>
+      <c r="K12">
+        <v>3.73</v>
+      </c>
+      <c r="L12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="D13" t="s">
+        <v>312</v>
+      </c>
+      <c r="E13">
+        <v>18100</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" t="s">
+        <v>336</v>
+      </c>
+      <c r="K13">
+        <f>E10/2</f>
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="L13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="D14" t="s">
+        <v>316</v>
+      </c>
+      <c r="E14">
+        <v>27700</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" t="s">
+        <v>341</v>
+      </c>
+      <c r="K14">
+        <f>K12-K13</f>
+        <v>3.5049999999999999</v>
+      </c>
+      <c r="L14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="D15" t="s">
+        <v>322</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>325</v>
+      </c>
+      <c r="J15" t="s">
+        <v>342</v>
+      </c>
+      <c r="K15">
+        <f>K12+K13</f>
+        <v>3.9550000000000001</v>
+      </c>
+      <c r="L15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="D16" t="s">
+        <v>323</v>
+      </c>
+      <c r="E16">
+        <f>E15*J5</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F16" t="s">
+        <v>325</v>
+      </c>
+      <c r="J16" t="s">
+        <v>337</v>
+      </c>
+      <c r="K16">
+        <f>($K$11*$K$15)</f>
+        <v>1010.0243576539368</v>
+      </c>
+      <c r="L16" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="17" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="D17" t="s">
+        <v>326</v>
+      </c>
+      <c r="E17">
+        <f>E7*E16</f>
+        <v>3.333333333333333</v>
+      </c>
+      <c r="F17" t="s">
+        <v>327</v>
+      </c>
+      <c r="J17" t="s">
+        <v>338</v>
+      </c>
+      <c r="K17">
+        <f>(-1*$K$11*-1*$K$15)</f>
+        <v>1010.0243576539368</v>
+      </c>
+      <c r="L17" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="18" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="J18" t="s">
+        <v>339</v>
+      </c>
+      <c r="K18">
+        <f>($K$11*-1*$K$14)</f>
+        <v>-895.10376070216148</v>
+      </c>
+      <c r="L18" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="19" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="D19" t="s">
+        <v>318</v>
+      </c>
+      <c r="E19">
+        <f>PI()*E8*(E7/2)</f>
+        <v>7.8539816339744828</v>
+      </c>
+      <c r="F19" t="s">
+        <v>320</v>
+      </c>
+      <c r="J19" t="s">
+        <v>340</v>
+      </c>
+      <c r="K19">
+        <f>(-1*$K$11*$K$14)</f>
+        <v>-895.10376070216148</v>
+      </c>
+      <c r="L19" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="20" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="D20" t="s">
+        <v>319</v>
+      </c>
+      <c r="E20">
+        <f>((E8/2)^2*PI())-((E9/2)^2*PI())</f>
+        <v>7.0685834705770334E-2</v>
+      </c>
+      <c r="F20" t="s">
+        <v>162</v>
+      </c>
+      <c r="K20">
+        <f>SUM(K16:K19)</f>
+        <v>229.84119390355067</v>
+      </c>
+      <c r="L20" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="21" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="K21">
+        <f>K20/12</f>
+        <v>19.153432825295891</v>
+      </c>
+      <c r="L21" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="22" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="D22" t="s">
+        <v>324</v>
+      </c>
+      <c r="E22">
+        <f>E19*E16</f>
+        <v>2.617993877991494</v>
+      </c>
+    </row>
+    <row r="23" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="E23">
+        <f>E5/E22</f>
+        <v>133.69015219719211</v>
+      </c>
+      <c r="J23" t="s">
+        <v>345</v>
+      </c>
+      <c r="K23">
+        <f>K20/MachineWidth</f>
+        <v>27.040140459241258</v>
+      </c>
+      <c r="L23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="E24">
+        <f>E5/E20</f>
+        <v>4951.4871184145222</v>
+      </c>
+      <c r="J24" t="s">
+        <v>346</v>
+      </c>
+      <c r="K24">
+        <f>K23*MachineHeight/MachineWidth</f>
+        <v>68.236589747144109</v>
+      </c>
+      <c r="L24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C9" r:id="rId1" xr:uid="{5A4A44F5-703C-4291-8712-8D5C92DA5DC0}"/>
+    <hyperlink ref="C12" r:id="rId2" xr:uid="{E6408F74-ED19-444E-8B52-BB0148BE4662}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCF40096-3C22-48AC-994A-0768CD3A5344}">
   <dimension ref="A5:C19"/>
   <sheetViews>
@@ -5155,7 +5924,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B5C0A57-75E1-4C82-BEEC-8882CA08F993}">
   <dimension ref="C6:D22"/>
   <sheetViews>
@@ -5254,7 +6023,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA2221C-5C0B-46B0-85B0-C1695986BBCC}">
   <dimension ref="A1:F14"/>
   <sheetViews>

--- a/System Design and Documentation/Washing Machine Design Calculations.xlsx
+++ b/System Design and Documentation/Washing Machine Design Calculations.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dcdf7eb514dfaeec/Projects/Microgravity-Press-Washing-Machine/System Design and Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1638" documentId="13_ncr:1_{4AAA6B9C-80F3-4AB5-A3F7-F08D2B1D8BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2AD0F76-A167-4BBC-9A13-A6ED3DFE6623}"/>
+  <xr:revisionPtr revIDLastSave="1720" documentId="13_ncr:1_{4AAA6B9C-80F3-4AB5-A3F7-F08D2B1D8BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94A95C2E-6360-4CD9-AC68-BEE947E29BD9}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" firstSheet="1" activeTab="1" xr2:uid="{73A7591B-B5CA-4318-9343-9B3FDBEBCAB4}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{73A7591B-B5CA-4318-9343-9B3FDBEBCAB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Design and Material Specs" sheetId="2" r:id="rId1"/>
-    <sheet name="WS Sizing Calculations" sheetId="1" r:id="rId2"/>
-    <sheet name="Screw Calculations" sheetId="9" r:id="rId3"/>
-    <sheet name="Sources" sheetId="8" r:id="rId4"/>
-    <sheet name="Equation Derivation" sheetId="3" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
+    <sheet name="Motor Sizing Calcs" sheetId="1" r:id="rId2"/>
+    <sheet name="Piston Calcs" sheetId="11" r:id="rId3"/>
+    <sheet name="Frame Calcs" sheetId="10" r:id="rId4"/>
+    <sheet name="Screw Calculations" sheetId="9" r:id="rId5"/>
+    <sheet name="Piston Travel Calcs" sheetId="6" r:id="rId6"/>
+    <sheet name="Sources" sheetId="8" r:id="rId7"/>
+    <sheet name="Equation Derivation" sheetId="3" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="AmbientPressureAbsolute">'Design and Material Specs'!$N$14</definedName>
@@ -29,17 +31,17 @@
     <definedName name="MachineHeight">'Design and Material Specs'!$D$12</definedName>
     <definedName name="MachineLength">'Design and Material Specs'!$D$14</definedName>
     <definedName name="MachineWidth">'Design and Material Specs'!$D$13</definedName>
-    <definedName name="MMH">Sheet1!$B$3</definedName>
+    <definedName name="MMH">'Piston Travel Calcs'!$B$3</definedName>
     <definedName name="PistonSpeed">'Design and Material Specs'!$D$6</definedName>
-    <definedName name="PTIH">Sheet1!$B$4</definedName>
+    <definedName name="PTIH">'Piston Travel Calcs'!$B$4</definedName>
     <definedName name="SS303FatigueStrength">'Design and Material Specs'!$N$4</definedName>
     <definedName name="SS303YieldStrength">'Design and Material Specs'!$O$4</definedName>
     <definedName name="SS303YoungsModulus">'Design and Material Specs'!$P$4</definedName>
     <definedName name="WashChamberDiameter">'Design and Material Specs'!$D$10</definedName>
-    <definedName name="WCID">Sheet1!$B$2</definedName>
-    <definedName name="WPRT">Sheet1!$B$1</definedName>
+    <definedName name="WCID">'Piston Travel Calcs'!$B$2</definedName>
+    <definedName name="WPRT">'Piston Travel Calcs'!$B$1</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcCompleted="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -82,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="346">
   <si>
     <t>Desired Force Application</t>
   </si>
@@ -888,15 +890,9 @@
     <t>Hatch Beam Dimensions</t>
   </si>
   <si>
-    <t>Bottom Frame Calculations</t>
-  </si>
-  <si>
     <t>Hatch Frame Required Moment of Inertia</t>
   </si>
   <si>
-    <t>Bottom Frame Required Moment of Inertia</t>
-  </si>
-  <si>
     <t>Assumed O-Ring Crush Force for Sealing</t>
   </si>
   <si>
@@ -921,9 +917,6 @@
     <t>Reservior Piston</t>
   </si>
   <si>
-    <t>Bearing Thickness</t>
-  </si>
-  <si>
     <t>total</t>
   </si>
   <si>
@@ -945,9 +938,6 @@
     <t>Reservior Piston Rod Length</t>
   </si>
   <si>
-    <t>Total Machine Height Check</t>
-  </si>
-  <si>
     <t>Rod Diameter at O Ring</t>
   </si>
   <si>
@@ -957,18 +947,12 @@
     <t>Stress at Location</t>
   </si>
   <si>
-    <t>SuperStructure Pin</t>
-  </si>
-  <si>
     <t>SuperStructure</t>
   </si>
   <si>
     <t>Access hatch and conduit</t>
   </si>
   <si>
-    <t>Superstructure</t>
-  </si>
-  <si>
     <t>Known based on component sizing</t>
   </si>
   <si>
@@ -978,9 +962,6 @@
     <t>Thickness of Frame Component</t>
   </si>
   <si>
-    <t>Frame Pin and Frame Interface</t>
-  </si>
-  <si>
     <t>Frame Pin Diameter</t>
   </si>
   <si>
@@ -1138,6 +1119,9 @@
   </si>
   <si>
     <t>Stress Due to Tension</t>
+  </si>
+  <si>
+    <t>Top Bearing Thickness</t>
   </si>
 </sst>
 </file>
@@ -1604,15 +1588,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>572671</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>94735</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>467471</xdr:colOff>
-      <xdr:row>154</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>48258</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1648,16 +1632,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>624683</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>48352</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>100222</xdr:colOff>
-      <xdr:row>152</xdr:row>
-      <xdr:rowOff>174029</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>100219</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>174028</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1690,25 +1674,25 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>609781</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>58118</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>75492</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>104959</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="4678949" cy="1484096"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D7CD7BA-F909-F305-E75C-696331FF6B68}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B84E5AE-7496-4690-BB9E-CD18C7C0FD5E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1717,14 +1701,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="2207208" y="1352209"/>
+          <a:off x="2207208" y="1375341"/>
           <a:ext cx="1484096" cy="4678949"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1733,7 +1717,7 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2057,7 +2041,7 @@
   <dimension ref="C2:Q55"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2127,14 +2111,14 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="E5" t="s">
         <v>4</v>
       </c>
       <c r="F5">
         <f>AppliedForceNormal*lfb2N</f>
-        <v>3113.7554000000005</v>
+        <v>4448.2220000000007</v>
       </c>
       <c r="M5" t="s">
         <v>203</v>
@@ -2460,35 +2444,137 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F7F30C8-AEF8-4367-97CA-93B5B12A08F4}">
-  <dimension ref="B4:AK182"/>
+  <dimension ref="A1:AI56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="56" zoomScaleNormal="56" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="23.53125" customWidth="1"/>
-    <col min="3" max="3" width="40.33203125" customWidth="1"/>
-    <col min="4" max="4" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.1328125" customWidth="1"/>
-    <col min="8" max="8" width="35.796875" customWidth="1"/>
-    <col min="10" max="10" width="5.6640625" customWidth="1"/>
-    <col min="12" max="12" width="12.265625" customWidth="1"/>
-    <col min="13" max="13" width="39.1328125" customWidth="1"/>
-    <col min="15" max="15" width="5.86328125" customWidth="1"/>
-    <col min="18" max="18" width="31.19921875" customWidth="1"/>
-    <col min="20" max="20" width="8.73046875" customWidth="1"/>
-    <col min="23" max="23" width="22.796875" customWidth="1"/>
+    <col min="1" max="1" width="40.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.1328125" customWidth="1"/>
+    <col min="6" max="6" width="35.796875" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" customWidth="1"/>
+    <col min="10" max="10" width="12.265625" customWidth="1"/>
+    <col min="11" max="11" width="39.1328125" customWidth="1"/>
+    <col min="13" max="13" width="5.86328125" customWidth="1"/>
+    <col min="16" max="16" width="31.19921875" customWidth="1"/>
+    <col min="18" max="18" width="8.73046875" customWidth="1"/>
+    <col min="21" max="21" width="22.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:37" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="W4" s="46" t="s">
-        <v>294</v>
-      </c>
-      <c r="X4" s="46" t="s">
-        <v>268</v>
-      </c>
+    <row r="1" spans="1:35" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A2" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="26"/>
+      <c r="F2" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="40"/>
+      <c r="K2" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="P2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A3" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="11"/>
+      <c r="F3" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>14</v>
+      </c>
+      <c r="R3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="11"/>
+      <c r="F4" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="11"/>
+      <c r="K4" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="L4" s="8">
+        <f>B9</f>
+        <v>500</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="N4" s="5"/>
+      <c r="P4" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q4" s="1">
+        <f>L5</f>
+        <v>562.73483366177425</v>
+      </c>
+      <c r="R4" t="s">
+        <v>103</v>
+      </c>
+      <c r="S4" t="s">
+        <v>266</v>
+      </c>
+      <c r="W4" s="46"/>
+      <c r="X4" s="46"/>
       <c r="Y4" s="46"/>
       <c r="Z4" s="46"/>
       <c r="AA4" s="46"/>
@@ -2500,322 +2586,552 @@
       <c r="AG4" s="46"/>
       <c r="AH4" s="46"/>
       <c r="AI4" s="46"/>
-      <c r="AJ4" s="46"/>
-      <c r="AK4" s="46"/>
-    </row>
-    <row r="5" spans="2:37" x14ac:dyDescent="0.45">
-      <c r="W5" s="46"/>
-      <c r="X5" s="47" t="s">
-        <v>270</v>
-      </c>
-      <c r="Y5" s="48"/>
-      <c r="Z5" s="48"/>
-      <c r="AA5" s="49"/>
-      <c r="AB5" s="46"/>
-      <c r="AC5" s="47" t="s">
-        <v>267</v>
-      </c>
-      <c r="AD5" s="48"/>
-      <c r="AE5" s="48"/>
-      <c r="AF5" s="49"/>
-      <c r="AG5" s="46"/>
-      <c r="AH5" s="47" t="s">
-        <v>301</v>
-      </c>
-      <c r="AI5" s="48"/>
-      <c r="AJ5" s="48"/>
-      <c r="AK5" s="49"/>
-    </row>
-    <row r="6" spans="2:37" x14ac:dyDescent="0.45">
-      <c r="W6" s="46"/>
-      <c r="X6" s="13"/>
-      <c r="Y6" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z6" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA6" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="AB6" s="46"/>
-      <c r="AC6" s="13"/>
-      <c r="AD6" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE6" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF6" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="AG6" s="46"/>
-      <c r="AH6" s="13"/>
-      <c r="AI6" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="AJ6" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="AK6" s="22" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="7" spans="2:37" x14ac:dyDescent="0.45">
-      <c r="W7" s="46"/>
-      <c r="X7" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="Y7" s="21">
-        <v>700</v>
-      </c>
-      <c r="Z7" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="AA7" s="22"/>
-      <c r="AB7" s="46"/>
-      <c r="AC7" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="AD7" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="AE7" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF7" s="22"/>
-      <c r="AG7" s="46"/>
-      <c r="AH7" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="AI7" s="21">
-        <f>Y7</f>
-        <v>700</v>
-      </c>
-      <c r="AJ7" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="AK7" s="22"/>
-    </row>
-    <row r="8" spans="2:37" x14ac:dyDescent="0.45">
-      <c r="B8" t="s">
-        <v>292</v>
-      </c>
-      <c r="W8" s="46"/>
-      <c r="X8" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="Y8" s="21">
-        <v>8.5</v>
-      </c>
-      <c r="Z8" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA8" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="AB8" s="46"/>
-      <c r="AC8" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="AD8" s="21">
-        <v>2</v>
-      </c>
-      <c r="AE8" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF8" s="22"/>
-      <c r="AG8" s="46"/>
-      <c r="AH8" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="AI8" s="21">
-        <f>AD9</f>
-        <v>1</v>
-      </c>
-      <c r="AJ8" s="21"/>
-      <c r="AK8" s="22"/>
-    </row>
-    <row r="9" spans="2:37" x14ac:dyDescent="0.45">
-      <c r="C9" t="s">
-        <v>349</v>
-      </c>
-      <c r="W9" s="46"/>
-      <c r="X9" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y9" s="21">
-        <f>Y7/2</f>
-        <v>350</v>
-      </c>
-      <c r="Z9" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="AA9" s="22"/>
-      <c r="AB9" s="46"/>
-      <c r="AC9" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="AD9" s="21">
-        <f>AD7*AD8</f>
-        <v>1</v>
-      </c>
-      <c r="AE9" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF9" s="22"/>
-      <c r="AG9" s="46"/>
-      <c r="AH9" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="AI9" s="21">
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A5" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="11"/>
+      <c r="F5" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="G5" s="8">
         <f>SS303FatigueStrength</f>
         <v>34800</v>
       </c>
-      <c r="AJ9" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="AK9" s="22"/>
-    </row>
-    <row r="10" spans="2:37" x14ac:dyDescent="0.45">
-      <c r="D10">
-        <v>0.125</v>
-      </c>
-      <c r="W10" s="46"/>
-      <c r="X10" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="Y10" s="21">
-        <f>Y9*Y8/2</f>
-        <v>1487.5</v>
-      </c>
-      <c r="Z10" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="AA10" s="22"/>
-      <c r="AB10" s="46"/>
-      <c r="AC10" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="AD10" s="21">
-        <f>SQRT((6*Y13)/AD9)</f>
-        <v>0.71619203743322835</v>
-      </c>
-      <c r="AE10" s="21" t="s">
+      <c r="H5" s="5"/>
+      <c r="I5" s="11"/>
+      <c r="K5" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="L5" s="7">
+        <f>(L4/COS(G16))/COS(RADIANS(27))</f>
+        <v>562.73483366177425</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="N5" s="5"/>
+      <c r="W5" s="48"/>
+      <c r="X5" s="48"/>
+      <c r="Y5" s="49"/>
+      <c r="Z5" s="46"/>
+      <c r="AA5" s="47" t="s">
+        <v>267</v>
+      </c>
+      <c r="AB5" s="48"/>
+      <c r="AC5" s="48"/>
+      <c r="AD5" s="49"/>
+      <c r="AE5" s="46"/>
+      <c r="AF5" s="47" t="s">
+        <v>294</v>
+      </c>
+      <c r="AG5" s="48"/>
+      <c r="AH5" s="48"/>
+      <c r="AI5" s="49"/>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A6" s="13"/>
+      <c r="B6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="8">
+        <f>FS</f>
+        <v>2</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="11"/>
+      <c r="K6" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="L6" s="7">
+        <f>SQRT((L5^2)-(L4^2))</f>
+        <v>258.20629933513379</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="N6" s="5"/>
+      <c r="W6" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="X6" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y6" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z6" s="46"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC6" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD6" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE6" s="46"/>
+      <c r="AF6" s="13"/>
+      <c r="AG6" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH6" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI6" s="22" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A7" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="11"/>
+      <c r="K7" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="L7" s="7">
+        <f>L5*CoeffStaticFrictionBrassonSteelLubricated</f>
+        <v>106.9196183957371</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="N7" s="5"/>
+      <c r="W7" s="21">
+        <v>700</v>
+      </c>
+      <c r="X7" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y7" s="22"/>
+      <c r="Z7" s="46"/>
+      <c r="AA7" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="AB7" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="AC7" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="AF10" s="22"/>
-      <c r="AG10" s="46"/>
-      <c r="AH10" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="AI10" s="21">
-        <v>5</v>
-      </c>
-      <c r="AJ10" s="21"/>
-      <c r="AK10" s="22"/>
-    </row>
-    <row r="11" spans="2:37" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D11">
+      <c r="AD7" s="22"/>
+      <c r="AE7" s="46"/>
+      <c r="AF7" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG7" s="21">
+        <f>W7</f>
+        <v>700</v>
+      </c>
+      <c r="AH7" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="AI7" s="22"/>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A8" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="6">
+        <v>2</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8" s="11"/>
+      <c r="K8" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="L8" s="7">
+        <f>L6+COS(G16)*L7</f>
+        <v>364.82729191039806</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="N8" s="5"/>
+      <c r="W8" s="21">
         <v>8.5</v>
       </c>
-      <c r="W11" s="46"/>
-      <c r="X11" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y11" s="21">
+      <c r="X8" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y8" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="Z8" s="46"/>
+      <c r="AA8" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="AB8" s="21">
         <v>2</v>
       </c>
-      <c r="Z11" s="21" t="s">
+      <c r="AC8" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="AA11" s="22"/>
-      <c r="AB11" s="46"/>
-      <c r="AC11" s="50"/>
-      <c r="AD11" s="51"/>
-      <c r="AE11" s="51"/>
-      <c r="AF11" s="52"/>
-      <c r="AG11" s="46"/>
-      <c r="AH11" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="AI11" s="21">
-        <f>AI7*AI10*FS/(AI9*AI8)</f>
-        <v>0.20114942528735633</v>
-      </c>
-      <c r="AJ11" s="21"/>
-      <c r="AK11" s="22"/>
-    </row>
-    <row r="12" spans="2:37" x14ac:dyDescent="0.45">
-      <c r="D12">
+      <c r="AD8" s="22"/>
+      <c r="AE8" s="46"/>
+      <c r="AF8" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="AG8" s="21">
+        <f>AB9</f>
         <v>1</v>
       </c>
-      <c r="W12" s="46"/>
-      <c r="X12" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="Y12" s="21">
+      <c r="AH8" s="21"/>
+      <c r="AI8" s="22"/>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A9" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" s="7">
+        <f>AppliedForceNormal/B8</f>
+        <v>500</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="F9" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0.35</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" s="11"/>
+      <c r="K9" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="L9" s="27">
+        <f>L8*((G10/2)/12)</f>
+        <v>6.4604832942466324</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="N9" s="5"/>
+      <c r="W9" s="21">
+        <f>W7/2</f>
+        <v>350</v>
+      </c>
+      <c r="X9" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y9" s="22"/>
+      <c r="Z9" s="46"/>
+      <c r="AA9" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="AB9" s="21">
+        <f>AB7*AB8</f>
+        <v>1</v>
+      </c>
+      <c r="AC9" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD9" s="22"/>
+      <c r="AE9" s="46"/>
+      <c r="AF9" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG9" s="21">
         <f>SS303FatigueStrength</f>
         <v>34800</v>
       </c>
-      <c r="Z12" s="21" t="s">
-        <v>347</v>
-      </c>
-      <c r="AA12" s="22"/>
+      <c r="AH9" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI9" s="22"/>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A10" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="8">
+        <f>SS303FatigueStrength</f>
+        <v>34800</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="F10" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10" s="27">
+        <f>(G8+G9)/2</f>
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I10" s="11"/>
+      <c r="K10" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="L10" s="27">
+        <f>L9*16*12</f>
+        <v>1240.4127924953534</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="N10" s="5"/>
+      <c r="W10" s="21">
+        <f>W9*W8/2</f>
+        <v>1487.5</v>
+      </c>
+      <c r="X10" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y10" s="22"/>
+      <c r="Z10" s="46"/>
+      <c r="AA10" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="AB10" s="21">
+        <f>SQRT((6*W13)/AB9)</f>
+        <v>0.71619203743322835</v>
+      </c>
+      <c r="AC10" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD10" s="22"/>
+      <c r="AE10" s="46"/>
+      <c r="AF10" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG10" s="21">
+        <v>5</v>
+      </c>
+      <c r="AH10" s="21"/>
+      <c r="AI10" s="22"/>
+    </row>
+    <row r="11" spans="1:35" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8">
+        <f>FS</f>
+        <v>2</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="F11" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="G11" s="7">
+        <f>G10*PI()</f>
+        <v>1.3351768777756621</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="K11" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="L11" s="27">
+        <f>L9*0.4535*30.48</f>
+        <v>89.301193221717043</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="N11" s="5"/>
+      <c r="W11" s="21">
+        <v>2</v>
+      </c>
+      <c r="X11" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y11" s="22"/>
+      <c r="Z11" s="46"/>
+      <c r="AA11" s="50"/>
+      <c r="AB11" s="51"/>
+      <c r="AC11" s="51"/>
+      <c r="AD11" s="52"/>
+      <c r="AE11" s="46"/>
+      <c r="AF11" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="AG11" s="21">
+        <f>AG7*AG10*FS/(AG9*AG8)</f>
+        <v>0.20114942528735633</v>
+      </c>
+      <c r="AH11" s="21"/>
+      <c r="AI11" s="22"/>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A12" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="7">
+        <f>SQRT((4*B9*B11)/(B10*PI()))</f>
+        <v>0.19127818286337878</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="F12" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="G12" s="27">
+        <f>((G9/2)^2)*PI()</f>
+        <v>9.6211275016187398E-2</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="11"/>
+      <c r="K12" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="L12" s="5">
+        <f>L9/G13</f>
+        <v>4385.2356495917147</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="N12" s="5"/>
+      <c r="W12" s="21">
+        <f>SS303FatigueStrength</f>
+        <v>34800</v>
+      </c>
+      <c r="X12" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="Y12" s="22"/>
+      <c r="Z12" s="46"/>
+      <c r="AA12" s="46"/>
       <c r="AB12" s="46"/>
       <c r="AC12" s="46"/>
       <c r="AD12" s="46"/>
       <c r="AE12" s="46"/>
-      <c r="AF12" s="46"/>
-      <c r="AG12" s="46"/>
-      <c r="AH12" s="13" t="s">
+      <c r="AF12" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="AI12" s="21">
-        <f>2*SQRT((AI7*FS/AD8)/AI9)</f>
+      <c r="AG12" s="21">
+        <f>2*SQRT((AG7*FS/AB8)/AG9)</f>
         <v>0.2836543144655877</v>
       </c>
-      <c r="AJ12" s="21"/>
-      <c r="AK12" s="22"/>
-    </row>
-    <row r="13" spans="2:37" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D13">
-        <f>D12*D10*2</f>
-        <v>0.25</v>
-      </c>
-      <c r="W13" s="46"/>
-      <c r="X13" s="50" t="s">
-        <v>240</v>
-      </c>
-      <c r="Y13" s="51">
-        <f>Y10*Y11/Y12</f>
+      <c r="AH12" s="21"/>
+      <c r="AI12" s="22"/>
+    </row>
+    <row r="13" spans="1:35" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="9">
+        <v>0.375</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G13" s="27">
+        <f>PI()*((G9/2)^4)/2</f>
+        <v>1.4732351486853694E-3</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13" s="11"/>
+      <c r="W13" s="51">
+        <f>W10*W11/W12</f>
         <v>8.5488505747126436E-2</v>
       </c>
-      <c r="Z13" s="51" t="s">
-        <v>348</v>
-      </c>
-      <c r="AA13" s="52"/>
+      <c r="X13" s="51" t="s">
+        <v>341</v>
+      </c>
+      <c r="Y13" s="52"/>
+      <c r="Z13" s="46"/>
+      <c r="AA13" s="46"/>
       <c r="AB13" s="46"/>
       <c r="AC13" s="46"/>
       <c r="AD13" s="46"/>
       <c r="AE13" s="46"/>
-      <c r="AF13" s="46"/>
-      <c r="AG13" s="46"/>
-      <c r="AH13" s="50" t="s">
+      <c r="AF13" s="50" t="s">
         <v>177</v>
       </c>
-      <c r="AI13" s="51">
+      <c r="AG13" s="51">
         <f>3/8</f>
         <v>0.375</v>
       </c>
-      <c r="AJ13" s="51"/>
-      <c r="AK13" s="52"/>
-    </row>
-    <row r="14" spans="2:37" x14ac:dyDescent="0.45">
-      <c r="D14">
-        <f>D11*D10</f>
-        <v>1.0625</v>
-      </c>
+      <c r="AH13" s="51"/>
+      <c r="AI13" s="52"/>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A14" s="13"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="22"/>
+      <c r="F14" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G14" s="7">
+        <f>1/G15</f>
+        <v>0.1</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="I14" s="11"/>
       <c r="W14" s="46"/>
       <c r="X14" s="46"/>
       <c r="Y14" s="46"/>
@@ -2829,17 +3145,27 @@
       <c r="AG14" s="46"/>
       <c r="AH14" s="46"/>
       <c r="AI14" s="46"/>
-      <c r="AJ14" s="46"/>
-      <c r="AK14" s="46"/>
-    </row>
-    <row r="15" spans="2:37" x14ac:dyDescent="0.45">
-      <c r="C15" t="s">
-        <v>350</v>
-      </c>
-      <c r="D15">
-        <f>D13+D14</f>
-        <v>1.3125</v>
-      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A15" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" s="15">
+        <f>B13*PI()</f>
+        <v>1.1780972450961724</v>
+      </c>
+      <c r="C15" s="15"/>
+      <c r="D15" s="16"/>
+      <c r="F15" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="G15" s="6">
+        <v>10</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="I15" s="11"/>
       <c r="W15" s="46"/>
       <c r="X15" s="46"/>
       <c r="Y15" s="46"/>
@@ -2853,2560 +3179,669 @@
       <c r="AG15" s="46"/>
       <c r="AH15" s="46"/>
       <c r="AI15" s="46"/>
-      <c r="AJ15" s="46"/>
-      <c r="AK15" s="46"/>
-    </row>
-    <row r="16" spans="2:37" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C16" t="s">
-        <v>351</v>
-      </c>
+    </row>
+    <row r="16" spans="1:35" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="17">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="G16" s="27">
+        <f>ATAN(G14/G11)</f>
+        <v>7.4756869969081929E-2</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="I16" s="11"/>
       <c r="W16" s="46"/>
-      <c r="X16" s="46" t="s">
-        <v>298</v>
-      </c>
+      <c r="X16" s="46"/>
       <c r="Y16" s="46"/>
       <c r="Z16" s="46"/>
-      <c r="AA16" s="46"/>
+      <c r="AA16" s="46" t="s">
+        <v>293</v>
+      </c>
       <c r="AB16" s="46"/>
-      <c r="AC16" s="46" t="s">
-        <v>300</v>
-      </c>
+      <c r="AC16" s="46"/>
       <c r="AD16" s="46"/>
       <c r="AE16" s="46"/>
       <c r="AF16" s="46"/>
       <c r="AG16" s="46"/>
       <c r="AH16" s="46"/>
       <c r="AI16" s="46"/>
-      <c r="AJ16" s="46"/>
-      <c r="AK16" s="46"/>
-    </row>
-    <row r="17" spans="2:37" x14ac:dyDescent="0.45">
-      <c r="W17" s="46"/>
-      <c r="X17" s="47" t="s">
-        <v>299</v>
-      </c>
-      <c r="Y17" s="48"/>
-      <c r="Z17" s="48"/>
-      <c r="AA17" s="49"/>
-      <c r="AB17" s="46"/>
-      <c r="AC17" s="47" t="s">
-        <v>299</v>
-      </c>
-      <c r="AD17" s="48"/>
-      <c r="AE17" s="48"/>
-      <c r="AF17" s="49"/>
+    </row>
+    <row r="17" spans="1:35" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="15">
+        <f>ATAN(B16/B15)</f>
+        <v>0.14053843111258857</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="16"/>
+      <c r="F17" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="G17" s="29">
+        <f>DEGREES(G16)</f>
+        <v>4.2832531388366837</v>
+      </c>
+      <c r="H17" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="I17" s="30"/>
+      <c r="W17" s="48"/>
+      <c r="X17" s="48"/>
+      <c r="Y17" s="49"/>
+      <c r="Z17" s="46"/>
+      <c r="AA17" s="47" t="s">
+        <v>292</v>
+      </c>
+      <c r="AB17" s="48"/>
+      <c r="AC17" s="48"/>
+      <c r="AD17" s="49"/>
+      <c r="AE17" s="46"/>
+      <c r="AF17" s="46"/>
       <c r="AG17" s="46"/>
       <c r="AH17" s="46"/>
       <c r="AI17" s="46"/>
-      <c r="AJ17" s="46"/>
-      <c r="AK17" s="46"/>
-    </row>
-    <row r="18" spans="2:37" x14ac:dyDescent="0.45">
-      <c r="W18" s="46"/>
-      <c r="X18" s="13"/>
-      <c r="Y18" s="21" t="s">
+    </row>
+    <row r="18" spans="1:35" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" s="19">
+        <f>PI()*((B13/2)^4)/2</f>
+        <v>1.9414444346677645E-3</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="20"/>
+      <c r="W18" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="Z18" s="21" t="s">
+      <c r="X18" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="AA18" s="22" t="s">
+      <c r="Y18" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="AB18" s="46"/>
-      <c r="AC18" s="13"/>
-      <c r="AD18" s="21" t="s">
+      <c r="Z18" s="46"/>
+      <c r="AA18" s="13"/>
+      <c r="AB18" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="AE18" s="21" t="s">
+      <c r="AC18" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="AF18" s="22" t="s">
+      <c r="AD18" s="22" t="s">
         <v>129</v>
       </c>
+      <c r="AE18" s="46"/>
+      <c r="AF18" s="46"/>
       <c r="AG18" s="46"/>
       <c r="AH18" s="46"/>
       <c r="AI18" s="46"/>
-      <c r="AJ18" s="46"/>
-      <c r="AK18" s="46"/>
-    </row>
-    <row r="19" spans="2:37" x14ac:dyDescent="0.45">
-      <c r="W19" s="46"/>
-      <c r="X19" s="13" t="s">
-        <v>297</v>
-      </c>
-      <c r="Y19" s="21">
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="W19" s="21">
         <f>0.125</f>
         <v>0.125</v>
       </c>
-      <c r="Z19" s="21" t="s">
+      <c r="X19" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="AA19" s="22"/>
-      <c r="AB19" s="46"/>
-      <c r="AC19" s="13" t="s">
-        <v>297</v>
-      </c>
-      <c r="AD19" s="21">
+      <c r="Y19" s="22"/>
+      <c r="Z19" s="46"/>
+      <c r="AA19" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="AB19" s="21">
         <f>0.125</f>
         <v>0.125</v>
       </c>
-      <c r="AE19" s="21" t="s">
+      <c r="AC19" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="AF19" s="22"/>
+      <c r="AD19" s="22"/>
+      <c r="AE19" s="46"/>
+      <c r="AF19" s="46"/>
       <c r="AG19" s="46"/>
       <c r="AH19" s="46"/>
       <c r="AI19" s="46"/>
-      <c r="AJ19" s="46"/>
-      <c r="AK19" s="46"/>
-    </row>
-    <row r="20" spans="2:37" x14ac:dyDescent="0.45">
-      <c r="W20" s="46"/>
-      <c r="X20" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="Y20" s="21">
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="W20" s="21">
         <f>SS303FatigueStrength</f>
         <v>34800</v>
       </c>
-      <c r="Z20" s="21" t="s">
+      <c r="X20" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="AA20" s="22"/>
-      <c r="AB20" s="46"/>
-      <c r="AC20" s="13" t="s">
+      <c r="Y20" s="22"/>
+      <c r="Z20" s="46"/>
+      <c r="AA20" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="AD20" s="21">
+      <c r="AB20" s="21">
         <f>SS303FatigueStrength</f>
         <v>34800</v>
       </c>
-      <c r="AE20" s="21" t="s">
+      <c r="AC20" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="AF20" s="22"/>
+      <c r="AD20" s="22"/>
+      <c r="AE20" s="46"/>
+      <c r="AF20" s="46"/>
       <c r="AG20" s="46"/>
       <c r="AH20" s="46"/>
       <c r="AI20" s="46"/>
-      <c r="AJ20" s="46"/>
-      <c r="AK20" s="46"/>
-    </row>
-    <row r="21" spans="2:37" x14ac:dyDescent="0.45">
-      <c r="W21" s="46"/>
-      <c r="X21" s="13" t="s">
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="F21" t="s">
+        <v>119</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="W21" s="21">
+        <v>3</v>
+      </c>
+      <c r="X21" s="21"/>
+      <c r="Y21" s="22"/>
+      <c r="Z21" s="46"/>
+      <c r="AA21" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="Y21" s="21">
+      <c r="AB21" s="21">
         <v>3</v>
       </c>
-      <c r="Z21" s="21"/>
-      <c r="AA21" s="22"/>
-      <c r="AB21" s="46"/>
-      <c r="AC21" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD21" s="21">
-        <v>3</v>
-      </c>
-      <c r="AE21" s="21"/>
-      <c r="AF21" s="22"/>
+      <c r="AC21" s="21"/>
+      <c r="AD21" s="22"/>
+      <c r="AE21" s="46"/>
+      <c r="AF21" s="46"/>
       <c r="AG21" s="46"/>
       <c r="AH21" s="46"/>
       <c r="AI21" s="46"/>
-      <c r="AJ21" s="46"/>
-      <c r="AK21" s="46"/>
-    </row>
-    <row r="22" spans="2:37" x14ac:dyDescent="0.45">
-      <c r="W22" s="46"/>
-      <c r="X22" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="Y22" s="21">
-        <f>AppliedForceNormal/2*Y21/(Y20*Y19)</f>
-        <v>0.2413793103448276</v>
-      </c>
-      <c r="Z22" s="21" t="s">
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A22" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F22" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="W22" s="21">
+        <f>AppliedForceNormal/2*W21/(W20*W19)</f>
+        <v>0.34482758620689657</v>
+      </c>
+      <c r="X22" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="AA22" s="22"/>
-      <c r="AB22" s="46"/>
-      <c r="AC22" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="AD22" s="21">
-        <f>AD21*AppliedForceNormal*0.5/(2*AD19*AD20)</f>
-        <v>0.1206896551724138</v>
-      </c>
-      <c r="AE22" s="21" t="s">
+      <c r="Y22" s="22"/>
+      <c r="Z22" s="46"/>
+      <c r="AA22" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="AB22" s="21">
+        <f>AB21*AppliedForceNormal*0.5/(2*AB19*AB20)</f>
+        <v>0.17241379310344829</v>
+      </c>
+      <c r="AC22" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="AF22" s="22"/>
+      <c r="AD22" s="22"/>
+      <c r="AE22" s="46"/>
+      <c r="AF22" s="46"/>
       <c r="AG22" s="46"/>
       <c r="AH22" s="46"/>
       <c r="AI22" s="46"/>
-      <c r="AJ22" s="46"/>
-      <c r="AK22" s="46"/>
-    </row>
-    <row r="23" spans="2:37" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="W23" s="46"/>
-      <c r="X23" s="50" t="s">
-        <v>177</v>
-      </c>
-      <c r="Y23" s="51">
+    </row>
+    <row r="23" spans="1:35" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A23" t="s">
+        <v>136</v>
+      </c>
+      <c r="W23" s="51">
         <v>0.375</v>
       </c>
-      <c r="Z23" s="51" t="s">
+      <c r="X23" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="AA23" s="52"/>
-      <c r="AB23" s="46"/>
-      <c r="AC23" s="50" t="s">
-        <v>303</v>
-      </c>
-      <c r="AD23" s="51">
+      <c r="Y23" s="52"/>
+      <c r="Z23" s="46"/>
+      <c r="AA23" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="AB23" s="51">
         <v>0.25</v>
       </c>
-      <c r="AE23" s="51" t="s">
+      <c r="AC23" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="AF23" s="52"/>
+      <c r="AD23" s="52"/>
+      <c r="AE23" s="46"/>
+      <c r="AF23" s="46"/>
       <c r="AG23" s="46"/>
       <c r="AH23" s="46"/>
       <c r="AI23" s="46"/>
-      <c r="AJ23" s="46"/>
-      <c r="AK23" s="46"/>
-    </row>
-    <row r="24" spans="2:37" x14ac:dyDescent="0.45">
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.45">
       <c r="W24" s="46"/>
       <c r="X24" s="46"/>
       <c r="Y24" s="46"/>
       <c r="Z24" s="46"/>
-      <c r="AA24" s="46"/>
-      <c r="AB24" s="46"/>
-      <c r="AC24" s="53" t="s">
-        <v>304</v>
-      </c>
-      <c r="AD24" s="46">
-        <f>Y23+(2*AD23)</f>
+      <c r="AA24" s="53" t="s">
+        <v>297</v>
+      </c>
+      <c r="AB24" s="46">
+        <f>W23+(2*AB23)</f>
         <v>0.875</v>
       </c>
+      <c r="AC24" s="46"/>
+      <c r="AD24" s="46"/>
       <c r="AE24" s="46"/>
       <c r="AF24" s="46"/>
       <c r="AG24" s="46"/>
       <c r="AH24" s="46"/>
       <c r="AI24" s="46"/>
-      <c r="AJ24" s="46"/>
-      <c r="AK24" s="46"/>
-    </row>
-    <row r="28" spans="2:37" x14ac:dyDescent="0.45">
-      <c r="C28" s="3"/>
-    </row>
-    <row r="29" spans="2:37" x14ac:dyDescent="0.45">
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="2:37" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B30" t="s">
-        <v>293</v>
-      </c>
-      <c r="C30" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="31" spans="2:37" x14ac:dyDescent="0.45">
-      <c r="C31" s="31" t="s">
-        <v>269</v>
-      </c>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="33"/>
-      <c r="H31" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="I31" s="32"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="33"/>
-      <c r="M31" s="31" t="s">
-        <v>249</v>
-      </c>
-      <c r="N31" s="32"/>
-      <c r="O31" s="32"/>
-      <c r="P31" s="33"/>
-    </row>
-    <row r="32" spans="2:37" x14ac:dyDescent="0.45">
-      <c r="C32" s="10"/>
-      <c r="D32" s="5" t="s">
+    </row>
+    <row r="27" spans="1:35" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A27" t="s">
+        <v>173</v>
+      </c>
+      <c r="F27" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A28" s="31"/>
+      <c r="B28" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="C28" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="F32" s="11" t="s">
+      <c r="D28" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="H32" s="10"/>
-      <c r="I32" s="5" t="s">
+      <c r="F28" s="10"/>
+      <c r="G28" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J32" s="5" t="s">
+      <c r="H28" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="K32" s="11" t="s">
+      <c r="I28" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="M32" s="10"/>
-      <c r="N32" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="O32" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="11" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="33" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="C33" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="D33" s="5">
-        <v>200</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="H33" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="I33" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="J33" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="K33" s="11"/>
-      <c r="M33" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="N33" s="5">
-        <f>D34</f>
-        <v>900</v>
-      </c>
-      <c r="O33" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="P33" s="11"/>
-    </row>
-    <row r="34" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="C34" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="D34" s="5">
-        <f>AppliedForceNormal+D33</f>
-        <v>900</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F34" s="11"/>
-      <c r="H34" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="I34" s="5">
-        <v>3</v>
-      </c>
-      <c r="J34" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K34" s="11"/>
-      <c r="M34" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="N34" s="5">
-        <f>I35</f>
-        <v>1.5</v>
-      </c>
-      <c r="O34" s="5"/>
-      <c r="P34" s="11"/>
-    </row>
-    <row r="35" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="C35" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="D35" s="5">
-        <f>MachineWidth</f>
-        <v>8.5</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="H35" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="I35" s="5">
-        <f>I33*I34</f>
-        <v>1.5</v>
-      </c>
-      <c r="J35" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="K35" s="11"/>
-      <c r="M35" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="N35" s="5">
-        <f>SS303FatigueStrength</f>
-        <v>34800</v>
-      </c>
-      <c r="O35" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="P35" s="11"/>
-    </row>
-    <row r="36" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="C36" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="D36" s="5">
-        <f>D34/2</f>
-        <v>450</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F36" s="11"/>
-      <c r="H36" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="I36" s="5">
-        <f>SQRT((6*D40)/I35)</f>
-        <v>0.66306498355273824</v>
-      </c>
-      <c r="J36" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="K36" s="11"/>
-      <c r="M36" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="N36" s="5">
-        <v>5</v>
-      </c>
-      <c r="O36" s="5"/>
-      <c r="P36" s="11"/>
-    </row>
-    <row r="37" spans="3:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C37" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="D37" s="5">
-        <f>D36*D35/2</f>
-        <v>1912.5</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="F37" s="11"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="34"/>
-      <c r="K37" s="30"/>
-      <c r="M37" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="N37" s="5">
-        <f>N33*N36*FS/(N35*N34)</f>
-        <v>0.17241379310344829</v>
-      </c>
-      <c r="O37" s="5"/>
-      <c r="P37" s="11"/>
-    </row>
-    <row r="38" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="C38" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38" s="5">
-        <v>2</v>
-      </c>
-      <c r="E38" s="5"/>
-      <c r="F38" s="11"/>
-      <c r="M38" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="N38" s="5">
-        <f>2*SQRT((N33*FS/I34)/N35)</f>
-        <v>0.26261286571944509</v>
-      </c>
-      <c r="O38" s="5"/>
-      <c r="P38" s="11"/>
-    </row>
-    <row r="39" spans="3:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C39" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="D39" s="5">
-        <f>SS303FatigueStrength</f>
-        <v>34800</v>
-      </c>
-      <c r="E39" s="5"/>
-      <c r="F39" s="11"/>
-      <c r="M39" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="N39" s="34">
-        <f>3/8</f>
-        <v>0.375</v>
-      </c>
-      <c r="O39" s="34"/>
-      <c r="P39" s="30"/>
-    </row>
-    <row r="40" spans="3:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C40" s="23" t="s">
-        <v>240</v>
-      </c>
-      <c r="D40" s="34">
-        <f>D37*D38/D39</f>
-        <v>0.10991379310344827</v>
-      </c>
-      <c r="E40" s="34"/>
-      <c r="F40" s="30"/>
-    </row>
-    <row r="54" spans="3:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C54" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="C55" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D55" s="32"/>
-      <c r="E55" s="32"/>
-      <c r="F55" s="33"/>
-      <c r="H55" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
-      <c r="K55" s="5"/>
-      <c r="M55" s="31" t="s">
-        <v>167</v>
-      </c>
-      <c r="N55" s="32"/>
-      <c r="O55" s="32"/>
-      <c r="P55" s="33"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="C56" s="10"/>
-      <c r="D56" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F56" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J56" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="K56" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="M56" s="10"/>
-      <c r="N56" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="O56" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="P56" s="11" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="C57" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D57" s="6">
-        <v>2</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F57" s="11"/>
-      <c r="H57" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="I57" s="5">
-        <f>D65</f>
-        <v>0.875</v>
-      </c>
-      <c r="J57" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="K57" s="5"/>
-      <c r="M57" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="N57" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="O57" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="P57" s="11"/>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="C58" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D58" s="7">
-        <f>(D60*D62*(D57*D61)^2)/((PI()^2)*D59)</f>
-        <v>2.3309064948399362E-3</v>
-      </c>
-      <c r="E58" s="5"/>
-      <c r="F58" s="11"/>
-      <c r="H58" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="I58" s="5">
-        <f>SS303FatigueStrength</f>
-        <v>34800</v>
-      </c>
-      <c r="J58" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K58" s="5"/>
-      <c r="M58" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="N58" s="5">
-        <f>(N57^2)*PI()</f>
-        <v>1.7671458676442586</v>
-      </c>
-      <c r="O58" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="P58" s="11"/>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="C59" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D59" s="8">
-        <f>SS303YoungsModulus</f>
-        <v>28000000</v>
-      </c>
-      <c r="E59" s="5"/>
-      <c r="F59" s="11"/>
-      <c r="H59" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I59" s="5">
-        <v>5</v>
-      </c>
-      <c r="J59" s="5"/>
-      <c r="K59" s="5"/>
-      <c r="M59" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="N59" s="5">
-        <f>AppliedForceNormal</f>
-        <v>700</v>
-      </c>
-      <c r="O59" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="P59" s="11"/>
-    </row>
-    <row r="60" spans="3:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C60" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D60" s="8">
-        <f>AppliedForceNormal</f>
-        <v>700</v>
-      </c>
-      <c r="E60" s="5"/>
-      <c r="F60" s="11"/>
-      <c r="H60" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="I60" s="5">
-        <f>AppliedForceNormal*I59/(I58*I57)</f>
-        <v>0.11494252873563218</v>
-      </c>
-      <c r="J60" s="5"/>
-      <c r="K60" s="5"/>
-      <c r="M60" s="23" t="s">
-        <v>290</v>
-      </c>
-      <c r="N60" s="34">
-        <f>N59/N58</f>
-        <v>396.11896947316171</v>
-      </c>
-      <c r="O60" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="P60" s="30"/>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="C61" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D61" s="7">
-        <f>MachineHeight/2</f>
-        <v>10.725</v>
-      </c>
-      <c r="E61" s="5"/>
-      <c r="F61" s="11"/>
-      <c r="H61" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="I61" s="5">
-        <f>3/8</f>
-        <v>0.375</v>
-      </c>
-      <c r="J61" s="5"/>
-      <c r="K61" s="5"/>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="C62" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D62" s="8">
-        <f>FS</f>
-        <v>2</v>
-      </c>
-      <c r="E62" s="5"/>
-      <c r="F62" s="11"/>
-      <c r="H62" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="I62" s="5">
-        <f>(((I57/2)^2)*PI())-(I57*I61)</f>
-        <v>0.2731954688511713</v>
-      </c>
-      <c r="J62" s="5"/>
-      <c r="K62" s="5"/>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="C63" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D63" s="7">
-        <f>((4*D58)/PI())^0.25</f>
-        <v>0.23340424081746836</v>
-      </c>
-      <c r="E63" s="5"/>
-      <c r="F63" s="11"/>
-      <c r="H63" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="I63" s="5">
-        <f>AppliedForceNormal/I62</f>
-        <v>2562.2679722456855</v>
-      </c>
-      <c r="J63" s="5"/>
-      <c r="K63" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="C64" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D64" s="27">
-        <f>D63*2</f>
-        <v>0.46680848163493671</v>
-      </c>
-      <c r="E64" s="5"/>
-      <c r="F64" s="11"/>
-    </row>
-    <row r="65" spans="3:26" x14ac:dyDescent="0.45">
-      <c r="C65" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D65" s="27">
-        <v>0.875</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F65" s="11"/>
-    </row>
-    <row r="66" spans="3:26" x14ac:dyDescent="0.45">
-      <c r="C66" s="10"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="11"/>
-      <c r="H66" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="I66" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J66" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="K66" s="11" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="67" spans="3:26" x14ac:dyDescent="0.45">
-      <c r="C67" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="D67" s="5">
-        <f>((PI()^2)*D59)/((D61/(D65/2))^2)</f>
-        <v>459853.28127613547</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F67" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="H67" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="I67" s="5">
-        <f>WashChamberDiameter</f>
-        <v>4</v>
-      </c>
-      <c r="J67" s="5"/>
-      <c r="K67" s="5"/>
-    </row>
-    <row r="68" spans="3:26" x14ac:dyDescent="0.45">
-      <c r="C68" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="D68" s="36">
-        <f>D67*(((D65/2)^2)*PI())</f>
-        <v>276519.19069971534</v>
-      </c>
-      <c r="E68" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="F68" s="37"/>
-      <c r="H68" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="I68" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="J68" s="5"/>
-      <c r="K68" s="5"/>
-    </row>
-    <row r="69" spans="3:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C69" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="D69" s="34"/>
-      <c r="E69" s="34"/>
-      <c r="F69" s="30"/>
-      <c r="H69" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="I69" s="5">
-        <f>(I67-(2*I68))/I61</f>
-        <v>9.3333333333333339</v>
-      </c>
-      <c r="J69" s="5"/>
-      <c r="K69" s="5"/>
-    </row>
-    <row r="70" spans="3:26" x14ac:dyDescent="0.45">
-      <c r="H70" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="I70" s="5">
-        <v>10</v>
-      </c>
-      <c r="J70" s="5"/>
-      <c r="K70" s="5"/>
-    </row>
-    <row r="74" spans="3:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C74" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="75" spans="3:26" x14ac:dyDescent="0.45">
-      <c r="C75" s="31" t="s">
-        <v>167</v>
-      </c>
-      <c r="D75" s="32"/>
-      <c r="E75" s="32"/>
-      <c r="F75" s="33"/>
-      <c r="H75" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="I75" s="32"/>
-      <c r="J75" s="32"/>
-      <c r="K75" s="33"/>
-      <c r="M75" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="N75" s="5"/>
-      <c r="O75" s="5"/>
-      <c r="P75" s="5"/>
-      <c r="R75" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="S75" s="5"/>
-      <c r="T75" s="5"/>
-      <c r="U75" s="5"/>
-      <c r="W75" s="31" t="s">
-        <v>167</v>
-      </c>
-      <c r="X75" s="32"/>
-      <c r="Y75" s="32"/>
-      <c r="Z75" s="33"/>
-    </row>
-    <row r="76" spans="3:26" x14ac:dyDescent="0.45">
-      <c r="C76" s="10"/>
-      <c r="D76" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F76" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="H76" s="10"/>
-      <c r="I76" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J76" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="K76" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="M76" s="5"/>
-      <c r="N76" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="O76" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="P76" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="R76" s="5"/>
-      <c r="S76" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="T76" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="U76" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="W76" s="10"/>
-      <c r="X76" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y76" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z76" s="11" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="77" spans="3:26" x14ac:dyDescent="0.45">
-      <c r="C77" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D77" s="5">
-        <f>(PI()*WashChamberDiameter^2/4)</f>
-        <v>12.566370614359172</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F77" s="11"/>
-      <c r="H77" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="I77" s="5"/>
-      <c r="J77" s="5"/>
-      <c r="K77" s="11"/>
-      <c r="M77" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="N77" s="5">
-        <f>I87</f>
-        <v>0.5</v>
-      </c>
-      <c r="O77" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="P77" s="5"/>
-      <c r="R77" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="S77" s="5">
-        <f>I78</f>
-        <v>4</v>
-      </c>
-      <c r="T77" s="5"/>
-      <c r="U77" s="5"/>
-      <c r="W77" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="X77" s="5">
-        <f>3/8</f>
-        <v>0.375</v>
-      </c>
-      <c r="Y77" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z77" s="11"/>
-    </row>
-    <row r="78" spans="3:26" x14ac:dyDescent="0.45">
-      <c r="C78" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D78" s="5">
-        <f>AppliedForceNormal/D77</f>
-        <v>55.70423008216337</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F78" s="11"/>
-      <c r="H78" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="I78" s="6">
-        <v>4</v>
-      </c>
-      <c r="J78" s="5"/>
-      <c r="K78" s="11"/>
-      <c r="M78" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="N78" s="5">
-        <f>SS303FatigueStrength</f>
-        <v>34800</v>
-      </c>
-      <c r="O78" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="P78" s="5"/>
-      <c r="R78" t="s">
-        <v>190</v>
-      </c>
-      <c r="S78" s="5"/>
-      <c r="T78" s="5"/>
-      <c r="U78" s="5"/>
-      <c r="W78" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="X78" s="5">
-        <f>(X77^2)*PI()</f>
-        <v>0.44178646691106466</v>
-      </c>
-      <c r="Y78" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="Z78" s="11"/>
-    </row>
-    <row r="79" spans="3:26" x14ac:dyDescent="0.45">
-      <c r="C79" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D79" s="5">
-        <f>D77-(((D65/2)^2)*PI())</f>
-        <v>11.965050145508002</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F79" s="11"/>
-      <c r="H79" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I79" s="6">
-        <v>2</v>
-      </c>
-      <c r="J79" s="5"/>
-      <c r="K79" s="11"/>
-      <c r="M79" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="N79" s="5">
-        <v>5</v>
-      </c>
-      <c r="O79" s="5"/>
-      <c r="P79" s="5"/>
-      <c r="R79" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="S79" s="5">
-        <f>I87</f>
-        <v>0.5</v>
-      </c>
-      <c r="T79" s="5"/>
-      <c r="U79" s="5"/>
-      <c r="W79" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="X79" s="5">
-        <f>AppliedForceNormal/4</f>
-        <v>175</v>
-      </c>
-      <c r="Y79" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z79" s="11"/>
-    </row>
-    <row r="80" spans="3:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C80" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="D80" s="34">
-        <f>D78*D79</f>
-        <v>666.50390625</v>
-      </c>
-      <c r="E80" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="F80" s="30"/>
-      <c r="H80" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I80" s="7">
-        <f>((I82/I78)*I84*(I79*I83)^2)/((PI()^2)*I81)</f>
-        <v>5.5484224425511174E-4</v>
-      </c>
-      <c r="J80" s="5"/>
-      <c r="K80" s="11"/>
-      <c r="M80" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="N80" s="5">
-        <f>(I82*N79/I78)/(N78*N77)</f>
-        <v>4.7881027747844827E-2</v>
-      </c>
-      <c r="O80" s="5"/>
-      <c r="P80" s="5"/>
-      <c r="R80" s="5"/>
-      <c r="S80" s="5"/>
-      <c r="T80" s="5"/>
-      <c r="U80" s="5"/>
-      <c r="W80" s="23" t="s">
-        <v>290</v>
-      </c>
-      <c r="X80" s="34">
-        <f>X79/X78</f>
-        <v>396.11896947316171</v>
-      </c>
-      <c r="Y80" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z80" s="30"/>
-    </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="H81" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I81" s="8">
-        <f>SS303YoungsModulus</f>
-        <v>28000000</v>
-      </c>
-      <c r="J81" s="5"/>
-      <c r="K81" s="11"/>
-      <c r="M81" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="N81" s="27">
-        <f>(0.25+0.125)/2</f>
-        <v>0.1875</v>
-      </c>
-      <c r="O81" s="5"/>
-      <c r="P81" s="5"/>
-      <c r="R81" s="5"/>
-      <c r="S81" s="5"/>
-      <c r="T81" s="5"/>
-      <c r="U81" s="5"/>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="H82" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I82" s="8">
-        <f>D80</f>
-        <v>666.50390625</v>
-      </c>
-      <c r="J82" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="K82" s="11"/>
-      <c r="M82" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="N82" s="5">
-        <f>(((N77/2)^2)*PI())-(N77*N81)</f>
-        <v>0.10259954084936207</v>
-      </c>
-      <c r="O82" s="5"/>
-      <c r="P82" s="5"/>
-      <c r="R82" s="5"/>
-      <c r="S82" s="5"/>
-      <c r="T82" s="5"/>
-      <c r="U82" s="5"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="H83" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="I83" s="7">
-        <f>MachineHeight/2</f>
-        <v>10.725</v>
-      </c>
-      <c r="J83" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="K83" s="11"/>
-      <c r="M83" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="N83" s="5">
-        <f>(I82/I78)/N82</f>
-        <v>1624.0421271196753</v>
-      </c>
-      <c r="O83" s="5"/>
-      <c r="P83" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="R83" s="5"/>
-      <c r="S83" s="5"/>
-      <c r="T83" s="5"/>
-      <c r="U83" s="5"/>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="H84" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I84" s="8">
-        <v>2</v>
-      </c>
-      <c r="J84" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K84" s="11"/>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="H85" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="I85" s="7">
-        <f>((4*I80)/PI())^0.25</f>
-        <v>0.16303089382194147</v>
-      </c>
-      <c r="J85" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="K85" s="11"/>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="H86" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="I86" s="27">
-        <f>SQRT(I85/PI())*2</f>
-        <v>0.45560660775236284</v>
-      </c>
-      <c r="J86" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="K86" s="11"/>
-      <c r="M86" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="N86" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="O86" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="P86" s="11" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="H87" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="I87" s="27">
-        <v>0.5</v>
-      </c>
-      <c r="J87" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="K87" s="11"/>
-      <c r="M87" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="N87" s="5">
-        <f>1.29*2</f>
-        <v>2.58</v>
-      </c>
-      <c r="O87" s="5"/>
-      <c r="P87" s="5" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="H88" s="10"/>
-      <c r="I88" s="5"/>
-      <c r="J88" s="5"/>
-      <c r="K88" s="11"/>
-      <c r="M88" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="N88" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="O88" s="5"/>
-      <c r="P88" s="5"/>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="H89" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="I89" s="5">
-        <f>((PI()^2)*I81)/((I83/(I87/2))^2)</f>
-        <v>150156.17347792178</v>
-      </c>
-      <c r="J89" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K89" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="M89" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="N89" s="5">
-        <f>(N87-(2*N88))/N81</f>
-        <v>11.093333333333334</v>
-      </c>
-      <c r="O89" s="5"/>
-      <c r="P89" s="5"/>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="H90" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="I90" s="5">
-        <f>I89*(((I87/2)^2)*PI())</f>
-        <v>29483.095718087101</v>
-      </c>
-      <c r="J90" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="K90" s="11"/>
-      <c r="M90" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="N90" s="5">
-        <v>10</v>
-      </c>
-      <c r="O90" s="5"/>
-      <c r="P90" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="91" spans="3:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="H91" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="I91" s="34"/>
-      <c r="J91" s="34"/>
-      <c r="K91" s="30"/>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="C93" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="C95" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="D95" s="5"/>
-      <c r="E95" s="5"/>
-      <c r="F95" s="5"/>
-      <c r="H95" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="I95" s="5"/>
-      <c r="J95" s="5"/>
-      <c r="K95" s="5"/>
-      <c r="M95" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="N95" s="5"/>
-      <c r="O95" s="5"/>
-      <c r="P95" s="5"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="C96" s="5"/>
-      <c r="D96" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E96" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F96" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="H96" s="5"/>
-      <c r="I96" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J96" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="K96" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="M96" s="5"/>
-      <c r="N96" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="O96" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="P96" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="C97" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="D97" s="5">
-        <f>AppliedForceNormal</f>
-        <v>700</v>
-      </c>
-      <c r="E97" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F97" s="5"/>
-      <c r="H97" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="I97" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="J97" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="K97" s="5"/>
-      <c r="M97" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="N97" s="5">
-        <v>1</v>
-      </c>
-      <c r="O97" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="P97" s="5"/>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="C98" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="D98" s="5">
-        <f>3.725*2</f>
-        <v>7.45</v>
-      </c>
-      <c r="E98" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F98" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="H98" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="I98" s="5">
-        <v>2</v>
-      </c>
-      <c r="J98" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K98" s="5"/>
-      <c r="M98" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="N98" s="5">
-        <f>SS303FatigueStrength</f>
-        <v>34800</v>
-      </c>
-      <c r="O98" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="P98" s="5"/>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="C99" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="D99" s="5">
-        <f>D97/2</f>
-        <v>350</v>
-      </c>
-      <c r="E99" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F99" s="5"/>
-      <c r="H99" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="I99" s="5">
-        <f>I97*I98</f>
-        <v>0.5</v>
-      </c>
-      <c r="J99" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="K99" s="5"/>
-      <c r="M99" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="N99" s="5">
-        <v>5</v>
-      </c>
-      <c r="O99" s="5"/>
-      <c r="P99" s="5"/>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="C100" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="D100" s="5">
-        <f>D99*D98/2</f>
-        <v>1303.75</v>
-      </c>
-      <c r="E100" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="F100" s="5"/>
-      <c r="H100" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="I100" s="5">
-        <f>SQRT((6*D103)/I99)</f>
-        <v>0.94822883895950072</v>
-      </c>
-      <c r="J100" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="K100" s="5"/>
-      <c r="M100" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="N100" s="5">
-        <f>AppliedForceNormal*N99/(N98*N97)</f>
-        <v>0.10057471264367816</v>
-      </c>
-      <c r="O100" s="5"/>
-      <c r="P100" s="5"/>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="C101" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D101" s="5">
-        <v>2</v>
-      </c>
-      <c r="E101" s="5"/>
-      <c r="F101" s="5"/>
-      <c r="H101" s="5"/>
-      <c r="I101" s="5"/>
-      <c r="J101" s="5"/>
-      <c r="K101" s="5"/>
-      <c r="M101" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="N101" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="O101" s="5"/>
-      <c r="P101" s="5"/>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="C102" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="D102" s="5">
-        <f>SS303FatigueStrength</f>
-        <v>34800</v>
-      </c>
-      <c r="E102" s="5"/>
-      <c r="F102" s="5"/>
-      <c r="M102" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="N102" s="5">
-        <f>(((N97/2)^2)*PI())-(N97*N101)</f>
-        <v>0.53539816339744828</v>
-      </c>
-      <c r="O102" s="5"/>
-      <c r="P102" s="5"/>
-    </row>
-    <row r="103" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="C103" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="D103" s="5">
-        <f>D100*D101/D102</f>
-        <v>7.4928160919540229E-2</v>
-      </c>
-      <c r="E103" s="5"/>
-      <c r="F103" s="5"/>
-      <c r="M103" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="N103" s="5">
-        <f>AppliedForceNormal/N102</f>
-        <v>1307.4381793879277</v>
-      </c>
-      <c r="O103" s="5"/>
-      <c r="P103" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="108" spans="3:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="109" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="C109" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="D109" s="25"/>
-      <c r="E109" s="25"/>
-      <c r="F109" s="26"/>
-      <c r="H109" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="I109" s="39"/>
-      <c r="J109" s="39"/>
-      <c r="K109" s="40"/>
-      <c r="M109" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="N109" s="5"/>
-      <c r="O109" s="5"/>
-      <c r="P109" s="5"/>
-      <c r="R109" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="110" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="C110" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="D110" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="E110" s="5"/>
-      <c r="F110" s="11"/>
-      <c r="H110" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="I110" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J110" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="K110" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="M110" s="5"/>
-      <c r="N110" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="O110" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="P110" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="S110" t="s">
-        <v>14</v>
-      </c>
-      <c r="T110" t="s">
-        <v>5</v>
-      </c>
-      <c r="U110" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="111" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="C111" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D111" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="E111" s="5"/>
-      <c r="F111" s="11"/>
-      <c r="H111" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="I111" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="J111" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K111" s="11"/>
-      <c r="M111" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="N111" s="8">
-        <f>D116</f>
-        <v>350</v>
-      </c>
-      <c r="O111" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="P111" s="5"/>
-      <c r="R111" t="s">
-        <v>265</v>
-      </c>
-      <c r="S111" s="1">
-        <f>N112</f>
-        <v>393.91438356324193</v>
-      </c>
-      <c r="T111" t="s">
-        <v>103</v>
-      </c>
-      <c r="U111" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="112" spans="3:21" x14ac:dyDescent="0.45">
-      <c r="C112" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="D112" s="5"/>
-      <c r="E112" s="5"/>
-      <c r="F112" s="11"/>
-      <c r="H112" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="I112" s="8">
-        <f>SS303FatigueStrength</f>
-        <v>34800</v>
-      </c>
-      <c r="J112" s="5"/>
-      <c r="K112" s="11"/>
-      <c r="M112" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="N112" s="7">
-        <f>(N111/COS(I123))/COS(RADIANS(27))</f>
-        <v>393.91438356324193</v>
-      </c>
-      <c r="O112" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="P112" s="5"/>
-    </row>
-    <row r="113" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="C113" s="13"/>
-      <c r="D113" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E113" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F113" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="H113" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I113" s="8">
-        <f>FS</f>
-        <v>2</v>
-      </c>
-      <c r="J113" s="5"/>
-      <c r="K113" s="11"/>
-      <c r="M113" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="N113" s="7">
-        <f>SQRT((N112^2)-(N111^2))</f>
-        <v>180.74440953459359</v>
-      </c>
-      <c r="O113" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="P113" s="5"/>
-    </row>
-    <row r="114" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="C114" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D114" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E114" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F114" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H114" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="I114" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="J114" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K114" s="11"/>
-      <c r="M114" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="N114" s="7">
-        <f>N112*CoeffStaticFrictionBrassonSteelLubricated</f>
-        <v>74.843732877015967</v>
-      </c>
-      <c r="O114" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="P114" s="5"/>
-    </row>
-    <row r="115" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="C115" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D115" s="6">
-        <v>2</v>
-      </c>
-      <c r="E115" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F115" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H115" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="I115" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="J115" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="K115" s="11"/>
-      <c r="M115" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="N115" s="7">
-        <f>N113+COS(I123)*N114</f>
-        <v>255.37910433727859</v>
-      </c>
-      <c r="O115" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="P115" s="5"/>
-    </row>
-    <row r="116" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="C116" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D116" s="7">
-        <f>AppliedForceNormal/D115</f>
-        <v>350</v>
-      </c>
-      <c r="E116" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F116" s="11"/>
-      <c r="H116" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="I116" s="6">
-        <v>0.35</v>
-      </c>
-      <c r="J116" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="K116" s="11"/>
-      <c r="M116" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="N116" s="27">
-        <f>N115*((I117/2)/12)</f>
-        <v>4.5223383059726414</v>
-      </c>
-      <c r="O116" s="5" t="s">
+    </row>
+    <row r="29" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A29" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B29" s="27">
+        <f>ROUND(L9*B8,1)</f>
+        <v>12.9</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="P116" s="5"/>
-    </row>
-    <row r="117" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="C117" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D117" s="8">
-        <f>SS303FatigueStrength</f>
-        <v>34800</v>
-      </c>
-      <c r="E117" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F117" s="11"/>
-      <c r="H117" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="I117" s="27">
-        <f>(I115+I116)/2</f>
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="J117" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="K117" s="11"/>
-      <c r="M117" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="N117" s="27">
-        <f>N116*16*12</f>
-        <v>868.28895474674709</v>
-      </c>
-      <c r="O117" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="P117" s="5"/>
-    </row>
-    <row r="118" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="C118" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D118" s="8">
-        <f>FS</f>
-        <v>2</v>
-      </c>
-      <c r="E118" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F118" s="11"/>
-      <c r="H118" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="I118" s="7">
-        <f>I117*PI()</f>
-        <v>1.3351768777756621</v>
-      </c>
-      <c r="J118" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="K118" s="11"/>
-      <c r="M118" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="N118" s="27">
-        <f>N116*0.4535*30.48</f>
-        <v>62.510835255201911</v>
-      </c>
-      <c r="O118" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="P118" s="5"/>
-    </row>
-    <row r="119" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="C119" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D119" s="7">
-        <f>SQRT((4*D116*D118)/(D117*PI()))</f>
-        <v>0.16003480954986424</v>
-      </c>
-      <c r="E119" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F119" s="11"/>
-      <c r="H119" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="I119" s="27">
-        <f>((I116/2)^2)*PI()</f>
-        <v>9.6211275016187398E-2</v>
-      </c>
-      <c r="J119" s="5"/>
-      <c r="K119" s="11"/>
-      <c r="M119" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="N119" s="5">
-        <f>N116/I120</f>
-        <v>3069.6649547141997</v>
-      </c>
-      <c r="O119" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="P119" s="5"/>
-    </row>
-    <row r="120" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="C120" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D120" s="9">
-        <v>0.375</v>
-      </c>
-      <c r="E120" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F120" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="H120" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="I120" s="27">
-        <f>PI()*((I116/2)^4)/2</f>
-        <v>1.4732351486853694E-3</v>
-      </c>
-      <c r="J120" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="K120" s="11"/>
-    </row>
-    <row r="121" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="C121" s="13"/>
-      <c r="D121" s="21"/>
-      <c r="E121" s="21"/>
-      <c r="F121" s="22"/>
-      <c r="H121" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="I121" s="7">
-        <f>1/I122</f>
-        <v>0.1</v>
-      </c>
-      <c r="J121" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="K121" s="11"/>
-    </row>
-    <row r="122" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="C122" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="D122" s="15">
-        <f>D120*PI()</f>
-        <v>1.1780972450961724</v>
-      </c>
-      <c r="E122" s="15"/>
-      <c r="F122" s="16"/>
-      <c r="H122" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="I122" s="6">
-        <v>10</v>
-      </c>
-      <c r="J122" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="K122" s="11"/>
-    </row>
-    <row r="123" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="C123" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D123" s="17">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="E123" s="15"/>
-      <c r="F123" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="H123" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="I123" s="27">
-        <f>ATAN(I121/I118)</f>
-        <v>7.4756869969081929E-2</v>
-      </c>
-      <c r="J123" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="K123" s="11"/>
-    </row>
-    <row r="124" spans="3:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C124" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="D124" s="15">
-        <f>ATAN(D123/D122)</f>
-        <v>0.14053843111258857</v>
-      </c>
-      <c r="E124" s="15"/>
-      <c r="F124" s="16"/>
-      <c r="H124" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="I124" s="29">
-        <f>DEGREES(I123)</f>
-        <v>4.2832531388366837</v>
-      </c>
-      <c r="J124" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="K124" s="30"/>
-    </row>
-    <row r="125" spans="3:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C125" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="D125" s="19">
-        <f>PI()*((D120/2)^4)/2</f>
-        <v>1.9414444346677645E-3</v>
-      </c>
-      <c r="E125" s="19"/>
-      <c r="F125" s="20"/>
-    </row>
-    <row r="128" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="H128" t="s">
-        <v>119</v>
-      </c>
-      <c r="I128" s="4">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="129" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C129" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="H129" t="s">
-        <v>125</v>
-      </c>
-      <c r="I129" s="4">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="130" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C130" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="134" spans="3:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C134" t="s">
-        <v>173</v>
-      </c>
-      <c r="H134" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="135" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C135" s="31"/>
-      <c r="D135" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="E135" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="F135" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="H135" s="10"/>
-      <c r="I135" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J135" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="K135" s="11" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="136" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C136" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="D136" s="27">
-        <f>ROUND(N116*D115,1)</f>
-        <v>9</v>
-      </c>
-      <c r="E136" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F136" s="11" t="s">
+      <c r="D29" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="H136" t="s">
+      <c r="F29" t="s">
         <v>252</v>
       </c>
-      <c r="I136">
-        <f>D141/(D137/12)</f>
-        <v>35.100000000000009</v>
-      </c>
-    </row>
-    <row r="137" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C137" s="10" t="s">
+      <c r="G29">
+        <f>B34/(B30/12)</f>
+        <v>50.31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A30" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="D137" s="41">
+      <c r="B30" s="41">
         <f>2</f>
         <v>2</v>
       </c>
-      <c r="E137" s="5" t="s">
+      <c r="C30" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F137" s="11" t="s">
+      <c r="D30" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="H137" t="s">
+      <c r="F30" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="138" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C138" s="10" t="s">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A31" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="D138" s="5">
-        <f>D136/(D137/12)</f>
-        <v>54</v>
-      </c>
-      <c r="E138" s="5" t="s">
+      <c r="B31" s="5">
+        <f>B29/(B30/12)</f>
+        <v>77.400000000000006</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F138" s="11"/>
-      <c r="H138" t="s">
+      <c r="D31" s="11"/>
+      <c r="F31" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="139" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C139" s="10" t="s">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A32" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="D139" s="5">
+      <c r="B32" s="5">
         <v>1.25</v>
       </c>
-      <c r="E139" s="5" t="s">
+      <c r="C32" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F139" s="11"/>
-    </row>
-    <row r="140" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C140" s="10" t="s">
+      <c r="D32" s="11"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A33" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="D140" s="42">
+      <c r="B33" s="42">
         <v>0.96</v>
       </c>
-      <c r="E140" s="5"/>
-      <c r="F140" s="11"/>
-    </row>
-    <row r="141" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C141" s="10" t="s">
+      <c r="C33" s="5"/>
+      <c r="D33" s="11"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A34" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="D141" s="27">
-        <f>D136*(D139/D137)*(1-D140+1)</f>
-        <v>5.8500000000000005</v>
-      </c>
-      <c r="E141" s="5" t="s">
+      <c r="B34" s="27">
+        <f>B29*(B32/B30)*(1-B33+1)</f>
+        <v>8.3849999999999998</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="F141" s="43"/>
-      <c r="K141" s="3" t="s">
+      <c r="D34" s="43"/>
+      <c r="I34" s="3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="142" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C142" s="10" t="s">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A35" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="D142" s="27">
-        <f>D141*16*12</f>
-        <v>1123.2</v>
-      </c>
-      <c r="E142" s="5" t="s">
+      <c r="B35" s="27">
+        <f>B34*16*12</f>
+        <v>1609.92</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="F142" s="11"/>
-    </row>
-    <row r="143" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C143" s="10" t="s">
+      <c r="D35" s="11"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A36" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="D143" s="27">
-        <f>D141*0.4535*30.48</f>
-        <v>80.862678000000017</v>
-      </c>
-      <c r="E143" s="5" t="s">
+      <c r="B36" s="27">
+        <f>B34*0.4535*30.48</f>
+        <v>115.90317180000001</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="F143" s="11"/>
-    </row>
-    <row r="144" spans="3:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C144" s="23" t="s">
+      <c r="D36" s="11"/>
+    </row>
+    <row r="37" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A37" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="D144" s="34">
-        <f>D137/D139</f>
+      <c r="B37" s="34">
+        <f>B30/B32</f>
         <v>1.6</v>
       </c>
-      <c r="E144" s="34"/>
-      <c r="F144" s="30"/>
-    </row>
-    <row r="147" spans="3:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="H147" t="s">
+      <c r="C37" s="34"/>
+      <c r="D37" s="30"/>
+    </row>
+    <row r="40" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F40" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="148" spans="3:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C148" t="s">
+    <row r="41" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A41" t="s">
         <v>124</v>
       </c>
-      <c r="H148" s="31"/>
-      <c r="I148" s="32" t="s">
+      <c r="F41" s="31"/>
+      <c r="G41" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="J148" s="32" t="s">
+      <c r="H41" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="K148" s="33" t="s">
+      <c r="I41" s="33" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="149" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C149" s="31"/>
-      <c r="D149" s="32" t="s">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A42" s="31"/>
+      <c r="B42" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="E149" s="32" t="s">
+      <c r="C42" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="F149" s="33" t="s">
+      <c r="D42" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="H149" s="10" t="s">
+      <c r="F42" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="I149" s="6">
+      <c r="G42" s="6">
         <v>19</v>
       </c>
-      <c r="J149" s="5" t="s">
+      <c r="H42" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="K149" s="11"/>
-    </row>
-    <row r="150" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C150" s="10" t="s">
+      <c r="I42" s="11"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A43" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="D150" s="27">
-        <f>D141</f>
-        <v>5.8500000000000005</v>
-      </c>
-      <c r="E150" s="5" t="s">
+      <c r="B43" s="27">
+        <f>B34</f>
+        <v>8.3849999999999998</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="F150" s="11"/>
-      <c r="H150" s="10" t="s">
+      <c r="D43" s="11"/>
+      <c r="F43" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="I150" s="6">
+      <c r="G43" s="6">
         <v>1</v>
       </c>
-      <c r="J150" s="5" t="s">
+      <c r="H43" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K150" s="11"/>
-    </row>
-    <row r="151" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C151" s="10" t="s">
+      <c r="I43" s="11"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A44" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="D151" s="27">
-        <f>D150*16*12</f>
-        <v>1123.2</v>
-      </c>
-      <c r="E151" s="5" t="s">
+      <c r="B44" s="27">
+        <f>B43*16*12</f>
+        <v>1609.92</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="F151" s="11"/>
-      <c r="H151" s="10" t="s">
+      <c r="D44" s="11"/>
+      <c r="F44" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="I151" s="8">
-        <f>D144</f>
+      <c r="G44" s="8">
+        <f>B37</f>
         <v>1.6</v>
       </c>
-      <c r="J151" s="5"/>
-      <c r="K151" s="11"/>
-    </row>
-    <row r="152" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C152" s="10" t="s">
+      <c r="H44" s="5"/>
+      <c r="I44" s="11"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A45" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="D152" s="27">
-        <f>D150*0.4535*30.48</f>
-        <v>80.862678000000017</v>
-      </c>
-      <c r="E152" s="5" t="s">
+      <c r="B45" s="27">
+        <f>B43*0.4535*30.48</f>
+        <v>115.90317180000001</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="F152" s="11"/>
-      <c r="H152" s="10" t="s">
+      <c r="D45" s="11"/>
+      <c r="F45" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="I152" s="8">
-        <f>I122</f>
+      <c r="G45" s="8">
+        <f>G15</f>
         <v>10</v>
       </c>
-      <c r="J152" s="5" t="s">
+      <c r="H45" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="K152" s="11"/>
-    </row>
-    <row r="153" spans="3:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C153" s="23" t="s">
+      <c r="I45" s="11"/>
+    </row>
+    <row r="46" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A46" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="D153" s="34">
-        <f>D150*1.3558179483</f>
-        <v>7.9315349975550005</v>
-      </c>
-      <c r="E153" s="34" t="s">
+      <c r="B46" s="34">
+        <f>B43*1.3558179483</f>
+        <v>11.368533496495498</v>
+      </c>
+      <c r="C46" s="34" t="s">
         <v>256</v>
       </c>
-      <c r="F153" s="30"/>
-      <c r="H153" s="10" t="s">
+      <c r="D46" s="30"/>
+      <c r="F46" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="I153" s="7">
-        <f>I149/(I150*I151)</f>
+      <c r="G46" s="7">
+        <f>G42/(G43*G44)</f>
         <v>11.875</v>
       </c>
-      <c r="J153" s="5" t="s">
+      <c r="H46" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="K153" s="11"/>
-    </row>
-    <row r="154" spans="3:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="H154" s="23" t="s">
+      <c r="I46" s="11"/>
+    </row>
+    <row r="47" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F47" s="23" t="s">
         <v>236</v>
       </c>
-      <c r="I154" s="34">
-        <f>I153/I152</f>
+      <c r="G47" s="34">
+        <f>G46/G45</f>
         <v>1.1875</v>
       </c>
-      <c r="J154" s="34" t="s">
+      <c r="H47" s="34" t="s">
         <v>237</v>
       </c>
-      <c r="K154" s="30"/>
-    </row>
-    <row r="155" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C155" t="s">
+      <c r="I47" s="30"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="156" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C156" t="s">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="157" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="F157">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="D50">
         <v>50</v>
       </c>
-      <c r="G157" t="s">
+      <c r="E50" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="158" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="F158">
-        <f>2*PI()*F157/60</f>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="D51">
+        <f>2*PI()*D50/60</f>
         <v>5.2359877559829888</v>
       </c>
-      <c r="G158" t="s">
+      <c r="E51" t="s">
         <v>259</v>
       </c>
-      <c r="H158" t="s">
+      <c r="F51" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="159" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="F159">
-        <f>D153</f>
-        <v>7.9315349975550005</v>
-      </c>
-      <c r="G159" t="s">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="D52">
+        <f>B46</f>
+        <v>11.368533496495498</v>
+      </c>
+      <c r="E52" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="160" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="F160">
-        <f>F158*F159</f>
-        <v>41.529420133348545</v>
-      </c>
-      <c r="G160" t="s">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="D53">
+        <f>D51*D52</f>
+        <v>59.525502191132908</v>
+      </c>
+      <c r="E53" t="s">
         <v>260</v>
       </c>
-      <c r="H160">
-        <f>0.105*90*D153</f>
-        <v>74.953005726894744</v>
-      </c>
-    </row>
-    <row r="162" spans="6:8" x14ac:dyDescent="0.45">
-      <c r="F162">
+      <c r="F53">
+        <f>0.105*90*B46</f>
+        <v>107.43264154188245</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="D55">
         <v>24</v>
       </c>
-      <c r="G162" t="s">
+      <c r="E55" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="163" spans="6:8" x14ac:dyDescent="0.45">
-      <c r="F163">
-        <f>F160/F162</f>
-        <v>1.7303925055561893</v>
-      </c>
-      <c r="G163" t="s">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="D56">
+        <f>D53/D55</f>
+        <v>2.4802292579638712</v>
+      </c>
+      <c r="E56" t="s">
         <v>262</v>
       </c>
-      <c r="H163">
+      <c r="F56">
         <f>6000*0.224808943</f>
         <v>1348.853658</v>
       </c>
     </row>
-    <row r="182" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B182" t="s">
-        <v>292</v>
-      </c>
-      <c r="C182" t="s">
-        <v>291</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C129" r:id="rId1" location=":~:text=The%20bearing%20pressure%20refers%20to%20the#:~:text=The%20bearing%20pressure%20refers%20to%20the" display="https://engineerexcel.com/acme-thread-calculations/ - :~:text=The%20bearing%20pressure%20refers%20to%20the#:~:text=The%20bearing%20pressure%20refers%20to%20the" xr:uid="{EB560DC3-B69B-4530-B1AF-3637325D1D1F}"/>
-    <hyperlink ref="K141" r:id="rId2" location="fig25" display="http://chain-guide.com/basics/2-1-2-engagement-with-sprockets.html - fig25" xr:uid="{80E4AA67-26CD-4E34-8F69-0332D5B7D54D}"/>
+    <hyperlink ref="A22" r:id="rId1" location=":~:text=The%20bearing%20pressure%20refers%20to%20the#:~:text=The%20bearing%20pressure%20refers%20to%20the" display="https://engineerexcel.com/acme-thread-calculations/ - :~:text=The%20bearing%20pressure%20refers%20to%20the#:~:text=The%20bearing%20pressure%20refers%20to%20the" xr:uid="{EB560DC3-B69B-4530-B1AF-3637325D1D1F}"/>
+    <hyperlink ref="I34" r:id="rId2" location="fig25" display="http://chain-guide.com/basics/2-1-2-engagement-with-sprockets.html - fig25" xr:uid="{80E4AA67-26CD-4E34-8F69-0332D5B7D54D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId3"/>
@@ -5414,11 +3849,2078 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35650138-A39B-40B7-A1C0-41B1A4232402}">
+  <dimension ref="A1:X50"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="39.3984375" customWidth="1"/>
+    <col min="6" max="6" width="34.6640625" customWidth="1"/>
+    <col min="11" max="11" width="25.6640625" customWidth="1"/>
+    <col min="16" max="16" width="17" customWidth="1"/>
+    <col min="21" max="21" width="19.73046875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A2" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="33"/>
+      <c r="F2" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="K2" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="33"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A3" s="10"/>
+      <c r="B3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="K3" s="10"/>
+      <c r="L3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="6">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="F4" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="G4" s="5">
+        <f>B12</f>
+        <v>0.875</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="K4" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="N4" s="11"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="7">
+        <f>(B7*B9*(B4*B8)^2)/((PI()^2)*B6)</f>
+        <v>3.3298664211999082E-3</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="11"/>
+      <c r="F5" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="G5" s="5">
+        <f>SS303FatigueStrength</f>
+        <v>34800</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="K5" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="L5" s="5">
+        <f>(L4^2)*PI()</f>
+        <v>1.7671458676442586</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="N5" s="11"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="8">
+        <f>SS303YoungsModulus</f>
+        <v>28000000</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="11"/>
+      <c r="F6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="5">
+        <v>5</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="K6" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="L6" s="5">
+        <f>AppliedForceNormal</f>
+        <v>1000</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="N6" s="11"/>
+    </row>
+    <row r="7" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="8">
+        <f>AppliedForceNormal</f>
+        <v>1000</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="11"/>
+      <c r="F7" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="G7" s="5">
+        <f>AppliedForceNormal*G6/(G5*G4)</f>
+        <v>0.16420361247947454</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="K7" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="L7" s="34">
+        <f>L6/L5</f>
+        <v>565.88424210451672</v>
+      </c>
+      <c r="M7" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="N7" s="30"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A8" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="7">
+        <f>MachineHeight/2</f>
+        <v>10.725</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="11"/>
+      <c r="F8" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="G8" s="5">
+        <f>3/8</f>
+        <v>0.375</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="8">
+        <f>FS</f>
+        <v>2</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="11"/>
+      <c r="F9" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="G9" s="5">
+        <f>(((G4/2)^2)*PI())-(G4*G8)</f>
+        <v>0.2731954688511713</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A10" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="7">
+        <f>((4*B5)/PI())^0.25</f>
+        <v>0.25517271392884311</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="11"/>
+      <c r="F10" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="G10" s="5">
+        <f>AppliedForceNormal/G9</f>
+        <v>3660.3828174938362</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A11" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="27">
+        <f>B10*2</f>
+        <v>0.51034542785768622</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="11"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A12" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="27">
+        <v>0.875</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="11"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A13" s="10"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="11"/>
+      <c r="F13" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A14" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B14" s="5">
+        <f>((PI()^2)*B6)/((B8/(B12/2))^2)</f>
+        <v>459853.28127613547</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="G14" s="5">
+        <f>WashChamberDiameter</f>
+        <v>4</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A15" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="B15" s="36">
+        <f>B14*(((B12/2)^2)*PI())</f>
+        <v>276519.19069971534</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" s="37"/>
+      <c r="F15" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="30"/>
+      <c r="F16" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="G16" s="5">
+        <f>(G14-(2*G15))/G8</f>
+        <v>9.3333333333333339</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="F17" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="G17" s="5">
+        <v>10</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="21" spans="1:24" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A21" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A22" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="33"/>
+      <c r="F22" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="33"/>
+      <c r="K22" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="P22" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="U22" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="V22" s="32"/>
+      <c r="W22" s="32"/>
+      <c r="X22" s="33"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A23" s="10"/>
+      <c r="B23" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="R23" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="S23" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="U23" s="10"/>
+      <c r="V23" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="W23" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="X23" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A24" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" s="5">
+        <f>(PI()*WashChamberDiameter^2/4)</f>
+        <v>12.566370614359172</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="F24" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="11"/>
+      <c r="K24" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="L24" s="5">
+        <f>G34</f>
+        <v>0.5</v>
+      </c>
+      <c r="M24" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="N24" s="5"/>
+      <c r="P24" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q24" s="5">
+        <f>G25</f>
+        <v>4</v>
+      </c>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="U24" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="V24" s="5">
+        <f>3/8</f>
+        <v>0.375</v>
+      </c>
+      <c r="W24" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="X24" s="11"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A25" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="5">
+        <f>AppliedForceNormal/B24</f>
+        <v>79.577471545947674</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="F25" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G25" s="6">
+        <v>4</v>
+      </c>
+      <c r="H25" s="5"/>
+      <c r="I25" s="11"/>
+      <c r="K25" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="L25" s="5">
+        <f>SS303FatigueStrength</f>
+        <v>34800</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="N25" s="5"/>
+      <c r="P25" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="U25" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="V25" s="5">
+        <f>(V24^2)*PI()</f>
+        <v>0.44178646691106466</v>
+      </c>
+      <c r="W25" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="X25" s="11"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A26" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="5">
+        <f>B24-(((B12/2)^2)*PI())</f>
+        <v>11.965050145508002</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="F26" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="6">
+        <v>2</v>
+      </c>
+      <c r="H26" s="5"/>
+      <c r="I26" s="11"/>
+      <c r="K26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L26" s="5">
+        <v>5</v>
+      </c>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="P26" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q26" s="5">
+        <f>G34</f>
+        <v>0.5</v>
+      </c>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="U26" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="V26" s="5">
+        <f>AppliedForceNormal/4</f>
+        <v>250</v>
+      </c>
+      <c r="W26" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="X26" s="11"/>
+    </row>
+    <row r="27" spans="1:24" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A27" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="34">
+        <f>B25*B26</f>
+        <v>952.14843750000011</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27" s="30"/>
+      <c r="F27" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="7">
+        <f>((G29/G25)*G31*(G26*G30)^2)/((PI()^2)*G28)</f>
+        <v>7.9263177750730249E-4</v>
+      </c>
+      <c r="H27" s="5"/>
+      <c r="I27" s="11"/>
+      <c r="K27" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="L27" s="5">
+        <f>(G29*L26/G25)/(L25*L24)</f>
+        <v>6.8401468211206906E-2</v>
+      </c>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="U27" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="V27" s="34">
+        <f>V26/V25</f>
+        <v>565.88424210451672</v>
+      </c>
+      <c r="W27" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="X27" s="30"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="F28" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="8">
+        <f>SS303YoungsModulus</f>
+        <v>28000000</v>
+      </c>
+      <c r="H28" s="5"/>
+      <c r="I28" s="11"/>
+      <c r="K28" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="L28" s="27">
+        <f>(0.25+0.125)/2</f>
+        <v>0.1875</v>
+      </c>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="F29" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" s="8">
+        <f>B27</f>
+        <v>952.14843750000011</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="I29" s="11"/>
+      <c r="K29" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="L29" s="5">
+        <f>(((L24/2)^2)*PI())-(L24*L28)</f>
+        <v>0.10259954084936207</v>
+      </c>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="F30" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" s="7">
+        <f>MachineHeight/2</f>
+        <v>10.725</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I30" s="11"/>
+      <c r="K30" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="L30" s="5">
+        <f>(G29/G25)/L29</f>
+        <v>2320.0601815995365</v>
+      </c>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="F31" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="8">
+        <v>2</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I31" s="11"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="F32" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="G32" s="7">
+        <f>((4*G27)/PI())^0.25</f>
+        <v>0.17823598870820678</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="I32" s="11"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="F33" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G33" s="27">
+        <f>SQRT(G32/PI())*2</f>
+        <v>0.47637916528565649</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I33" s="11"/>
+      <c r="K33" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="L33" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M33" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="F34" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G34" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I34" s="11"/>
+      <c r="K34" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="L34" s="5">
+        <f>1.29*2</f>
+        <v>2.58</v>
+      </c>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="F35" s="10"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="11"/>
+      <c r="K35" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="L35" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="F36" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="G36" s="5">
+        <f>((PI()^2)*G28)/((G30/(G34/2))^2)</f>
+        <v>150156.17347792178</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="L36" s="5">
+        <f>(L34-(2*L35))/L28</f>
+        <v>11.093333333333334</v>
+      </c>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="F37" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="G37" s="5">
+        <f>G36*(((G34/2)^2)*PI())</f>
+        <v>29483.095718087101</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="I37" s="11"/>
+      <c r="K37" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="L37" s="5">
+        <v>10</v>
+      </c>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F38" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="30"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A42" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="F42" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="K42" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M43" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="N43" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A44" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B44" s="5">
+        <f>AppliedForceNormal</f>
+        <v>1000</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D44" s="5"/>
+      <c r="F44" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="G44" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I44" s="5"/>
+      <c r="K44" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="L44" s="5">
+        <v>1</v>
+      </c>
+      <c r="M44" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="N44" s="5"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A45" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B45" s="5">
+        <f>3.725*2</f>
+        <v>7.45</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="G45" s="5">
+        <v>2</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I45" s="5"/>
+      <c r="K45" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="L45" s="5">
+        <f>SS303FatigueStrength</f>
+        <v>34800</v>
+      </c>
+      <c r="M45" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="N45" s="5"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A46" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B46" s="5">
+        <f>B44/2</f>
+        <v>500</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D46" s="5"/>
+      <c r="F46" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G46" s="5">
+        <f>G44*G45</f>
+        <v>0.5</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I46" s="5"/>
+      <c r="K46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L46" s="5">
+        <v>5</v>
+      </c>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A47" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B47" s="5">
+        <f>B46*B45/2</f>
+        <v>1862.5</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D47" s="5"/>
+      <c r="F47" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="G47" s="5">
+        <f>SQRT((6*B50)/G46)</f>
+        <v>1.1333502365203307</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I47" s="5"/>
+      <c r="K47" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="L47" s="5">
+        <f>AppliedForceNormal*L46/(L45*L44)</f>
+        <v>0.14367816091954022</v>
+      </c>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A48" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="5">
+        <v>2</v>
+      </c>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="K48" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="L48" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A49" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B49" s="5">
+        <f>SS303FatigueStrength</f>
+        <v>34800</v>
+      </c>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="K49" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="L49" s="5">
+        <f>(((L44/2)^2)*PI())-(L44*L48)</f>
+        <v>0.53539816339744828</v>
+      </c>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A50" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B50" s="5">
+        <f>B47*B48/B49</f>
+        <v>0.10704022988505747</v>
+      </c>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="K50" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="L50" s="5">
+        <f>AppliedForceNormal/L49</f>
+        <v>1867.7688276970396</v>
+      </c>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58B192C6-AACC-4DBA-B547-B2E0428B8816}">
+  <dimension ref="A5:O77"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="26.53125" customWidth="1"/>
+    <col min="7" max="7" width="26" customWidth="1"/>
+    <col min="12" max="12" width="32.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B5" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="G5" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="L5" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B7" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C7" s="5">
+        <f>AppliedForceNormal</f>
+        <v>1000</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="G7" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="L7" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="M7" s="5">
+        <v>1</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O7" s="5"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B8" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C8" s="5">
+        <f>3.725*2</f>
+        <v>7.45</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="H8" s="5">
+        <v>2</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="L8" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="M8" s="5">
+        <f>SS303FatigueStrength</f>
+        <v>34800</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O8" s="5"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B9" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C9" s="5">
+        <f>C7/2</f>
+        <v>500</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="G9" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="H9" s="5">
+        <f>H7*H8</f>
+        <v>0.5</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="L9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" s="5">
+        <v>5</v>
+      </c>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B10" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C10" s="5">
+        <f>C9*C8/2</f>
+        <v>1862.5</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="G10" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="H10" s="5">
+        <f>SQRT((6*C13)/H9)</f>
+        <v>1.1333502365203307</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="L10" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="M10" s="5">
+        <f>AppliedForceNormal*M9/(M8*M7)</f>
+        <v>0.14367816091954022</v>
+      </c>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="5">
+        <v>2</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="L11" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="M11" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B12" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C12" s="5">
+        <f>SS303FatigueStrength</f>
+        <v>34800</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="L12" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="M12" s="5">
+        <f>(((M7/2)^2)*PI())-(M7*M11)</f>
+        <v>0.53539816339744828</v>
+      </c>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B13" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C13" s="5">
+        <f>C10*C11/C12</f>
+        <v>0.10704022988505747</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="L13" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="M13" s="5">
+        <f>AppliedForceNormal/M12</f>
+        <v>1867.7688276970396</v>
+      </c>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B16" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C17" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="D18">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="D19">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="D21">
+        <f>D20*D18*2</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="D22">
+        <f>D19*D18</f>
+        <v>1.0625</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C23" t="s">
+        <v>343</v>
+      </c>
+      <c r="D23">
+        <f>D21+D22</f>
+        <v>1.3125</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C24" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="C36" s="3"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="C37" s="3"/>
+    </row>
+    <row r="38" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A38" t="s">
+        <v>288</v>
+      </c>
+      <c r="B38" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B39" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="33"/>
+      <c r="G39" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="H39" s="32"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="33"/>
+      <c r="L39" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="M39" s="32"/>
+      <c r="N39" s="32"/>
+      <c r="O39" s="33"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B40" s="10"/>
+      <c r="C40" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="G40" s="10"/>
+      <c r="H40" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J40" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="L40" s="10"/>
+      <c r="M40" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N40" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O40" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B41" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="C41" s="5">
+        <v>200</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="H41" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J41" s="11"/>
+      <c r="L41" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="M41" s="5">
+        <f>C42</f>
+        <v>1200</v>
+      </c>
+      <c r="N41" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="O41" s="11"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B42" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="C42" s="5">
+        <f>AppliedForceNormal+C41</f>
+        <v>1200</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E42" s="11"/>
+      <c r="G42" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="H42" s="27">
+        <v>2</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J42" s="11"/>
+      <c r="L42" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="M42" s="5">
+        <f>H43</f>
+        <v>1</v>
+      </c>
+      <c r="N42" s="5"/>
+      <c r="O42" s="11"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B43" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C43" s="5">
+        <f>MachineWidth-0.25</f>
+        <v>8.25</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="H43" s="5">
+        <f>H41*H42</f>
+        <v>1</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J43" s="11"/>
+      <c r="L43" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="M43" s="5">
+        <f>SS303FatigueStrength</f>
+        <v>34800</v>
+      </c>
+      <c r="N43" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O43" s="11"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B44" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C44" s="5">
+        <f>C42/2</f>
+        <v>600</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E44" s="11"/>
+      <c r="G44" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="H44" s="27">
+        <f>SQRT((6*C48)/H43)</f>
+        <v>0.92382264307715956</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J44" s="11"/>
+      <c r="L44" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="M44" s="5">
+        <v>5</v>
+      </c>
+      <c r="N44" s="5"/>
+      <c r="O44" s="11"/>
+    </row>
+    <row r="45" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B45" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C45" s="5">
+        <f>C44*C43/2</f>
+        <v>2475</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="E45" s="11"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="34"/>
+      <c r="J45" s="30"/>
+      <c r="L45" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="M45" s="5">
+        <f>M41*M44*FS/(M43*M42)</f>
+        <v>0.34482758620689657</v>
+      </c>
+      <c r="N45" s="5"/>
+      <c r="O45" s="11"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B46" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="5">
+        <v>2</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="11"/>
+      <c r="L46" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="M46" s="5">
+        <f>2*SQRT((M41*FS/H42)/M43)</f>
+        <v>0.37139067635410372</v>
+      </c>
+      <c r="N46" s="5"/>
+      <c r="O46" s="11"/>
+    </row>
+    <row r="47" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B47" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="C47" s="5">
+        <f>SS303FatigueStrength</f>
+        <v>34800</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="11"/>
+      <c r="L47" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="M47" s="34">
+        <f>3/8</f>
+        <v>0.375</v>
+      </c>
+      <c r="N47" s="34"/>
+      <c r="O47" s="30"/>
+    </row>
+    <row r="48" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B48" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="C48" s="34">
+        <f>C45*C46/C47</f>
+        <v>0.14224137931034483</v>
+      </c>
+      <c r="D48" s="34" t="s">
+        <v>341</v>
+      </c>
+      <c r="E48" s="30"/>
+    </row>
+    <row r="53" spans="2:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B53" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B54" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="33"/>
+      <c r="G54" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="H54" s="32"/>
+      <c r="I54" s="32"/>
+      <c r="J54" s="33"/>
+      <c r="L54" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="M54" s="32"/>
+      <c r="N54" s="32"/>
+      <c r="O54" s="33"/>
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B55" s="10"/>
+      <c r="C55" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="G55" s="10"/>
+      <c r="H55" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J55" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="L55" s="10"/>
+      <c r="M55" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N55" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O55" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B56" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="C56" s="5">
+        <f>AppliedForceNormal</f>
+        <v>1000</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E56" s="11"/>
+      <c r="G56" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="H56" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J56" s="11"/>
+      <c r="L56" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="M56" s="5">
+        <f>C56</f>
+        <v>1000</v>
+      </c>
+      <c r="N56" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="O56" s="11"/>
+    </row>
+    <row r="57" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B57" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C57" s="5">
+        <f>MachineWidth-0.25</f>
+        <v>8.25</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="G57" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="H57" s="27">
+        <v>2</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J57" s="11"/>
+      <c r="L57" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="M57" s="5">
+        <f>H58</f>
+        <v>1</v>
+      </c>
+      <c r="N57" s="5"/>
+      <c r="O57" s="11"/>
+    </row>
+    <row r="58" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B58" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C58" s="5">
+        <f>C56/2</f>
+        <v>500</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E58" s="11"/>
+      <c r="G58" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="H58" s="5">
+        <f>H56*H57</f>
+        <v>1</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J58" s="11"/>
+      <c r="L58" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="M58" s="5">
+        <f>SS303FatigueStrength</f>
+        <v>34800</v>
+      </c>
+      <c r="N58" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O58" s="11"/>
+    </row>
+    <row r="59" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B59" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C59" s="5">
+        <f>C58*C57/2</f>
+        <v>2062.5</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="E59" s="11"/>
+      <c r="G59" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="H59" s="27">
+        <f>SQRT((6*C62)/H58)</f>
+        <v>0.84333083457900682</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J59" s="11"/>
+      <c r="L59" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="M59" s="5">
+        <v>5</v>
+      </c>
+      <c r="N59" s="5"/>
+      <c r="O59" s="11"/>
+    </row>
+    <row r="60" spans="2:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B60" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="5">
+        <v>2</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" s="11"/>
+      <c r="G60" s="23"/>
+      <c r="H60" s="34"/>
+      <c r="I60" s="34"/>
+      <c r="J60" s="30"/>
+      <c r="L60" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="M60" s="5">
+        <f>M56*M59*FS/(M58*M57)</f>
+        <v>0.28735632183908044</v>
+      </c>
+      <c r="N60" s="5"/>
+      <c r="O60" s="11"/>
+    </row>
+    <row r="61" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B61" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="C61" s="5">
+        <f>SS303FatigueStrength</f>
+        <v>34800</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" s="11"/>
+      <c r="L61" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="M61" s="5">
+        <f>2*SQRT((M56*FS/H57)/M58)</f>
+        <v>0.33903175181040518</v>
+      </c>
+      <c r="N61" s="5"/>
+      <c r="O61" s="11"/>
+    </row>
+    <row r="62" spans="2:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B62" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="C62" s="34">
+        <f>C59*C60/C61</f>
+        <v>0.11853448275862069</v>
+      </c>
+      <c r="D62" s="34" t="s">
+        <v>341</v>
+      </c>
+      <c r="E62" s="30"/>
+      <c r="L62" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="M62" s="34">
+        <f>3/8</f>
+        <v>0.375</v>
+      </c>
+      <c r="N62" s="34"/>
+      <c r="O62" s="30"/>
+    </row>
+    <row r="67" spans="2:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B68" s="31"/>
+      <c r="C68" s="32"/>
+      <c r="D68" s="32"/>
+      <c r="E68" s="33"/>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B69" s="10"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="11"/>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B70" s="10"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="11"/>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B71" s="10"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="11"/>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B72" s="10"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="11"/>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B73" s="10"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="11"/>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B74" s="10"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="11"/>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B75" s="10"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="11"/>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B76" s="10"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="11"/>
+    </row>
+    <row r="77" spans="2:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B77" s="23"/>
+      <c r="C77" s="34"/>
+      <c r="D77" s="34"/>
+      <c r="E77" s="30"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3C7E393-217F-47B1-AEB5-314CED4C9834}">
   <dimension ref="C2:L24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5430,12 +5932,12 @@
   <sheetData>
     <row r="2" spans="3:12" x14ac:dyDescent="0.45">
       <c r="J2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
     </row>
     <row r="3" spans="3:12" x14ac:dyDescent="0.45">
       <c r="D3" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="4" spans="3:12" x14ac:dyDescent="0.45">
@@ -5449,31 +5951,31 @@
         <v>5</v>
       </c>
       <c r="J4" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="K4" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="3:12" x14ac:dyDescent="0.45">
       <c r="D5" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="E5">
         <f>AppliedForceNormal/E6</f>
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="J5" s="44">
         <f>1/3</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="K5" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="3:12" x14ac:dyDescent="0.45">
       <c r="D6" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -5481,18 +5983,18 @@
     </row>
     <row r="7" spans="3:12" x14ac:dyDescent="0.45">
       <c r="D7" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="E7">
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
     </row>
     <row r="8" spans="3:12" x14ac:dyDescent="0.45">
       <c r="D8" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="E8">
         <v>0.5</v>
@@ -5503,10 +6005,10 @@
     </row>
     <row r="9" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C9" s="3" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="D9" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="E9">
         <v>0.4</v>
@@ -5518,7 +6020,7 @@
     <row r="10" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C10" s="3"/>
       <c r="D10" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="E10">
         <f>(E9+E8)/2</f>
@@ -5528,15 +6030,15 @@
         <v>71</v>
       </c>
       <c r="J10" s="45" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="K10" s="45" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="11" spans="3:12" x14ac:dyDescent="0.45">
       <c r="D11" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -5545,11 +6047,11 @@
         <v>71</v>
       </c>
       <c r="J11" s="45" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="K11" s="45">
-        <f>'WS Sizing Calculations'!N115</f>
-        <v>255.37910433727859</v>
+        <f>'Motor Sizing Calcs'!L8</f>
+        <v>364.82729191039806</v>
       </c>
       <c r="L11" t="s">
         <v>103</v>
@@ -5557,19 +6059,19 @@
     </row>
     <row r="12" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C12" s="3" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="D12" t="s">
         <v>116</v>
       </c>
       <c r="E12" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="F12" t="s">
         <v>11</v>
       </c>
       <c r="J12" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="K12">
         <v>3.73</v>
@@ -5580,7 +6082,7 @@
     </row>
     <row r="13" spans="3:12" x14ac:dyDescent="0.45">
       <c r="D13" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="E13">
         <v>18100</v>
@@ -5589,7 +6091,7 @@
         <v>13</v>
       </c>
       <c r="J13" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="K13">
         <f>E10/2</f>
@@ -5601,7 +6103,7 @@
     </row>
     <row r="14" spans="3:12" x14ac:dyDescent="0.45">
       <c r="D14" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="E14">
         <v>27700</v>
@@ -5610,7 +6112,7 @@
         <v>13</v>
       </c>
       <c r="J14" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="K14">
         <f>K12-K13</f>
@@ -5622,16 +6124,16 @@
     </row>
     <row r="15" spans="3:12" x14ac:dyDescent="0.45">
       <c r="D15" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="J15" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="K15">
         <f>K12+K13</f>
@@ -5643,85 +6145,85 @@
     </row>
     <row r="16" spans="3:12" x14ac:dyDescent="0.45">
       <c r="D16" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="E16">
         <f>E15*J5</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="F16" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="J16" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="K16">
         <f>($K$11*$K$15)</f>
-        <v>1010.0243576539368</v>
+        <v>1442.8919395056244</v>
       </c>
       <c r="L16" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
     </row>
     <row r="17" spans="4:12" x14ac:dyDescent="0.45">
       <c r="D17" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E17">
         <f>E7*E16</f>
         <v>3.333333333333333</v>
       </c>
       <c r="F17" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="J17" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="K17">
         <f>(-1*$K$11*-1*$K$15)</f>
-        <v>1010.0243576539368</v>
+        <v>1442.8919395056244</v>
       </c>
       <c r="L17" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
     </row>
     <row r="18" spans="4:12" x14ac:dyDescent="0.45">
       <c r="J18" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="K18">
         <f>($K$11*-1*$K$14)</f>
-        <v>-895.10376070216148</v>
+        <v>-1278.7196581459452</v>
       </c>
       <c r="L18" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
     </row>
     <row r="19" spans="4:12" x14ac:dyDescent="0.45">
       <c r="D19" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="E19">
         <f>PI()*E8*(E7/2)</f>
         <v>7.8539816339744828</v>
       </c>
       <c r="F19" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="J19" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="K19">
         <f>(-1*$K$11*$K$14)</f>
-        <v>-895.10376070216148</v>
+        <v>-1278.7196581459452</v>
       </c>
       <c r="L19" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
     </row>
     <row r="20" spans="4:12" x14ac:dyDescent="0.45">
       <c r="D20" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="E20">
         <f>((E8/2)^2*PI())-((E9/2)^2*PI())</f>
@@ -5732,24 +6234,24 @@
       </c>
       <c r="K20">
         <f>SUM(K16:K19)</f>
-        <v>229.84119390355067</v>
+        <v>328.34456271935824</v>
       </c>
       <c r="L20" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
     </row>
     <row r="21" spans="4:12" x14ac:dyDescent="0.45">
       <c r="K21">
         <f>K20/12</f>
-        <v>19.153432825295891</v>
+        <v>27.362046893279853</v>
       </c>
       <c r="L21" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
     </row>
     <row r="22" spans="4:12" x14ac:dyDescent="0.45">
       <c r="D22" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="E22">
         <f>E19*E16</f>
@@ -5759,14 +6261,14 @@
     <row r="23" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E23">
         <f>E5/E22</f>
-        <v>133.69015219719211</v>
+        <v>190.98593171027443</v>
       </c>
       <c r="J23" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="K23">
         <f>K20/MachineWidth</f>
-        <v>27.040140459241258</v>
+        <v>38.628772084630384</v>
       </c>
       <c r="L23" t="s">
         <v>4</v>
@@ -5775,14 +6277,14 @@
     <row r="24" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E24">
         <f>E5/E20</f>
-        <v>4951.4871184145222</v>
+        <v>7073.5530263064611</v>
       </c>
       <c r="J24" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="K24">
         <f>K23*MachineHeight/MachineWidth</f>
-        <v>68.236589747144109</v>
+        <v>97.4808424959202</v>
       </c>
       <c r="L24" t="s">
         <v>4</v>
@@ -5798,7 +6300,171 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA2221C-5C0B-46B0-85B0-C1695986BBCC}">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="33.9296875" customWidth="1"/>
+    <col min="4" max="4" width="23.46484375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3">
+        <v>21.45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B4">
+        <f>B15</f>
+        <v>7.34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" t="s">
+        <v>278</v>
+      </c>
+      <c r="E7" cm="1">
+        <f t="array" ref="E7">(MMH-PTIH)*(((WCID/2)^2)-((WPRT/2)^2))/((2*((WCID/2)^2))-((WPRT/2)^2))</f>
+        <v>6.8820660330165087</v>
+      </c>
+      <c r="F7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B8" s="5">
+        <f>1.5</f>
+        <v>1.5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>279</v>
+      </c>
+      <c r="E8">
+        <f>(WPRT^2)*E7/((WCID^2)-(WPRT^2))</f>
+        <v>0.34586793396698351</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>280</v>
+      </c>
+      <c r="E10">
+        <f>E7+E8+B9+B11</f>
+        <v>10.567933966983492</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B11" s="5">
+        <v>1.67</v>
+      </c>
+      <c r="D11" t="s">
+        <v>281</v>
+      </c>
+      <c r="E11">
+        <f>E7+E8+B11</f>
+        <v>8.8979339669834925</v>
+      </c>
+      <c r="F11" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>283</v>
+      </c>
+      <c r="E12">
+        <f>E7+E8+B10</f>
+        <v>8.2279339669834926</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B15" s="5">
+        <f>SUM(B8:B13)</f>
+        <v>7.34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCF40096-3C22-48AC-994A-0768CD3A5344}">
   <dimension ref="A5:C19"/>
   <sheetViews>
@@ -5924,7 +6590,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B5C0A57-75E1-4C82-BEEC-8882CA08F993}">
   <dimension ref="C6:D22"/>
   <sheetViews>
@@ -6021,167 +6687,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA2221C-5C0B-46B0-85B0-C1695986BBCC}">
-  <dimension ref="A1:F14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="33.9296875" customWidth="1"/>
-    <col min="4" max="4" width="23.46484375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B1">
-        <v>0.875</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B2">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B3">
-        <v>21.45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B4">
-        <f>B14</f>
-        <v>7.5279999999999996</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="D7" t="s">
-        <v>281</v>
-      </c>
-      <c r="E7" cm="1">
-        <f t="array" ref="E7">(MMH-PTIH)*(((WCID/2)^2)-((WPRT/2)^2))/((2*((WCID/2)^2))-((WPRT/2)^2))</f>
-        <v>6.7903701850925469</v>
-      </c>
-      <c r="F7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="B8" s="5">
-        <f>0.938+0.75</f>
-        <v>1.6879999999999999</v>
-      </c>
-      <c r="D8" t="s">
-        <v>282</v>
-      </c>
-      <c r="E8">
-        <f>(WPRT^2)*E7/((WCID^2)-(WPRT^2))</f>
-        <v>0.34125962981490748</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="B9" s="5">
-        <v>1.67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="B10" s="5">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>283</v>
-      </c>
-      <c r="E10">
-        <f>E7+E8+B9+B11</f>
-        <v>10.471629814907454</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="B11" s="5">
-        <v>1.67</v>
-      </c>
-      <c r="D11" t="s">
-        <v>284</v>
-      </c>
-      <c r="E11">
-        <f>E7+E8+B11</f>
-        <v>8.8016298149074537</v>
-      </c>
-      <c r="F11" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="B12" s="5">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>286</v>
-      </c>
-      <c r="E12">
-        <f>E7+E8+B10</f>
-        <v>8.1316298149074555</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="B13" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="B14" s="5">
-        <f>SUM(B8:B13)</f>
-        <v>7.5279999999999996</v>
-      </c>
-      <c r="D14" t="s">
-        <v>287</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/System Design and Documentation/Washing Machine Design Calculations.xlsx
+++ b/System Design and Documentation/Washing Machine Design Calculations.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="1720" documentId="13_ncr:1_{4AAA6B9C-80F3-4AB5-A3F7-F08D2B1D8BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94A95C2E-6360-4CD9-AC68-BEE947E29BD9}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{73A7591B-B5CA-4318-9343-9B3FDBEBCAB4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="2" xr2:uid="{73A7591B-B5CA-4318-9343-9B3FDBEBCAB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Design and Material Specs" sheetId="2" r:id="rId1"/>
@@ -1721,6 +1721,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2044,23 +2048,23 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="32.265625" customWidth="1"/>
-    <col min="12" max="12" width="8.19921875" customWidth="1"/>
-    <col min="13" max="13" width="19.19921875" customWidth="1"/>
-    <col min="14" max="14" width="18.73046875" customWidth="1"/>
-    <col min="15" max="15" width="18.3984375" customWidth="1"/>
-    <col min="16" max="16" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="32.28515625" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" customWidth="1"/>
+    <col min="13" max="13" width="19.140625" customWidth="1"/>
+    <col min="14" max="14" width="18.7109375" customWidth="1"/>
+    <col min="15" max="15" width="18.42578125" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:17" x14ac:dyDescent="0.45">
+    <row r="2" spans="3:17" x14ac:dyDescent="0.25">
       <c r="M2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="3:17" x14ac:dyDescent="0.45">
+    <row r="3" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -2077,7 +2081,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="3:17" x14ac:dyDescent="0.45">
+    <row r="4" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -2106,7 +2110,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="3:17" x14ac:dyDescent="0.45">
+    <row r="5" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -2133,7 +2137,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="6" spans="3:17" x14ac:dyDescent="0.45">
+    <row r="6" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>6</v>
       </c>
@@ -2144,7 +2148,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="3:17" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>10</v>
       </c>
@@ -2155,17 +2159,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="3:17" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="3:17" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="3:17" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>67</v>
       </c>
@@ -2176,12 +2180,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="3:17" x14ac:dyDescent="0.45">
+    <row r="11" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="3:17" x14ac:dyDescent="0.45">
+    <row r="12" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>69</v>
       </c>
@@ -2195,7 +2199,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="13" spans="3:17" x14ac:dyDescent="0.45">
+    <row r="13" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>70</v>
       </c>
@@ -2212,7 +2216,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="3:17" x14ac:dyDescent="0.45">
+    <row r="14" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>72</v>
       </c>
@@ -2232,7 +2236,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="3:17" x14ac:dyDescent="0.45">
+    <row r="15" spans="3:17" x14ac:dyDescent="0.25">
       <c r="M15" t="s">
         <v>207</v>
       </c>
@@ -2246,7 +2250,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="3:17" x14ac:dyDescent="0.45">
+    <row r="16" spans="3:17" x14ac:dyDescent="0.25">
       <c r="M16" t="s">
         <v>251</v>
       </c>
@@ -2254,12 +2258,12 @@
         <v>4.4482220000000003</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>69</v>
       </c>
@@ -2270,7 +2274,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>70</v>
       </c>
@@ -2282,7 +2286,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>72</v>
       </c>
@@ -2293,7 +2297,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>3</v>
       </c>
@@ -2301,12 +2305,12 @@
         <v>194</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D33" s="3" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>43</v>
       </c>
@@ -2314,7 +2318,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>45</v>
       </c>
@@ -2337,7 +2341,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="51" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>50</v>
       </c>
@@ -2357,7 +2361,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="52" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>54</v>
       </c>
@@ -2377,7 +2381,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>58</v>
       </c>
@@ -2391,7 +2395,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="54" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>60</v>
       </c>
@@ -2411,7 +2415,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>64</v>
       </c>
@@ -2446,27 +2450,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F7F30C8-AEF8-4367-97CA-93B5B12A08F4}">
   <dimension ref="A1:AI56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.33203125" customWidth="1"/>
-    <col min="2" max="2" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.1328125" customWidth="1"/>
-    <col min="6" max="6" width="35.796875" customWidth="1"/>
-    <col min="8" max="8" width="5.6640625" customWidth="1"/>
-    <col min="10" max="10" width="12.265625" customWidth="1"/>
-    <col min="11" max="11" width="39.1328125" customWidth="1"/>
-    <col min="13" max="13" width="5.86328125" customWidth="1"/>
-    <col min="16" max="16" width="31.19921875" customWidth="1"/>
-    <col min="18" max="18" width="8.73046875" customWidth="1"/>
-    <col min="21" max="21" width="22.796875" customWidth="1"/>
+    <col min="1" max="1" width="40.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.140625" customWidth="1"/>
+    <col min="6" max="6" width="35.85546875" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" customWidth="1"/>
+    <col min="11" max="11" width="39.140625" customWidth="1"/>
+    <col min="13" max="13" width="5.85546875" customWidth="1"/>
+    <col min="16" max="16" width="31.140625" customWidth="1"/>
+    <col min="18" max="18" width="8.7109375" customWidth="1"/>
+    <col min="21" max="21" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>121</v>
       </c>
@@ -2489,7 +2493,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>131</v>
       </c>
@@ -2530,7 +2534,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:35" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
@@ -2587,7 +2591,7 @@
       <c r="AH4" s="46"/>
       <c r="AI4" s="46"/>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>147</v>
       </c>
@@ -2632,7 +2636,7 @@
       <c r="AH5" s="48"/>
       <c r="AI5" s="49"/>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
       <c r="B6" s="5" t="s">
         <v>14</v>
@@ -2695,7 +2699,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>85</v>
       </c>
@@ -2760,7 +2764,7 @@
       </c>
       <c r="AI7" s="22"/>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>83</v>
       </c>
@@ -2825,7 +2829,7 @@
       <c r="AH8" s="21"/>
       <c r="AI8" s="22"/>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>86</v>
       </c>
@@ -2891,7 +2895,7 @@
       </c>
       <c r="AI9" s="22"/>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>89</v>
       </c>
@@ -2955,7 +2959,7 @@
       <c r="AH10" s="21"/>
       <c r="AI10" s="22"/>
     </row>
-    <row r="11" spans="1:35" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>10</v>
       </c>
@@ -3012,7 +3016,7 @@
       <c r="AH11" s="21"/>
       <c r="AI11" s="22"/>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>90</v>
       </c>
@@ -3068,7 +3072,7 @@
       <c r="AH12" s="21"/>
       <c r="AI12" s="22"/>
     </row>
-    <row r="13" spans="1:35" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>93</v>
       </c>
@@ -3116,7 +3120,7 @@
       <c r="AH13" s="51"/>
       <c r="AI13" s="52"/>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -3146,7 +3150,7 @@
       <c r="AH14" s="46"/>
       <c r="AI14" s="46"/>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>94</v>
       </c>
@@ -3180,7 +3184,7 @@
       <c r="AH15" s="46"/>
       <c r="AI15" s="46"/>
     </row>
-    <row r="16" spans="1:35" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>91</v>
       </c>
@@ -3218,7 +3222,7 @@
       <c r="AH16" s="46"/>
       <c r="AI16" s="46"/>
     </row>
-    <row r="17" spans="1:35" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>96</v>
       </c>
@@ -3255,7 +3259,7 @@
       <c r="AH17" s="46"/>
       <c r="AI17" s="46"/>
     </row>
-    <row r="18" spans="1:35" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
         <v>105</v>
       </c>
@@ -3291,7 +3295,7 @@
       <c r="AH18" s="46"/>
       <c r="AI18" s="46"/>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="W19" s="21">
         <f>0.125</f>
         <v>0.125</v>
@@ -3318,7 +3322,7 @@
       <c r="AH19" s="46"/>
       <c r="AI19" s="46"/>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="W20" s="21">
         <f>SS303FatigueStrength</f>
         <v>34800</v>
@@ -3345,7 +3349,7 @@
       <c r="AH20" s="46"/>
       <c r="AI20" s="46"/>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="F21" t="s">
         <v>119</v>
       </c>
@@ -3372,7 +3376,7 @@
       <c r="AH21" s="46"/>
       <c r="AI21" s="46"/>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>146</v>
       </c>
@@ -3408,7 +3412,7 @@
       <c r="AH22" s="46"/>
       <c r="AI22" s="46"/>
     </row>
-    <row r="23" spans="1:35" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>136</v>
       </c>
@@ -3436,7 +3440,7 @@
       <c r="AH23" s="46"/>
       <c r="AI23" s="46"/>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="W24" s="46"/>
       <c r="X24" s="46"/>
       <c r="Y24" s="46"/>
@@ -3456,7 +3460,7 @@
       <c r="AH24" s="46"/>
       <c r="AI24" s="46"/>
     </row>
-    <row r="27" spans="1:35" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>173</v>
       </c>
@@ -3464,7 +3468,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28" s="31"/>
       <c r="B28" s="32" t="s">
         <v>14</v>
@@ -3486,7 +3490,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>149</v>
       </c>
@@ -3508,7 +3512,7 @@
         <v>50.31</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>150</v>
       </c>
@@ -3526,7 +3530,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>153</v>
       </c>
@@ -3542,7 +3546,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>255</v>
       </c>
@@ -3554,7 +3558,7 @@
       </c>
       <c r="D32" s="11"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>158</v>
       </c>
@@ -3564,7 +3568,7 @@
       <c r="C33" s="5"/>
       <c r="D33" s="11"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>159</v>
       </c>
@@ -3580,7 +3584,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>159</v>
       </c>
@@ -3593,7 +3597,7 @@
       </c>
       <c r="D35" s="11"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>159</v>
       </c>
@@ -3606,7 +3610,7 @@
       </c>
       <c r="D36" s="11"/>
     </row>
-    <row r="37" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="23" t="s">
         <v>139</v>
       </c>
@@ -3617,12 +3621,12 @@
       <c r="C37" s="34"/>
       <c r="D37" s="30"/>
     </row>
-    <row r="40" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F40" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>124</v>
       </c>
@@ -3637,7 +3641,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="31"/>
       <c r="B42" s="32" t="s">
         <v>14</v>
@@ -3659,7 +3663,7 @@
       </c>
       <c r="I42" s="11"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>159</v>
       </c>
@@ -3682,7 +3686,7 @@
       </c>
       <c r="I43" s="11"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
         <v>159</v>
       </c>
@@ -3704,7 +3708,7 @@
       <c r="H44" s="5"/>
       <c r="I44" s="11"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
         <v>159</v>
       </c>
@@ -3728,7 +3732,7 @@
       </c>
       <c r="I45" s="11"/>
     </row>
-    <row r="46" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="23" t="s">
         <v>159</v>
       </c>
@@ -3752,7 +3756,7 @@
       </c>
       <c r="I46" s="11"/>
     </row>
-    <row r="47" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F47" s="23" t="s">
         <v>236</v>
       </c>
@@ -3765,17 +3769,17 @@
       </c>
       <c r="I47" s="30"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D50">
         <v>50</v>
       </c>
@@ -3783,7 +3787,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D51">
         <f>2*PI()*D50/60</f>
         <v>5.2359877559829888</v>
@@ -3795,7 +3799,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D52">
         <f>B46</f>
         <v>11.368533496495498</v>
@@ -3804,7 +3808,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D53">
         <f>D51*D52</f>
         <v>59.525502191132908</v>
@@ -3817,7 +3821,7 @@
         <v>107.43264154188245</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D55">
         <v>24</v>
       </c>
@@ -3825,7 +3829,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D56">
         <f>D53/D55</f>
         <v>2.4802292579638712</v>
@@ -3852,25 +3856,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35650138-A39B-40B7-A1C0-41B1A4232402}">
   <dimension ref="A1:X50"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.3984375" customWidth="1"/>
-    <col min="6" max="6" width="34.6640625" customWidth="1"/>
-    <col min="11" max="11" width="25.6640625" customWidth="1"/>
+    <col min="1" max="1" width="39.42578125" customWidth="1"/>
+    <col min="6" max="6" width="34.7109375" customWidth="1"/>
+    <col min="11" max="11" width="25.7109375" customWidth="1"/>
     <col min="16" max="16" width="17" customWidth="1"/>
-    <col min="21" max="21" width="19.73046875" customWidth="1"/>
+    <col min="21" max="21" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>8</v>
       </c>
@@ -3890,7 +3894,7 @@
       <c r="M2" s="32"/>
       <c r="N2" s="33"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="5" t="s">
         <v>14</v>
@@ -3922,7 +3926,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>18</v>
       </c>
@@ -3955,7 +3959,7 @@
       </c>
       <c r="N4" s="11"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>19</v>
       </c>
@@ -3988,7 +3992,7 @@
       </c>
       <c r="N5" s="11"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>20</v>
       </c>
@@ -4018,7 +4022,7 @@
       </c>
       <c r="N6" s="11"/>
     </row>
-    <row r="7" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>21</v>
       </c>
@@ -4049,7 +4053,7 @@
       </c>
       <c r="N7" s="30"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>23</v>
       </c>
@@ -4069,7 +4073,7 @@
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>10</v>
       </c>
@@ -4089,7 +4093,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>73</v>
       </c>
@@ -4111,7 +4115,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>74</v>
       </c>
@@ -4122,7 +4126,7 @@
       <c r="C11" s="5"/>
       <c r="D11" s="11"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>75</v>
       </c>
@@ -4134,7 +4138,7 @@
       </c>
       <c r="D12" s="11"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -4152,7 +4156,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>160</v>
       </c>
@@ -4176,7 +4180,7 @@
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="35" t="s">
         <v>163</v>
       </c>
@@ -4197,7 +4201,7 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="23" t="s">
         <v>87</v>
       </c>
@@ -4214,7 +4218,7 @@
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="F17" s="5" t="s">
         <v>181</v>
       </c>
@@ -4224,12 +4228,12 @@
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
     </row>
-    <row r="21" spans="1:24" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="31" t="s">
         <v>167</v>
       </c>
@@ -4261,7 +4265,7 @@
       <c r="W22" s="32"/>
       <c r="X22" s="33"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="5" t="s">
         <v>14</v>
@@ -4313,7 +4317,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>80</v>
       </c>
@@ -4363,7 +4367,7 @@
       </c>
       <c r="X24" s="11"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>78</v>
       </c>
@@ -4412,7 +4416,7 @@
       </c>
       <c r="X25" s="11"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>79</v>
       </c>
@@ -4461,7 +4465,7 @@
       </c>
       <c r="X26" s="11"/>
     </row>
-    <row r="27" spans="1:24" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="23" t="s">
         <v>77</v>
       </c>
@@ -4507,7 +4511,7 @@
       </c>
       <c r="X27" s="30"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="F28" s="10" t="s">
         <v>20</v>
       </c>
@@ -4531,7 +4535,7 @@
       <c r="R28" s="5"/>
       <c r="S28" s="5"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="F29" s="10" t="s">
         <v>21</v>
       </c>
@@ -4557,7 +4561,7 @@
       <c r="R29" s="5"/>
       <c r="S29" s="5"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="F30" s="10" t="s">
         <v>23</v>
       </c>
@@ -4585,7 +4589,7 @@
       <c r="R30" s="5"/>
       <c r="S30" s="5"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="F31" s="10" t="s">
         <v>10</v>
       </c>
@@ -4597,7 +4601,7 @@
       </c>
       <c r="I31" s="11"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="F32" s="10" t="s">
         <v>73</v>
       </c>
@@ -4610,7 +4614,7 @@
       </c>
       <c r="I32" s="11"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F33" s="10" t="s">
         <v>74</v>
       </c>
@@ -4635,7 +4639,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F34" s="10" t="s">
         <v>75</v>
       </c>
@@ -4658,7 +4662,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F35" s="10"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
@@ -4672,7 +4676,7 @@
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F36" s="10" t="s">
         <v>160</v>
       </c>
@@ -4696,7 +4700,7 @@
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F37" s="10" t="s">
         <v>163</v>
       </c>
@@ -4719,7 +4723,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F38" s="23" t="s">
         <v>87</v>
       </c>
@@ -4727,12 +4731,12 @@
       <c r="H38" s="34"/>
       <c r="I38" s="30"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>200</v>
       </c>
@@ -4752,7 +4756,7 @@
       <c r="M42" s="5"/>
       <c r="N42" s="5"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="5" t="s">
         <v>14</v>
@@ -4784,7 +4788,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>191</v>
       </c>
@@ -4817,7 +4821,7 @@
       </c>
       <c r="N44" s="5"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>192</v>
       </c>
@@ -4853,7 +4857,7 @@
       </c>
       <c r="N45" s="5"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>198</v>
       </c>
@@ -4885,7 +4889,7 @@
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>196</v>
       </c>
@@ -4918,7 +4922,7 @@
       <c r="M47" s="5"/>
       <c r="N47" s="5"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>10</v>
       </c>
@@ -4940,7 +4944,7 @@
       <c r="M48" s="5"/>
       <c r="N48" s="5"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>241</v>
       </c>
@@ -4960,7 +4964,7 @@
       <c r="M49" s="5"/>
       <c r="N49" s="5"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>240</v>
       </c>
@@ -4995,14 +4999,14 @@
       <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.53125" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" customWidth="1"/>
     <col min="7" max="7" width="26" customWidth="1"/>
-    <col min="12" max="12" width="32.6640625" customWidth="1"/>
+    <col min="12" max="12" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>200</v>
       </c>
@@ -5022,7 +5026,7 @@
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
         <v>14</v>
@@ -5054,7 +5058,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>191</v>
       </c>
@@ -5087,7 +5091,7 @@
       </c>
       <c r="O7" s="5"/>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>192</v>
       </c>
@@ -5123,7 +5127,7 @@
       </c>
       <c r="O8" s="5"/>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>198</v>
       </c>
@@ -5155,7 +5159,7 @@
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>196</v>
       </c>
@@ -5188,7 +5192,7 @@
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>10</v>
       </c>
@@ -5210,7 +5214,7 @@
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>241</v>
       </c>
@@ -5230,7 +5234,7 @@
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>240</v>
       </c>
@@ -5252,44 +5256,44 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D18">
         <v>0.125</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D19">
         <v>8.5</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D21">
         <f>D20*D18*2</f>
         <v>0.25</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D22">
         <f>D19*D18</f>
         <v>1.0625</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>343</v>
       </c>
@@ -5298,18 +5302,18 @@
         <v>1.3125</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C37" s="3"/>
     </row>
-    <row r="38" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>288</v>
       </c>
@@ -5317,7 +5321,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B39" s="31" t="s">
         <v>268</v>
       </c>
@@ -5337,7 +5341,7 @@
       <c r="N39" s="32"/>
       <c r="O39" s="33"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B40" s="10"/>
       <c r="C40" s="5" t="s">
         <v>14</v>
@@ -5369,7 +5373,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
         <v>269</v>
       </c>
@@ -5404,7 +5408,7 @@
       </c>
       <c r="O41" s="11"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
         <v>191</v>
       </c>
@@ -5436,7 +5440,7 @@
       <c r="N42" s="5"/>
       <c r="O42" s="11"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
         <v>192</v>
       </c>
@@ -5473,7 +5477,7 @@
       </c>
       <c r="O43" s="11"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
         <v>198</v>
       </c>
@@ -5505,7 +5509,7 @@
       <c r="N44" s="5"/>
       <c r="O44" s="11"/>
     </row>
-    <row r="45" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>196</v>
       </c>
@@ -5531,7 +5535,7 @@
       <c r="N45" s="5"/>
       <c r="O45" s="11"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
         <v>10</v>
       </c>
@@ -5552,7 +5556,7 @@
       <c r="N46" s="5"/>
       <c r="O46" s="11"/>
     </row>
-    <row r="47" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
         <v>241</v>
       </c>
@@ -5574,7 +5578,7 @@
       <c r="N47" s="34"/>
       <c r="O47" s="30"/>
     </row>
-    <row r="48" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="23" t="s">
         <v>240</v>
       </c>
@@ -5587,12 +5591,12 @@
       </c>
       <c r="E48" s="30"/>
     </row>
-    <row r="53" spans="2:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="53" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B54" s="31" t="s">
         <v>268</v>
       </c>
@@ -5612,7 +5616,7 @@
       <c r="N54" s="32"/>
       <c r="O54" s="33"/>
     </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B55" s="10"/>
       <c r="C55" s="5" t="s">
         <v>14</v>
@@ -5644,7 +5648,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
         <v>191</v>
       </c>
@@ -5678,7 +5682,7 @@
       </c>
       <c r="O56" s="11"/>
     </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
         <v>192</v>
       </c>
@@ -5712,7 +5716,7 @@
       <c r="N57" s="5"/>
       <c r="O57" s="11"/>
     </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
         <v>198</v>
       </c>
@@ -5747,7 +5751,7 @@
       </c>
       <c r="O58" s="11"/>
     </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
         <v>196</v>
       </c>
@@ -5779,7 +5783,7 @@
       <c r="N59" s="5"/>
       <c r="O59" s="11"/>
     </row>
-    <row r="60" spans="2:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="60" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
         <v>10</v>
       </c>
@@ -5804,7 +5808,7 @@
       <c r="N60" s="5"/>
       <c r="O60" s="11"/>
     </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
         <v>241</v>
       </c>
@@ -5826,7 +5830,7 @@
       <c r="N61" s="5"/>
       <c r="O61" s="11"/>
     </row>
-    <row r="62" spans="2:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="62" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="23" t="s">
         <v>240</v>
       </c>
@@ -5848,62 +5852,62 @@
       <c r="N62" s="34"/>
       <c r="O62" s="30"/>
     </row>
-    <row r="67" spans="2:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B68" s="31"/>
       <c r="C68" s="32"/>
       <c r="D68" s="32"/>
       <c r="E68" s="33"/>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B69" s="10"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="11"/>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B70" s="10"/>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
       <c r="E70" s="11"/>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B71" s="10"/>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
       <c r="E71" s="11"/>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B72" s="10"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="11"/>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B73" s="10"/>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="11"/>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B74" s="10"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="11"/>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B75" s="10"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="11"/>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B76" s="10"/>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
       <c r="E76" s="11"/>
     </row>
-    <row r="77" spans="2:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="77" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="23"/>
       <c r="C77" s="34"/>
       <c r="D77" s="34"/>
@@ -5923,24 +5927,24 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="23.59765625" customWidth="1"/>
-    <col min="5" max="5" width="10.06640625" customWidth="1"/>
-    <col min="10" max="10" width="29.53125" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="10" max="10" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J2" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>16</v>
       </c>
@@ -5957,7 +5961,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>322</v>
       </c>
@@ -5973,7 +5977,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>323</v>
       </c>
@@ -5981,7 +5985,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>310</v>
       </c>
@@ -5992,7 +5996,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>301</v>
       </c>
@@ -6003,7 +6007,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C9" s="3" t="s">
         <v>308</v>
       </c>
@@ -6017,7 +6021,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C10" s="3"/>
       <c r="D10" t="s">
         <v>325</v>
@@ -6036,7 +6040,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="11" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>304</v>
       </c>
@@ -6057,7 +6061,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C12" s="3" t="s">
         <v>307</v>
       </c>
@@ -6080,7 +6084,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>305</v>
       </c>
@@ -6101,7 +6105,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>309</v>
       </c>
@@ -6122,7 +6126,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>315</v>
       </c>
@@ -6143,7 +6147,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>316</v>
       </c>
@@ -6165,7 +6169,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="17" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>319</v>
       </c>
@@ -6187,7 +6191,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="4:12" x14ac:dyDescent="0.25">
       <c r="J18" t="s">
         <v>332</v>
       </c>
@@ -6199,7 +6203,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="19" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>311</v>
       </c>
@@ -6221,7 +6225,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="20" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>312</v>
       </c>
@@ -6240,7 +6244,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="21" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="4:12" x14ac:dyDescent="0.25">
       <c r="K21">
         <f>K20/12</f>
         <v>27.362046893279853</v>
@@ -6249,7 +6253,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="22" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>317</v>
       </c>
@@ -6258,7 +6262,7 @@
         <v>2.617993877991494</v>
       </c>
     </row>
-    <row r="23" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="4:12" x14ac:dyDescent="0.25">
       <c r="E23">
         <f>E5/E22</f>
         <v>190.98593171027443</v>
@@ -6274,7 +6278,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="4:12" x14ac:dyDescent="0.25">
       <c r="E24">
         <f>E5/E20</f>
         <v>7073.5530263064611</v>
@@ -6305,16 +6309,16 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.9296875" customWidth="1"/>
-    <col min="4" max="4" width="23.46484375" customWidth="1"/>
+    <col min="1" max="1" width="34" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>141</v>
       </c>
@@ -6322,7 +6326,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>142</v>
       </c>
@@ -6333,7 +6337,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>143</v>
       </c>
@@ -6341,7 +6345,7 @@
         <v>21.45</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>144</v>
       </c>
@@ -6350,7 +6354,7 @@
         <v>7.34</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>273</v>
       </c>
@@ -6366,7 +6370,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>274</v>
       </c>
@@ -6382,7 +6386,7 @@
         <v>0.34586793396698351</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>275</v>
       </c>
@@ -6390,7 +6394,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>254</v>
       </c>
@@ -6405,7 +6409,7 @@
         <v>10.567933966983492</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>276</v>
       </c>
@@ -6423,7 +6427,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>253</v>
       </c>
@@ -6438,7 +6442,7 @@
         <v>8.2279339669834926</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>345</v>
       </c>
@@ -6446,11 +6450,11 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>277</v>
       </c>
@@ -6472,13 +6476,13 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.265625" customWidth="1"/>
-    <col min="2" max="2" width="33.53125" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>225</v>
       </c>
@@ -6486,7 +6490,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>226</v>
       </c>
@@ -6497,22 +6501,22 @@
         <v>227</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C9" s="3" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" s="3" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" s="3" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>210</v>
       </c>
@@ -6523,7 +6527,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>213</v>
       </c>
@@ -6531,7 +6535,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>216</v>
       </c>
@@ -6539,7 +6543,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>218</v>
       </c>
@@ -6547,7 +6551,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>220</v>
       </c>
@@ -6555,7 +6559,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>222</v>
       </c>
@@ -6563,7 +6567,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>223</v>
       </c>
@@ -6594,36 +6598,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B5C0A57-75E1-4C82-BEEC-8882CA08F993}">
   <dimension ref="C6:D22"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="95.1328125" customWidth="1"/>
+    <col min="3" max="3" width="95.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C9" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C10" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>28</v>
       </c>
@@ -6631,7 +6635,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>30</v>
       </c>
@@ -6639,7 +6643,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>32</v>
       </c>
@@ -6647,12 +6651,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>35</v>
       </c>
@@ -6660,7 +6664,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>37</v>
       </c>
@@ -6668,7 +6672,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>39</v>
       </c>
@@ -6676,7 +6680,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>41</v>
       </c>
